--- a/Scrum Sheet.xlsx
+++ b/Scrum Sheet.xlsx
@@ -417,7 +417,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="79">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -570,6 +570,9 @@
   </si>
   <si>
     <t>Velocity</t>
+  </si>
+  <si>
+    <t>Data Training</t>
   </si>
   <si>
     <t>familiarizing model</t>
@@ -1318,11 +1321,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="125387098"/>
-        <c:axId val="964995014"/>
+        <c:axId val="1166185840"/>
+        <c:axId val="1410295089"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="125387098"/>
+        <c:axId val="1166185840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1374,10 +1377,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="964995014"/>
+        <c:crossAx val="1410295089"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="964995014"/>
+        <c:axId val="1410295089"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1452,7 +1455,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125387098"/>
+        <c:crossAx val="1166185840"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1526,11 +1529,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1233699760"/>
-        <c:axId val="824926627"/>
+        <c:axId val="1775709687"/>
+        <c:axId val="1390813188"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1233699760"/>
+        <c:axId val="1775709687"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1582,10 +1585,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="824926627"/>
+        <c:crossAx val="1390813188"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="824926627"/>
+        <c:axId val="1390813188"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1660,7 +1663,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1233699760"/>
+        <c:crossAx val="1775709687"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1734,11 +1737,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1635802014"/>
-        <c:axId val="39797651"/>
+        <c:axId val="1374932332"/>
+        <c:axId val="1181670158"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1635802014"/>
+        <c:axId val="1374932332"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1790,10 +1793,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39797651"/>
+        <c:crossAx val="1181670158"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39797651"/>
+        <c:axId val="1181670158"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1868,7 +1871,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1635802014"/>
+        <c:crossAx val="1374932332"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1942,11 +1945,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="586944890"/>
-        <c:axId val="616335535"/>
+        <c:axId val="569586731"/>
+        <c:axId val="1175206377"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="586944890"/>
+        <c:axId val="569586731"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1998,10 +2001,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616335535"/>
+        <c:crossAx val="1175206377"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="616335535"/>
+        <c:axId val="1175206377"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2076,7 +2079,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="586944890"/>
+        <c:crossAx val="569586731"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2150,11 +2153,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="387773175"/>
-        <c:axId val="356059240"/>
+        <c:axId val="1582844577"/>
+        <c:axId val="153014278"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="387773175"/>
+        <c:axId val="1582844577"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2206,10 +2209,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="356059240"/>
+        <c:crossAx val="153014278"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="356059240"/>
+        <c:axId val="153014278"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2284,7 +2287,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="387773175"/>
+        <c:crossAx val="1582844577"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3196,7 +3199,9 @@
       <c r="D15" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="15"/>
+      <c r="E15" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="F15" s="19" t="s">
         <v>23</v>
       </c>
@@ -31133,7 +31138,7 @@
       <c r="G5" s="35"/>
       <c r="H5" s="44"/>
       <c r="I5" s="45">
-        <v>44956.0</v>
+        <v>44974.0</v>
       </c>
       <c r="J5" s="35"/>
       <c r="K5" s="42"/>
@@ -31321,59 +31326,59 @@
       </c>
       <c r="E12" s="57">
         <f>I5</f>
-        <v>44956</v>
+        <v>44974</v>
       </c>
       <c r="F12" s="58">
         <f t="shared" ref="F12:G12" si="1">E12+1</f>
-        <v>44957</v>
+        <v>44975</v>
       </c>
       <c r="G12" s="58">
         <f t="shared" si="1"/>
-        <v>44958</v>
+        <v>44976</v>
       </c>
       <c r="H12" s="58">
         <f t="shared" ref="H12:I12" si="2">G12+1</f>
-        <v>44959</v>
+        <v>44977</v>
       </c>
       <c r="I12" s="58">
         <f t="shared" si="2"/>
-        <v>44960</v>
+        <v>44978</v>
       </c>
       <c r="J12" s="58">
         <f>H12+2</f>
-        <v>44961</v>
+        <v>44979</v>
       </c>
       <c r="K12" s="58">
         <f>J12+1</f>
-        <v>44962</v>
+        <v>44980</v>
       </c>
       <c r="L12" s="58">
         <f>K12+1</f>
-        <v>44963</v>
+        <v>44981</v>
       </c>
       <c r="M12" s="58">
         <f>L12+1</f>
-        <v>44964</v>
+        <v>44982</v>
       </c>
       <c r="N12" s="58">
         <f t="shared" ref="N12:P12" si="3">M12+1</f>
-        <v>44965</v>
+        <v>44983</v>
       </c>
       <c r="O12" s="58">
         <f t="shared" si="3"/>
-        <v>44966</v>
+        <v>44984</v>
       </c>
       <c r="P12" s="58">
         <f t="shared" si="3"/>
-        <v>44967</v>
+        <v>44985</v>
       </c>
       <c r="Q12" s="58">
         <f>O12+2</f>
-        <v>44968</v>
+        <v>44986</v>
       </c>
       <c r="R12" s="58">
         <f>Q12+1</f>
-        <v>44969</v>
+        <v>44987</v>
       </c>
       <c r="S12" s="59"/>
     </row>
@@ -32991,7 +32996,7 @@
       <c r="G5" s="35"/>
       <c r="H5" s="44"/>
       <c r="I5" s="77">
-        <v>44970.0</v>
+        <v>44988.0</v>
       </c>
       <c r="J5" s="35"/>
       <c r="K5" s="42"/>
@@ -33009,7 +33014,9 @@
       <c r="C6" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="47"/>
+      <c r="D6" s="47" t="s">
+        <v>19</v>
+      </c>
       <c r="E6" s="35"/>
       <c r="F6" s="35"/>
       <c r="G6" s="35"/>
@@ -33177,59 +33184,59 @@
       </c>
       <c r="E12" s="57">
         <f>I5</f>
-        <v>44970</v>
+        <v>44988</v>
       </c>
       <c r="F12" s="58">
         <f t="shared" ref="F12:I12" si="1">E12+1</f>
-        <v>44971</v>
+        <v>44989</v>
       </c>
       <c r="G12" s="58">
         <f t="shared" si="1"/>
-        <v>44972</v>
+        <v>44990</v>
       </c>
       <c r="H12" s="58">
         <f t="shared" si="1"/>
-        <v>44973</v>
+        <v>44991</v>
       </c>
       <c r="I12" s="58">
         <f t="shared" si="1"/>
-        <v>44974</v>
+        <v>44992</v>
       </c>
       <c r="J12" s="58">
         <f>H12+2</f>
-        <v>44975</v>
+        <v>44993</v>
       </c>
       <c r="K12" s="58">
         <f t="shared" ref="K12:L12" si="2">J12+1</f>
-        <v>44976</v>
+        <v>44994</v>
       </c>
       <c r="L12" s="58">
         <f t="shared" si="2"/>
-        <v>44977</v>
+        <v>44995</v>
       </c>
       <c r="M12" s="58">
         <f t="shared" ref="M12:P12" si="3">L12+1</f>
-        <v>44978</v>
+        <v>44996</v>
       </c>
       <c r="N12" s="58">
         <f t="shared" si="3"/>
-        <v>44979</v>
+        <v>44997</v>
       </c>
       <c r="O12" s="58">
         <f t="shared" si="3"/>
-        <v>44980</v>
+        <v>44998</v>
       </c>
       <c r="P12" s="58">
         <f t="shared" si="3"/>
-        <v>44981</v>
+        <v>44999</v>
       </c>
       <c r="Q12" s="58">
         <f t="shared" ref="Q12:R12" si="4">P12+1</f>
-        <v>44982</v>
+        <v>45000</v>
       </c>
       <c r="R12" s="58">
         <f t="shared" si="4"/>
-        <v>44983</v>
+        <v>45001</v>
       </c>
       <c r="S12" s="59"/>
     </row>
@@ -34803,7 +34810,7 @@
       </c>
       <c r="G5" s="35"/>
       <c r="H5" s="82">
-        <v>44984.0</v>
+        <v>45002.0</v>
       </c>
       <c r="I5" s="35"/>
       <c r="J5" s="42"/>
@@ -34822,7 +34829,9 @@
       <c r="C6" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="47"/>
+      <c r="D6" s="47" t="s">
+        <v>51</v>
+      </c>
       <c r="E6" s="35"/>
       <c r="F6" s="35"/>
       <c r="G6" s="35"/>
@@ -34989,59 +34998,59 @@
         <v>44</v>
       </c>
       <c r="E12" s="57">
-        <v>44984.0</v>
+        <v>45002.0</v>
       </c>
       <c r="F12" s="58">
         <f t="shared" ref="F12:H12" si="1">E12+1</f>
-        <v>44985</v>
+        <v>45003</v>
       </c>
       <c r="G12" s="58">
         <f t="shared" si="1"/>
-        <v>44986</v>
+        <v>45004</v>
       </c>
       <c r="H12" s="58">
         <f t="shared" si="1"/>
-        <v>44987</v>
+        <v>45005</v>
       </c>
       <c r="I12" s="58">
         <f>G12+2</f>
-        <v>44988</v>
+        <v>45006</v>
       </c>
       <c r="J12" s="58">
         <f t="shared" ref="J12:L12" si="2">I12+1</f>
-        <v>44989</v>
+        <v>45007</v>
       </c>
       <c r="K12" s="58">
         <f t="shared" si="2"/>
-        <v>44990</v>
+        <v>45008</v>
       </c>
       <c r="L12" s="58">
         <f t="shared" si="2"/>
-        <v>44991</v>
+        <v>45009</v>
       </c>
       <c r="M12" s="58">
         <f>K12+2</f>
-        <v>44992</v>
+        <v>45010</v>
       </c>
       <c r="N12" s="58">
         <f t="shared" ref="N12:O12" si="3">M12+1</f>
-        <v>44993</v>
+        <v>45011</v>
       </c>
       <c r="O12" s="58">
         <f t="shared" si="3"/>
-        <v>44994</v>
+        <v>45012</v>
       </c>
       <c r="P12" s="58">
         <f t="shared" ref="P12:R12" si="4">N12+2</f>
-        <v>44995</v>
+        <v>45013</v>
       </c>
       <c r="Q12" s="58">
         <f t="shared" si="4"/>
-        <v>44996</v>
+        <v>45014</v>
       </c>
       <c r="R12" s="58">
         <f t="shared" si="4"/>
-        <v>44997</v>
+        <v>45015</v>
       </c>
       <c r="S12" s="59"/>
     </row>
@@ -35053,7 +35062,7 @@
         <v>6.0</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D13" s="60">
         <v>4.0</v>
@@ -35082,7 +35091,7 @@
         <v>6.0</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D14" s="60">
         <v>4.0</v>
@@ -36615,7 +36624,7 @@
       <c r="G5" s="35"/>
       <c r="H5" s="44"/>
       <c r="I5" s="77">
-        <v>44998.0</v>
+        <v>45016.0</v>
       </c>
       <c r="J5" s="42"/>
       <c r="K5" s="46"/>
@@ -36633,7 +36642,9 @@
       <c r="C6" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="47"/>
+      <c r="D6" s="47" t="s">
+        <v>29</v>
+      </c>
       <c r="E6" s="35"/>
       <c r="F6" s="35"/>
       <c r="G6" s="35"/>
@@ -36801,59 +36812,59 @@
       </c>
       <c r="E12" s="58">
         <f>I5</f>
-        <v>44998</v>
+        <v>45016</v>
       </c>
       <c r="F12" s="58">
         <f t="shared" ref="F12:I12" si="1">E12+1</f>
-        <v>44999</v>
+        <v>45017</v>
       </c>
       <c r="G12" s="58">
         <f t="shared" si="1"/>
-        <v>45000</v>
+        <v>45018</v>
       </c>
       <c r="H12" s="58">
         <f t="shared" si="1"/>
-        <v>45001</v>
+        <v>45019</v>
       </c>
       <c r="I12" s="58">
         <f t="shared" si="1"/>
-        <v>45002</v>
+        <v>45020</v>
       </c>
       <c r="J12" s="58">
         <f>H12+2</f>
-        <v>45003</v>
+        <v>45021</v>
       </c>
       <c r="K12" s="58">
         <f t="shared" ref="K12:L12" si="2">J12+1</f>
-        <v>45004</v>
+        <v>45022</v>
       </c>
       <c r="L12" s="58">
         <f t="shared" si="2"/>
-        <v>45005</v>
+        <v>45023</v>
       </c>
       <c r="M12" s="58">
         <f>K12+2</f>
-        <v>45006</v>
+        <v>45024</v>
       </c>
       <c r="N12" s="58">
         <f t="shared" ref="N12:Q12" si="3">M12+1</f>
-        <v>45007</v>
+        <v>45025</v>
       </c>
       <c r="O12" s="58">
         <f t="shared" si="3"/>
-        <v>45008</v>
+        <v>45026</v>
       </c>
       <c r="P12" s="58">
         <f t="shared" si="3"/>
-        <v>45009</v>
+        <v>45027</v>
       </c>
       <c r="Q12" s="58">
         <f t="shared" si="3"/>
-        <v>45010</v>
+        <v>45028</v>
       </c>
       <c r="R12" s="58">
         <f>O12+3</f>
-        <v>45011</v>
+        <v>45029</v>
       </c>
       <c r="S12" s="59"/>
     </row>
@@ -36923,7 +36934,7 @@
         <v>7.0</v>
       </c>
       <c r="C15" s="63" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D15" s="60">
         <v>4.0</v>
@@ -38399,7 +38410,7 @@
       <c r="G5" s="35"/>
       <c r="H5" s="44"/>
       <c r="I5" s="85">
-        <v>45012.0</v>
+        <v>45030.0</v>
       </c>
       <c r="J5" s="46"/>
       <c r="K5" s="26"/>
@@ -38417,7 +38428,9 @@
       <c r="C6" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="47"/>
+      <c r="D6" s="47" t="s">
+        <v>32</v>
+      </c>
       <c r="E6" s="35"/>
       <c r="F6" s="35"/>
       <c r="G6" s="35"/>
@@ -38585,59 +38598,59 @@
       </c>
       <c r="E12" s="58">
         <f>I5</f>
-        <v>45012</v>
+        <v>45030</v>
       </c>
       <c r="F12" s="58">
         <f t="shared" ref="F12:K12" si="1">E12+1</f>
-        <v>45013</v>
+        <v>45031</v>
       </c>
       <c r="G12" s="58">
         <f t="shared" si="1"/>
-        <v>45014</v>
+        <v>45032</v>
       </c>
       <c r="H12" s="58">
         <f t="shared" si="1"/>
-        <v>45015</v>
+        <v>45033</v>
       </c>
       <c r="I12" s="58">
         <f t="shared" si="1"/>
-        <v>45016</v>
+        <v>45034</v>
       </c>
       <c r="J12" s="58">
         <f t="shared" si="1"/>
-        <v>45017</v>
+        <v>45035</v>
       </c>
       <c r="K12" s="58">
         <f t="shared" si="1"/>
-        <v>45018</v>
+        <v>45036</v>
       </c>
       <c r="L12" s="58">
         <f>J12+2</f>
-        <v>45019</v>
+        <v>45037</v>
       </c>
       <c r="M12" s="58">
         <f t="shared" ref="M12:R12" si="2">L12+1</f>
-        <v>45020</v>
+        <v>45038</v>
       </c>
       <c r="N12" s="58">
         <f t="shared" si="2"/>
-        <v>45021</v>
+        <v>45039</v>
       </c>
       <c r="O12" s="58">
         <f t="shared" si="2"/>
-        <v>45022</v>
+        <v>45040</v>
       </c>
       <c r="P12" s="58">
         <f t="shared" si="2"/>
-        <v>45023</v>
+        <v>45041</v>
       </c>
       <c r="Q12" s="58">
         <f t="shared" si="2"/>
-        <v>45024</v>
+        <v>45042</v>
       </c>
       <c r="R12" s="58">
         <f t="shared" si="2"/>
-        <v>45025</v>
+        <v>45043</v>
       </c>
       <c r="S12" s="59"/>
     </row>
@@ -38649,7 +38662,7 @@
         <v>8.0</v>
       </c>
       <c r="C13" s="64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D13" s="60">
         <v>5.0</v>
@@ -38678,7 +38691,7 @@
         <v>8.0</v>
       </c>
       <c r="C14" s="64" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D14" s="60">
         <v>5.0</v>
@@ -38707,7 +38720,7 @@
         <v>8.0</v>
       </c>
       <c r="C15" s="64" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D15" s="60">
         <v>4.0</v>
@@ -40098,7 +40111,7 @@
     </row>
     <row r="2" ht="39.75" customHeight="1">
       <c r="A2" s="88" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B2" s="29"/>
       <c r="C2" s="89"/>
@@ -40132,10 +40145,10 @@
     </row>
     <row r="6" ht="63.75" customHeight="1">
       <c r="A6" s="86" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B6" s="87" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="87"/>
@@ -40152,7 +40165,7 @@
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="86" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B8" s="92" t="str">
         <f>HYPERLINK("http://www.softhouse.se/Uploades/Scrum_eng_webb.pdf","Scrum in 5 minutes (PDF) from softhouse")</f>
@@ -40184,10 +40197,10 @@
     </row>
     <row r="11" ht="25.5" customHeight="1">
       <c r="A11" s="86" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B11" s="95" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C11" s="87"/>
       <c r="D11" s="87"/>
@@ -40197,7 +40210,7 @@
     <row r="12" ht="38.25" customHeight="1">
       <c r="A12" s="86"/>
       <c r="B12" s="95" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C12" s="87"/>
       <c r="D12" s="87"/>
@@ -40207,7 +40220,7 @@
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="86"/>
       <c r="B13" s="95" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C13" s="87"/>
       <c r="D13" s="87"/>
@@ -40224,10 +40237,10 @@
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="86" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B15" s="96" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C15" s="87"/>
       <c r="D15" s="87"/>
@@ -40237,7 +40250,7 @@
     <row r="16" ht="25.5" customHeight="1">
       <c r="A16" s="26"/>
       <c r="B16" s="87" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C16" s="26"/>
       <c r="D16" s="26"/>
@@ -40247,7 +40260,7 @@
     <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="86"/>
       <c r="B17" s="87" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C17" s="87"/>
       <c r="D17" s="87"/>
@@ -40264,10 +40277,10 @@
     </row>
     <row r="19" ht="25.5" customHeight="1">
       <c r="A19" s="86" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B19" s="87" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C19" s="87"/>
       <c r="D19" s="87"/>
@@ -40277,7 +40290,7 @@
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="86"/>
       <c r="B20" s="87" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C20" s="87"/>
       <c r="D20" s="87"/>
@@ -40287,7 +40300,7 @@
     <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="86"/>
       <c r="B21" s="87" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C21" s="87"/>
       <c r="D21" s="87"/>
@@ -40297,7 +40310,7 @@
     <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="86"/>
       <c r="B22" s="97" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C22" s="87"/>
       <c r="D22" s="87"/>
@@ -40314,10 +40327,10 @@
     </row>
     <row r="24" ht="12.75" customHeight="1">
       <c r="A24" s="86" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B24" s="87" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C24" s="87"/>
       <c r="D24" s="87"/>
@@ -40327,7 +40340,7 @@
     <row r="25" ht="12.75" customHeight="1">
       <c r="A25" s="86"/>
       <c r="B25" s="87" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C25" s="87"/>
       <c r="D25" s="87"/>
@@ -40366,10 +40379,10 @@
     </row>
     <row r="29" ht="12.75" customHeight="1">
       <c r="A29" s="86" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B29" s="98" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C29" s="87"/>
       <c r="D29" s="87"/>

--- a/Scrum Sheet.xlsx
+++ b/Scrum Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Main_Project\Student-Performance-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3096A71F-AEA0-4306-989E-0320EFC2693C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C958A1A4-7281-4CEC-91A4-9018B416E9E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39515,7 +39515,7 @@
   <dimension ref="A1:S988"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:I6"/>
+      <selection activeCell="D4" sqref="D4:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>

--- a/Scrum Sheet.xlsx
+++ b/Scrum Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Main_Project\Student-Performance-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C958A1A4-7281-4CEC-91A4-9018B416E9E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05C1608-3F5E-4070-84A9-B53F4192866A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Scrum Sheet.xlsx
+++ b/Scrum Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Main_Project\Student-Performance-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05C1608-3F5E-4070-84A9-B53F4192866A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E21374D-CF11-42CE-AE12-5BF0FA2BE68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -867,7 +867,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="81">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -974,6 +974,9 @@
     <t>integrating the model into Department Management System web app</t>
   </si>
   <si>
+    <t>Department Management System</t>
+  </si>
+  <si>
     <t>Sprint #</t>
   </si>
   <si>
@@ -1017,6 +1020,9 @@
   </si>
   <si>
     <t>Velocity</t>
+  </si>
+  <si>
+    <t>Data Training</t>
   </si>
   <si>
     <t>familiarizing model</t>
@@ -1105,9 +1111,6 @@
   </si>
   <si>
     <t>Not Completed</t>
-  </si>
-  <si>
-    <t>Data Training</t>
   </si>
 </sst>
 </file>
@@ -1233,14 +1236,12 @@
     </font>
     <font>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="Lato"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Lato"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1288,7 +1289,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1504,26 +1505,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1575,9 +1561,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1683,22 +1666,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1746,15 +1713,17 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1933,7 +1902,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-80B2-430B-A7E3-3AE3A19833BF}"/>
+              <c16:uniqueId val="{00000000-6872-4EE5-8299-53C5848262DB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2004,7 +1973,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-80B2-430B-A7E3-3AE3A19833BF}"/>
+              <c16:uniqueId val="{00000001-6872-4EE5-8299-53C5848262DB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2017,11 +1986,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="125387098"/>
-        <c:axId val="964995014"/>
+        <c:axId val="1705383947"/>
+        <c:axId val="276443948"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="125387098"/>
+        <c:axId val="1705383947"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2066,7 +2035,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="964995014"/>
+        <c:crossAx val="276443948"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2074,7 +2043,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="964995014"/>
+        <c:axId val="276443948"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2142,7 +2111,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125387098"/>
+        <c:crossAx val="1705383947"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2241,7 +2210,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1</c:v>
@@ -2258,7 +2227,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9C32-4AA1-8485-BFCC411EDA91}"/>
+              <c16:uniqueId val="{00000000-A61A-4E28-AF07-B07431957525}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2329,7 +2298,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9C32-4AA1-8485-BFCC411EDA91}"/>
+              <c16:uniqueId val="{00000001-A61A-4E28-AF07-B07431957525}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2342,11 +2311,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1233699760"/>
-        <c:axId val="824926627"/>
+        <c:axId val="1167129717"/>
+        <c:axId val="872854805"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1233699760"/>
+        <c:axId val="1167129717"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2391,7 +2360,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="824926627"/>
+        <c:crossAx val="872854805"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2399,7 +2368,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="824926627"/>
+        <c:axId val="872854805"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2467,7 +2436,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1233699760"/>
+        <c:crossAx val="1167129717"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2583,7 +2552,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F4C6-4B2E-AD15-EC8896407F3F}"/>
+              <c16:uniqueId val="{00000000-89C0-4E8A-AD0A-5347AB2E4CCB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2654,7 +2623,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F4C6-4B2E-AD15-EC8896407F3F}"/>
+              <c16:uniqueId val="{00000001-89C0-4E8A-AD0A-5347AB2E4CCB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2667,11 +2636,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1635802014"/>
-        <c:axId val="39797651"/>
+        <c:axId val="2052426388"/>
+        <c:axId val="2010745366"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1635802014"/>
+        <c:axId val="2052426388"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2716,7 +2685,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39797651"/>
+        <c:crossAx val="2010745366"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2724,7 +2693,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39797651"/>
+        <c:axId val="2010745366"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2792,7 +2761,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1635802014"/>
+        <c:crossAx val="2052426388"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2908,7 +2877,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DF88-4913-A247-82F5158815A5}"/>
+              <c16:uniqueId val="{00000000-5C5D-41A4-9584-4C46CCEF5AC2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2979,7 +2948,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DF88-4913-A247-82F5158815A5}"/>
+              <c16:uniqueId val="{00000001-5C5D-41A4-9584-4C46CCEF5AC2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2992,11 +2961,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="586944890"/>
-        <c:axId val="616335535"/>
+        <c:axId val="1406862738"/>
+        <c:axId val="1292566077"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="586944890"/>
+        <c:axId val="1406862738"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3016,7 +2985,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-IN"/>
+                <a:endParaRPr/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3041,7 +3010,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616335535"/>
+        <c:crossAx val="1292566077"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3049,7 +3018,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="616335535"/>
+        <c:axId val="1292566077"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3089,7 +3058,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-IN"/>
+                <a:endParaRPr/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3117,7 +3086,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="586944890"/>
+        <c:crossAx val="1406862738"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3233,7 +3202,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AF21-40F2-BCBF-C2D1FE4579DB}"/>
+              <c16:uniqueId val="{00000000-465C-4C44-AFE9-05522F1DE676}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3304,7 +3273,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AF21-40F2-BCBF-C2D1FE4579DB}"/>
+              <c16:uniqueId val="{00000001-465C-4C44-AFE9-05522F1DE676}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3317,11 +3286,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="387773175"/>
-        <c:axId val="356059240"/>
+        <c:axId val="1145153771"/>
+        <c:axId val="186339356"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="387773175"/>
+        <c:axId val="1145153771"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3341,7 +3310,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-IN"/>
+                <a:endParaRPr/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3366,7 +3335,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="356059240"/>
+        <c:crossAx val="186339356"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3374,7 +3343,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="356059240"/>
+        <c:axId val="186339356"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3414,7 +3383,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-IN"/>
+                <a:endParaRPr/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3442,7 +3411,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="387773175"/>
+        <c:crossAx val="1145153771"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3934,15 +3903,15 @@
   </sheetPr>
   <dimension ref="A1:Z1005"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
     <col min="5" max="5" width="26.109375" customWidth="1"/>
-    <col min="6" max="6" width="64.5546875" customWidth="1"/>
+    <col min="6" max="6" width="61.88671875" customWidth="1"/>
     <col min="7" max="7" width="19.88671875" customWidth="1"/>
     <col min="8" max="8" width="16.88671875" customWidth="1"/>
   </cols>
@@ -3976,17 +3945,17 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="73"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="66"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -4006,15 +3975,15 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A3" s="74"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="76"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="69"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -4034,15 +4003,15 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A4" s="77"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="79"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="72"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -4260,7 +4229,7 @@
       <c r="F11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="69" t="s">
+      <c r="G11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H11" s="4" t="s">
@@ -4285,7 +4254,7 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:26" ht="18" customHeight="1">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="7">
@@ -4301,7 +4270,7 @@
         <v>17</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H12" s="5">
         <v>1</v>
@@ -4325,7 +4294,7 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:26" ht="19.8" customHeight="1">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="7">
@@ -4341,7 +4310,7 @@
         <v>18</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H13" s="5">
         <v>1</v>
@@ -4365,7 +4334,7 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" spans="1:26" ht="19.8" customHeight="1">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="7">
@@ -4381,7 +4350,7 @@
         <v>21</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H14" s="5">
         <v>2</v>
@@ -4405,7 +4374,7 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" spans="1:26" ht="22.2" customHeight="1">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="7">
@@ -4421,7 +4390,7 @@
         <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H15" s="5">
         <v>2</v>
@@ -4445,7 +4414,7 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26" ht="19.8" customHeight="1">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="7">
@@ -4461,7 +4430,7 @@
         <v>25</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H16" s="5">
         <v>2</v>
@@ -4485,7 +4454,7 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" ht="19.8" customHeight="1">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="7">
@@ -4501,7 +4470,7 @@
         <v>28</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H17" s="5">
         <v>3</v>
@@ -4525,7 +4494,7 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26" ht="19.2" customHeight="1">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="7">
@@ -4541,7 +4510,7 @@
         <v>31</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H18" s="5">
         <v>4</v>
@@ -4565,7 +4534,7 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" ht="19.8" customHeight="1">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="7">
@@ -4581,7 +4550,7 @@
         <v>34</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H19" s="5">
         <v>5</v>
@@ -4773,7 +4742,7 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:26" ht="17.399999999999999">
+    <row r="26" spans="1:26" ht="15.75" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="7"/>
@@ -4801,7 +4770,7 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:26" ht="17.399999999999999">
+    <row r="27" spans="1:26" ht="15.75" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="7"/>
@@ -4829,7 +4798,7 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" spans="1:26" ht="17.399999999999999">
+    <row r="28" spans="1:26" ht="22.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="7"/>
@@ -4857,7 +4826,7 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:26" ht="17.399999999999999">
+    <row r="29" spans="1:26" ht="22.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="7"/>
@@ -4885,7 +4854,7 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" spans="1:26" ht="17.399999999999999">
+    <row r="30" spans="1:26" ht="22.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="7"/>
@@ -4913,7 +4882,7 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" spans="1:26" ht="17.399999999999999">
+    <row r="31" spans="1:26" ht="22.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="7"/>
@@ -4941,7 +4910,7 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" spans="1:26" ht="17.399999999999999">
+    <row r="32" spans="1:26" ht="22.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="7"/>
@@ -4969,7 +4938,7 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" spans="1:26" ht="17.399999999999999">
+    <row r="33" spans="1:26" ht="22.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="2"/>
@@ -4997,7 +4966,7 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" spans="1:26" ht="17.399999999999999">
+    <row r="34" spans="1:26" ht="22.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="2"/>
@@ -5025,7 +4994,7 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" spans="1:26" ht="17.399999999999999">
+    <row r="35" spans="1:26" ht="22.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="2"/>
@@ -5053,7 +5022,7 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="1:26" ht="17.399999999999999">
+    <row r="36" spans="1:26" ht="22.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="2"/>
@@ -32218,12 +32187,11 @@
     <mergeCell ref="A2:I4"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G12 G13:G19" xr:uid="{83FAB298-2D8D-4F4C-B948-ADB1E126ABC9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G12:G19" xr:uid="{7DC6E1A2-3280-41D3-956E-0E77E922F344}">
       <formula1>"Completed, Not Completed"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -32234,14 +32202,12 @@
   </sheetPr>
   <dimension ref="A1:S989"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:K4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="7.77734375" customWidth="1"/>
-    <col min="3" max="3" width="62.6640625" customWidth="1"/>
+    <col min="3" max="3" width="37.21875" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" customWidth="1"/>
     <col min="5" max="5" width="10.88671875" customWidth="1"/>
     <col min="6" max="6" width="10.21875" customWidth="1"/>
@@ -32277,28 +32243,28 @@
       <c r="R1" s="14"/>
     </row>
     <row r="2" spans="1:19" ht="43.5" customHeight="1">
-      <c r="A2" s="85" t="str">
+      <c r="A2" s="78" t="str">
         <f>CONCATENATE("Sprint #",D5,"Tracking Sheet")</f>
         <v>Sprint #1Tracking Sheet</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="86"/>
-      <c r="R2" s="86"/>
-      <c r="S2" s="87"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="80"/>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1">
       <c r="A3" s="14"/>
@@ -32326,16 +32292,16 @@
       <c r="C4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="88" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
+      <c r="D4" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
       <c r="L4" s="19"/>
       <c r="M4" s="20"/>
       <c r="N4" s="20"/>
@@ -32349,23 +32315,23 @@
       <c r="A5" s="14"/>
       <c r="B5" s="22"/>
       <c r="C5" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="89">
+        <v>36</v>
+      </c>
+      <c r="D5" s="82">
         <v>1</v>
       </c>
-      <c r="E5" s="82"/>
-      <c r="F5" s="90" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="81"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="92">
-        <v>44956</v>
-      </c>
-      <c r="J5" s="81"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="25"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="83" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="74"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="85">
+        <v>44974</v>
+      </c>
+      <c r="J5" s="74"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="24"/>
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -32377,19 +32343,19 @@
       <c r="A6" s="14"/>
       <c r="B6" s="22"/>
       <c r="C6" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="25"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="24"/>
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -32400,15 +32366,15 @@
     <row r="7" spans="1:19" ht="12.75" customHeight="1">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
       <c r="N7" s="14"/>
@@ -32420,7 +32386,7 @@
     <row r="8" spans="1:19" ht="13.5" customHeight="1">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
-      <c r="C8" s="28"/>
+      <c r="C8" s="27"/>
       <c r="D8" s="14"/>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
@@ -32440,569 +32406,569 @@
     <row r="9" spans="1:19" ht="12.75" customHeight="1">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
-      <c r="C9" s="28"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="22"/>
-      <c r="E9" s="80" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="81"/>
-      <c r="M9" s="81"/>
-      <c r="N9" s="81"/>
-      <c r="O9" s="81"/>
-      <c r="P9" s="81"/>
-      <c r="Q9" s="81"/>
-      <c r="R9" s="82"/>
-      <c r="S9" s="29"/>
+      <c r="E9" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="74"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="74"/>
+      <c r="R9" s="75"/>
+      <c r="S9" s="28"/>
     </row>
     <row r="10" spans="1:19" ht="12.75" customHeight="1">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" s="22"/>
-      <c r="E10" s="80" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="80" t="s">
+      <c r="E10" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="M10" s="81"/>
-      <c r="N10" s="81"/>
-      <c r="O10" s="81"/>
-      <c r="P10" s="81"/>
-      <c r="Q10" s="81"/>
-      <c r="R10" s="82"/>
-      <c r="S10" s="29"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="74"/>
+      <c r="R10" s="75"/>
+      <c r="S10" s="28"/>
     </row>
     <row r="11" spans="1:19" ht="12.75" customHeight="1">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="31">
+      <c r="D11" s="29"/>
+      <c r="E11" s="30">
         <v>1</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="30">
         <v>2</v>
       </c>
-      <c r="G11" s="31">
+      <c r="G11" s="30">
         <v>3</v>
       </c>
-      <c r="H11" s="31">
+      <c r="H11" s="30">
         <v>4</v>
       </c>
-      <c r="I11" s="31">
+      <c r="I11" s="30">
         <v>5</v>
       </c>
-      <c r="J11" s="31">
+      <c r="J11" s="30">
         <v>6</v>
       </c>
-      <c r="K11" s="31">
+      <c r="K11" s="30">
         <v>7</v>
       </c>
-      <c r="L11" s="31">
+      <c r="L11" s="30">
         <v>8</v>
       </c>
-      <c r="M11" s="31">
+      <c r="M11" s="30">
         <v>9</v>
       </c>
-      <c r="N11" s="31">
+      <c r="N11" s="30">
         <v>10</v>
       </c>
-      <c r="O11" s="31">
+      <c r="O11" s="30">
         <v>11</v>
       </c>
-      <c r="P11" s="31">
+      <c r="P11" s="30">
         <v>12</v>
       </c>
-      <c r="Q11" s="31">
+      <c r="Q11" s="30">
         <v>13</v>
       </c>
-      <c r="R11" s="31">
+      <c r="R11" s="30">
         <v>14</v>
       </c>
-      <c r="S11" s="29"/>
+      <c r="S11" s="28"/>
     </row>
     <row r="12" spans="1:19" ht="27" customHeight="1">
       <c r="A12" s="23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="32" t="s">
-        <v>42</v>
+      <c r="C12" s="31" t="s">
+        <v>43</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="33">
+        <v>44</v>
+      </c>
+      <c r="E12" s="32">
         <f>I5</f>
-        <v>44956</v>
-      </c>
-      <c r="F12" s="33">
+        <v>44974</v>
+      </c>
+      <c r="F12" s="32">
         <f t="shared" ref="F12:G12" si="0">E12+1</f>
-        <v>44957</v>
-      </c>
-      <c r="G12" s="33">
+        <v>44975</v>
+      </c>
+      <c r="G12" s="32">
         <f t="shared" si="0"/>
-        <v>44958</v>
-      </c>
-      <c r="H12" s="33">
+        <v>44976</v>
+      </c>
+      <c r="H12" s="32">
         <f t="shared" ref="H12:I12" si="1">G12+1</f>
-        <v>44959</v>
-      </c>
-      <c r="I12" s="33">
+        <v>44977</v>
+      </c>
+      <c r="I12" s="32">
         <f t="shared" si="1"/>
-        <v>44960</v>
-      </c>
-      <c r="J12" s="33">
+        <v>44978</v>
+      </c>
+      <c r="J12" s="32">
         <f>H12+2</f>
-        <v>44961</v>
-      </c>
-      <c r="K12" s="33">
+        <v>44979</v>
+      </c>
+      <c r="K12" s="32">
         <f>J12+1</f>
-        <v>44962</v>
-      </c>
-      <c r="L12" s="33">
+        <v>44980</v>
+      </c>
+      <c r="L12" s="32">
         <f>K12+1</f>
-        <v>44963</v>
-      </c>
-      <c r="M12" s="33">
+        <v>44981</v>
+      </c>
+      <c r="M12" s="32">
         <f>L12+1</f>
-        <v>44964</v>
-      </c>
-      <c r="N12" s="33">
+        <v>44982</v>
+      </c>
+      <c r="N12" s="32">
         <f t="shared" ref="N12:P12" si="2">M12+1</f>
-        <v>44965</v>
-      </c>
-      <c r="O12" s="33">
+        <v>44983</v>
+      </c>
+      <c r="O12" s="32">
         <f t="shared" si="2"/>
-        <v>44966</v>
-      </c>
-      <c r="P12" s="33">
+        <v>44984</v>
+      </c>
+      <c r="P12" s="32">
         <f t="shared" si="2"/>
-        <v>44967</v>
-      </c>
-      <c r="Q12" s="33">
+        <v>44985</v>
+      </c>
+      <c r="Q12" s="32">
         <f>O12+2</f>
-        <v>44968</v>
-      </c>
-      <c r="R12" s="33">
+        <v>44986</v>
+      </c>
+      <c r="R12" s="32">
         <f>Q12+1</f>
-        <v>44969</v>
-      </c>
-      <c r="S12" s="34"/>
+        <v>44987</v>
+      </c>
+      <c r="S12" s="33"/>
     </row>
     <row r="13" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A13" s="35">
+      <c r="A13" s="34">
         <v>1</v>
       </c>
-      <c r="B13" s="35">
+      <c r="B13" s="34">
         <v>1</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="35">
+      <c r="D13" s="34">
         <v>5</v>
       </c>
-      <c r="E13" s="35">
+      <c r="E13" s="34">
         <v>1</v>
       </c>
-      <c r="F13" s="35">
+      <c r="F13" s="34">
         <v>1</v>
       </c>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35">
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34">
         <v>2</v>
       </c>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35">
+      <c r="J13" s="34"/>
+      <c r="K13" s="34">
         <v>1</v>
       </c>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="36"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="35"/>
     </row>
     <row r="14" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A14" s="35">
+      <c r="A14" s="34">
         <v>2</v>
       </c>
-      <c r="B14" s="35">
+      <c r="B14" s="34">
         <v>1</v>
       </c>
-      <c r="C14" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="35">
+      <c r="C14" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="34">
         <v>2</v>
       </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35">
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34">
         <v>1</v>
       </c>
-      <c r="I14" s="35">
+      <c r="I14" s="34">
         <v>1</v>
       </c>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="36"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="35"/>
     </row>
     <row r="15" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A15" s="35">
+      <c r="A15" s="34">
         <v>3</v>
       </c>
-      <c r="B15" s="35">
+      <c r="B15" s="34">
         <v>2</v>
       </c>
-      <c r="C15" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="35">
+      <c r="C15" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="34">
         <v>6</v>
       </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35">
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34">
         <v>1</v>
       </c>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35">
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34">
         <v>1</v>
       </c>
-      <c r="M15" s="35">
+      <c r="M15" s="34">
         <v>1</v>
       </c>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35">
+      <c r="N15" s="34"/>
+      <c r="O15" s="34">
         <v>1</v>
       </c>
-      <c r="P15" s="35">
+      <c r="P15" s="34">
         <v>2</v>
       </c>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="36"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="35"/>
     </row>
     <row r="16" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A16" s="35">
+      <c r="A16" s="34">
         <v>4</v>
       </c>
-      <c r="B16" s="35">
+      <c r="B16" s="34">
         <v>2</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="35">
+        <v>47</v>
+      </c>
+      <c r="D16" s="34">
         <v>1</v>
       </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35">
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34">
         <v>1</v>
       </c>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="35"/>
-      <c r="S16" s="36"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="35"/>
     </row>
     <row r="17" spans="1:19" ht="12.75" customHeight="1">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="35"/>
-      <c r="S17" s="36"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="35"/>
     </row>
     <row r="18" spans="1:19" ht="12.75" customHeight="1">
-      <c r="A18" s="39"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="42"/>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="42"/>
-      <c r="R18" s="42"/>
-      <c r="S18" s="43"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="41"/>
+      <c r="S18" s="42"/>
     </row>
     <row r="19" spans="1:19" ht="12.75" customHeight="1">
       <c r="A19" s="14"/>
       <c r="B19" s="22"/>
-      <c r="C19" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="83">
+      <c r="C19" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="76">
         <f>SUM(D14:D17)</f>
         <v>9</v>
       </c>
-      <c r="E19" s="45">
+      <c r="E19" s="44">
         <f t="shared" ref="E19:I19" si="3">IF(COUNTA(E14:E17)&gt;0,SUM(E14:E17),D19)</f>
         <v>9</v>
       </c>
-      <c r="F19" s="45">
+      <c r="F19" s="44">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="G19" s="45">
+      <c r="G19" s="44">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="H19" s="45">
+      <c r="H19" s="44">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="I19" s="45">
+      <c r="I19" s="44">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J19" s="45">
+      <c r="J19" s="44">
         <f>IF(COUNTA(J14:J17)&gt;0,SUM(J14:J17),H19)</f>
         <v>2</v>
       </c>
-      <c r="K19" s="45">
+      <c r="K19" s="44">
         <f>IF(COUNTA(K14:K17)&gt;0,SUM(K14:K17),H19)</f>
         <v>2</v>
       </c>
-      <c r="L19" s="45">
+      <c r="L19" s="44">
         <f t="shared" ref="L19:P19" si="4">IF(COUNTA(L14:L17)&gt;0,SUM(L14:L17),K19)</f>
         <v>1</v>
       </c>
-      <c r="M19" s="45">
+      <c r="M19" s="44">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="N19" s="45">
+      <c r="N19" s="44">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="O19" s="45">
+      <c r="O19" s="44">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="P19" s="45">
+      <c r="P19" s="44">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="Q19" s="45">
+      <c r="Q19" s="44">
         <f>IF(COUNTA(Q14:Q17)&gt;0,SUM(Q14:Q17),O19)</f>
         <v>1</v>
       </c>
-      <c r="R19" s="45">
+      <c r="R19" s="44">
         <f>IF(COUNTA(R14:R17)&gt;0,SUM(R14:R17),O19)</f>
         <v>1</v>
       </c>
-      <c r="S19" s="29"/>
+      <c r="S19" s="28"/>
     </row>
     <row r="20" spans="1:19" ht="12.75" customHeight="1">
       <c r="A20" s="14"/>
       <c r="B20" s="22"/>
-      <c r="C20" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="84"/>
-      <c r="E20" s="46">
+      <c r="C20" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="77"/>
+      <c r="E20" s="45">
         <f t="shared" ref="E20:R20" si="5">FORECAST(E11,$R$25:$R$26,$O$25:$O$26)</f>
         <v>8.1</v>
       </c>
-      <c r="F20" s="46">
+      <c r="F20" s="45">
         <f t="shared" si="5"/>
         <v>7.2</v>
       </c>
-      <c r="G20" s="46">
+      <c r="G20" s="45">
         <f t="shared" si="5"/>
         <v>6.3</v>
       </c>
-      <c r="H20" s="46">
+      <c r="H20" s="45">
         <f t="shared" si="5"/>
         <v>5.4</v>
       </c>
-      <c r="I20" s="46">
+      <c r="I20" s="45">
         <f t="shared" si="5"/>
         <v>4.5</v>
       </c>
-      <c r="J20" s="46">
+      <c r="J20" s="45">
         <f t="shared" si="5"/>
         <v>3.5999999999999996</v>
       </c>
-      <c r="K20" s="46">
+      <c r="K20" s="45">
         <f t="shared" si="5"/>
         <v>2.7</v>
       </c>
-      <c r="L20" s="46">
+      <c r="L20" s="45">
         <f t="shared" si="5"/>
         <v>1.7999999999999998</v>
       </c>
-      <c r="M20" s="46">
+      <c r="M20" s="45">
         <f t="shared" si="5"/>
         <v>0.90000000000000036</v>
       </c>
-      <c r="N20" s="46">
+      <c r="N20" s="45">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O20" s="46">
+      <c r="O20" s="45">
         <f t="shared" si="5"/>
         <v>-0.90000000000000036</v>
       </c>
-      <c r="P20" s="46">
+      <c r="P20" s="45">
         <f t="shared" si="5"/>
         <v>-1.8000000000000007</v>
       </c>
-      <c r="Q20" s="46">
+      <c r="Q20" s="45">
         <f t="shared" si="5"/>
         <v>-2.7000000000000011</v>
       </c>
-      <c r="R20" s="46">
+      <c r="R20" s="45">
         <f t="shared" si="5"/>
         <v>-3.5999999999999996</v>
       </c>
-      <c r="S20" s="29"/>
+      <c r="S20" s="28"/>
     </row>
     <row r="21" spans="1:19" ht="12.75" customHeight="1">
       <c r="A21" s="14"/>
       <c r="B21" s="22"/>
-      <c r="C21" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="47"/>
-      <c r="E21" s="35">
+      <c r="C21" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="46"/>
+      <c r="E21" s="34">
         <f t="shared" ref="E21:I21" si="6">D19-E19</f>
         <v>0</v>
       </c>
-      <c r="F21" s="35">
+      <c r="F21" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G21" s="35">
+      <c r="G21" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H21" s="35">
+      <c r="H21" s="34">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="I21" s="35">
+      <c r="I21" s="34">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="J21" s="35">
+      <c r="J21" s="34">
         <f t="shared" ref="J21:K21" si="7">G19-J19</f>
         <v>7</v>
       </c>
-      <c r="K21" s="35">
+      <c r="K21" s="34">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L21" s="35">
+      <c r="L21" s="34">
         <f t="shared" ref="L21:P21" si="8">K19-L19</f>
         <v>1</v>
       </c>
-      <c r="M21" s="35">
+      <c r="M21" s="34">
         <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="N21" s="35">
+      <c r="N21" s="34">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O21" s="35">
+      <c r="O21" s="34">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="P21" s="35">
+      <c r="P21" s="34">
         <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="Q21" s="35">
+      <c r="Q21" s="34">
         <v>0</v>
       </c>
-      <c r="R21" s="35">
+      <c r="R21" s="34">
         <f>O19-R19</f>
         <v>0</v>
       </c>
-      <c r="S21" s="29"/>
+      <c r="S21" s="28"/>
     </row>
     <row r="22" spans="1:19" ht="12.75" customHeight="1">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
-      <c r="C22" s="27"/>
+      <c r="C22" s="26"/>
       <c r="D22" s="14"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="27"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
     </row>
     <row r="23" spans="1:19" ht="12.75" customHeight="1">
       <c r="A23" s="14"/>
@@ -33059,12 +33025,12 @@
       <c r="L25" s="14"/>
       <c r="M25" s="14"/>
       <c r="N25" s="14"/>
-      <c r="O25" s="48">
+      <c r="O25" s="47">
         <v>0</v>
       </c>
-      <c r="P25" s="48"/>
-      <c r="Q25" s="48"/>
-      <c r="R25" s="48">
+      <c r="P25" s="47"/>
+      <c r="Q25" s="47"/>
+      <c r="R25" s="47">
         <f>SUM(D14:D17)</f>
         <v>9</v>
       </c>
@@ -33084,12 +33050,12 @@
       <c r="L26" s="14"/>
       <c r="M26" s="14"/>
       <c r="N26" s="14"/>
-      <c r="O26" s="48">
+      <c r="O26" s="47">
         <v>10</v>
       </c>
-      <c r="P26" s="48"/>
-      <c r="Q26" s="48"/>
-      <c r="R26" s="48">
+      <c r="P26" s="47"/>
+      <c r="Q26" s="47"/>
+      <c r="R26" s="47">
         <v>0</v>
       </c>
     </row>
@@ -34091,14 +34057,12 @@
   </sheetPr>
   <dimension ref="A1:S988"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="7.77734375" customWidth="1"/>
-    <col min="3" max="3" width="58.109375" customWidth="1"/>
+    <col min="3" max="3" width="34.77734375" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" customWidth="1"/>
     <col min="5" max="5" width="10.88671875" customWidth="1"/>
     <col min="6" max="6" width="10.21875" customWidth="1"/>
@@ -34134,28 +34098,28 @@
       <c r="R1" s="14"/>
     </row>
     <row r="2" spans="1:19" ht="43.5" customHeight="1">
-      <c r="A2" s="85" t="str">
+      <c r="A2" s="78" t="str">
         <f>CONCATENATE("Sprint #",D5,"Tracking Sheet")</f>
         <v>Sprint #2Tracking Sheet</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="86"/>
-      <c r="R2" s="86"/>
-      <c r="S2" s="87"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="80"/>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1">
       <c r="A3" s="14"/>
@@ -34183,16 +34147,16 @@
       <c r="C4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="88" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
+      <c r="D4" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
       <c r="L4" s="19"/>
       <c r="M4" s="20"/>
       <c r="N4" s="20"/>
@@ -34206,23 +34170,23 @@
       <c r="A5" s="14"/>
       <c r="B5" s="22"/>
       <c r="C5" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="89">
+        <v>36</v>
+      </c>
+      <c r="D5" s="82">
         <v>2</v>
       </c>
-      <c r="E5" s="82"/>
-      <c r="F5" s="90" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="81"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="94">
-        <v>44970</v>
-      </c>
-      <c r="J5" s="81"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="25"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="83" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="74"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="87">
+        <v>44988</v>
+      </c>
+      <c r="J5" s="74"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="24"/>
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -34234,19 +34198,19 @@
       <c r="A6" s="14"/>
       <c r="B6" s="22"/>
       <c r="C6" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="25"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="24"/>
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -34257,15 +34221,15 @@
     <row r="7" spans="1:19" ht="12.75" customHeight="1">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
       <c r="N7" s="14"/>
@@ -34277,7 +34241,7 @@
     <row r="8" spans="1:19" ht="13.5" customHeight="1">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
-      <c r="C8" s="28"/>
+      <c r="C8" s="27"/>
       <c r="D8" s="14"/>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
@@ -34297,537 +34261,525 @@
     <row r="9" spans="1:19" ht="12.75" customHeight="1">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
-      <c r="C9" s="28"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="22"/>
-      <c r="E9" s="80" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="81"/>
-      <c r="M9" s="81"/>
-      <c r="N9" s="81"/>
-      <c r="O9" s="81"/>
-      <c r="P9" s="81"/>
-      <c r="Q9" s="81"/>
-      <c r="R9" s="82"/>
-      <c r="S9" s="29"/>
+      <c r="E9" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="74"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="74"/>
+      <c r="R9" s="75"/>
+      <c r="S9" s="28"/>
     </row>
     <row r="10" spans="1:19" ht="12.75" customHeight="1">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" s="22"/>
-      <c r="E10" s="80" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="80" t="s">
+      <c r="E10" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="M10" s="81"/>
-      <c r="N10" s="81"/>
-      <c r="O10" s="81"/>
-      <c r="P10" s="81"/>
-      <c r="Q10" s="81"/>
-      <c r="R10" s="82"/>
-      <c r="S10" s="29"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="74"/>
+      <c r="R10" s="75"/>
+      <c r="S10" s="28"/>
     </row>
     <row r="11" spans="1:19" ht="12.75" customHeight="1">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="31">
+      <c r="D11" s="29"/>
+      <c r="E11" s="30">
         <v>1</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="30">
         <v>2</v>
       </c>
-      <c r="G11" s="31">
+      <c r="G11" s="30">
         <v>3</v>
       </c>
-      <c r="H11" s="31">
+      <c r="H11" s="30">
         <v>4</v>
       </c>
-      <c r="I11" s="31">
+      <c r="I11" s="30">
         <v>5</v>
       </c>
-      <c r="J11" s="31">
+      <c r="J11" s="30">
         <v>6</v>
       </c>
-      <c r="K11" s="31">
+      <c r="K11" s="30">
         <v>7</v>
       </c>
-      <c r="L11" s="31">
+      <c r="L11" s="30">
         <v>8</v>
       </c>
-      <c r="M11" s="31">
+      <c r="M11" s="30">
         <v>9</v>
       </c>
-      <c r="N11" s="31">
+      <c r="N11" s="30">
         <v>10</v>
       </c>
-      <c r="O11" s="31">
+      <c r="O11" s="30">
         <v>11</v>
       </c>
-      <c r="P11" s="31">
+      <c r="P11" s="30">
         <v>12</v>
       </c>
-      <c r="Q11" s="31">
+      <c r="Q11" s="30">
         <v>13</v>
       </c>
-      <c r="R11" s="31">
+      <c r="R11" s="30">
         <v>14</v>
       </c>
-      <c r="S11" s="29"/>
+      <c r="S11" s="28"/>
     </row>
     <row r="12" spans="1:19" ht="27" customHeight="1">
       <c r="A12" s="23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="32" t="s">
-        <v>42</v>
+      <c r="C12" s="31" t="s">
+        <v>43</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="33">
+        <v>44</v>
+      </c>
+      <c r="E12" s="32">
         <f>I5</f>
-        <v>44970</v>
-      </c>
-      <c r="F12" s="33">
+        <v>44988</v>
+      </c>
+      <c r="F12" s="32">
         <f t="shared" ref="F12:I12" si="0">E12+1</f>
-        <v>44971</v>
-      </c>
-      <c r="G12" s="33">
+        <v>44989</v>
+      </c>
+      <c r="G12" s="32">
         <f t="shared" si="0"/>
-        <v>44972</v>
-      </c>
-      <c r="H12" s="33">
+        <v>44990</v>
+      </c>
+      <c r="H12" s="32">
         <f t="shared" si="0"/>
-        <v>44973</v>
-      </c>
-      <c r="I12" s="33">
+        <v>44991</v>
+      </c>
+      <c r="I12" s="32">
         <f t="shared" si="0"/>
-        <v>44974</v>
-      </c>
-      <c r="J12" s="33">
+        <v>44992</v>
+      </c>
+      <c r="J12" s="32">
         <f>H12+2</f>
-        <v>44975</v>
-      </c>
-      <c r="K12" s="33">
+        <v>44993</v>
+      </c>
+      <c r="K12" s="32">
         <f t="shared" ref="K12:L12" si="1">J12+1</f>
-        <v>44976</v>
-      </c>
-      <c r="L12" s="33">
+        <v>44994</v>
+      </c>
+      <c r="L12" s="32">
         <f t="shared" si="1"/>
-        <v>44977</v>
-      </c>
-      <c r="M12" s="33">
+        <v>44995</v>
+      </c>
+      <c r="M12" s="32">
         <f t="shared" ref="M12:P12" si="2">L12+1</f>
-        <v>44978</v>
-      </c>
-      <c r="N12" s="33">
+        <v>44996</v>
+      </c>
+      <c r="N12" s="32">
         <f t="shared" si="2"/>
-        <v>44979</v>
-      </c>
-      <c r="O12" s="33">
+        <v>44997</v>
+      </c>
+      <c r="O12" s="32">
         <f t="shared" si="2"/>
-        <v>44980</v>
-      </c>
-      <c r="P12" s="33">
+        <v>44998</v>
+      </c>
+      <c r="P12" s="32">
         <f t="shared" si="2"/>
-        <v>44981</v>
-      </c>
-      <c r="Q12" s="33">
+        <v>44999</v>
+      </c>
+      <c r="Q12" s="32">
         <f t="shared" ref="Q12:R12" si="3">P12+1</f>
-        <v>44982</v>
-      </c>
-      <c r="R12" s="33">
+        <v>45000</v>
+      </c>
+      <c r="R12" s="32">
         <f t="shared" si="3"/>
-        <v>44983</v>
-      </c>
-      <c r="S12" s="34"/>
+        <v>45001</v>
+      </c>
+      <c r="S12" s="33"/>
     </row>
     <row r="13" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A13" s="35">
+      <c r="A13" s="34">
         <v>1</v>
       </c>
-      <c r="B13" s="35">
+      <c r="B13" s="34">
         <v>3</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="35">
+      <c r="D13" s="34">
         <v>5</v>
       </c>
-      <c r="E13" s="35">
+      <c r="E13" s="34">
         <v>1</v>
       </c>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35">
+      <c r="F13" s="34"/>
+      <c r="G13" s="34">
         <v>1</v>
       </c>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35">
-        <v>1</v>
-      </c>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35">
-        <v>1</v>
-      </c>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="36"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="35"/>
     </row>
     <row r="14" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A14" s="35">
+      <c r="A14" s="34">
         <v>2</v>
       </c>
-      <c r="B14" s="35">
+      <c r="B14" s="34">
         <v>4</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="35">
+      <c r="D14" s="34">
         <v>3</v>
       </c>
-      <c r="E14" s="35">
+      <c r="E14" s="34">
         <v>1</v>
       </c>
-      <c r="F14" s="35">
+      <c r="F14" s="34">
         <v>1</v>
       </c>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35">
-        <v>1</v>
-      </c>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="36"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="35"/>
     </row>
     <row r="15" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A15" s="35">
+      <c r="A15" s="34">
         <v>3</v>
       </c>
-      <c r="B15" s="35">
+      <c r="B15" s="34">
         <v>5</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="35">
+      <c r="D15" s="34">
         <v>4</v>
       </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35">
-        <v>1</v>
-      </c>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35">
-        <v>1</v>
-      </c>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35">
-        <v>2</v>
-      </c>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="36"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="35"/>
     </row>
     <row r="16" spans="1:19" ht="12.75" customHeight="1">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="35"/>
-      <c r="S16" s="36"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="35"/>
     </row>
     <row r="17" spans="1:19" ht="12.75" customHeight="1">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="35"/>
-      <c r="S17" s="36"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="35"/>
     </row>
     <row r="18" spans="1:19" ht="12.75" customHeight="1">
       <c r="A18" s="14"/>
       <c r="B18" s="22"/>
-      <c r="C18" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="93">
+      <c r="C18" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="86">
         <f>SUM(D14:D17)</f>
         <v>7</v>
       </c>
-      <c r="E18" s="50">
+      <c r="E18" s="49">
         <f t="shared" ref="E18:I18" si="4">IF(COUNTA(E14:E16)&gt;0,SUM(E14:E16),D18)</f>
         <v>1</v>
       </c>
-      <c r="F18" s="50">
+      <c r="F18" s="49">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G18" s="50">
+      <c r="G18" s="49">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H18" s="50">
+      <c r="H18" s="49">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="I18" s="50">
+      <c r="I18" s="49">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J18" s="50">
+      <c r="J18" s="49">
         <f>IF(COUNTA(J14:J16)&gt;0,SUM(J14:J16),H18)</f>
         <v>1</v>
       </c>
-      <c r="K18" s="50">
+      <c r="K18" s="49">
         <f>IF(COUNTA(K14:K16)&gt;0,SUM(K14:K16),H18)</f>
         <v>1</v>
       </c>
-      <c r="L18" s="50">
+      <c r="L18" s="49">
         <f t="shared" ref="L18:O18" si="5">IF(COUNTA(L14:L16)&gt;0,SUM(L14:L16),K18)</f>
         <v>1</v>
       </c>
-      <c r="M18" s="50">
+      <c r="M18" s="49">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="N18" s="50">
+      <c r="N18" s="49">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O18" s="50">
+      <c r="O18" s="49">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="P18" s="50">
+        <v>1</v>
+      </c>
+      <c r="P18" s="49">
         <f>IF(COUNTA(P14:P16)&gt;0,SUM(P14:P16),N18)</f>
         <v>1</v>
       </c>
-      <c r="Q18" s="50">
+      <c r="Q18" s="49">
         <f>IF(COUNTA(Q14:Q16)&gt;0,SUM(Q14:Q16),P18)</f>
         <v>1</v>
       </c>
-      <c r="R18" s="50">
+      <c r="R18" s="49">
         <f>IF(COUNTA(R14:R16)&gt;0,SUM(R14:R16),P18)</f>
         <v>1</v>
       </c>
-      <c r="S18" s="29"/>
+      <c r="S18" s="28"/>
     </row>
     <row r="19" spans="1:19" ht="12.75" customHeight="1">
       <c r="A19" s="14"/>
       <c r="B19" s="22"/>
-      <c r="C19" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="84"/>
-      <c r="E19" s="46">
+      <c r="C19" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="77"/>
+      <c r="E19" s="45">
         <f t="shared" ref="E19:R19" si="6">FORECAST(E11,$R$24:$R$25,$P$24:$P$25)</f>
         <v>6.3</v>
       </c>
-      <c r="F19" s="46">
+      <c r="F19" s="45">
         <f t="shared" si="6"/>
         <v>5.6</v>
       </c>
-      <c r="G19" s="46">
+      <c r="G19" s="45">
         <f t="shared" si="6"/>
         <v>4.9000000000000004</v>
       </c>
-      <c r="H19" s="46">
+      <c r="H19" s="45">
         <f t="shared" si="6"/>
         <v>4.2</v>
       </c>
-      <c r="I19" s="46">
+      <c r="I19" s="45">
         <f t="shared" si="6"/>
         <v>3.5</v>
       </c>
-      <c r="J19" s="46">
+      <c r="J19" s="45">
         <f t="shared" si="6"/>
         <v>2.8000000000000007</v>
       </c>
-      <c r="K19" s="46">
+      <c r="K19" s="45">
         <f t="shared" si="6"/>
         <v>2.1000000000000005</v>
       </c>
-      <c r="L19" s="46">
+      <c r="L19" s="45">
         <f t="shared" si="6"/>
         <v>1.4000000000000004</v>
       </c>
-      <c r="M19" s="46">
+      <c r="M19" s="45">
         <f t="shared" si="6"/>
         <v>0.70000000000000018</v>
       </c>
-      <c r="N19" s="46">
+      <c r="N19" s="45">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O19" s="46">
+      <c r="O19" s="45">
         <f t="shared" si="6"/>
         <v>-0.69999999999999929</v>
       </c>
-      <c r="P19" s="46">
+      <c r="P19" s="45">
         <f t="shared" si="6"/>
         <v>-1.3999999999999986</v>
       </c>
-      <c r="Q19" s="46">
+      <c r="Q19" s="45">
         <f t="shared" si="6"/>
         <v>-2.0999999999999996</v>
       </c>
-      <c r="R19" s="46">
+      <c r="R19" s="45">
         <f t="shared" si="6"/>
         <v>-2.7999999999999989</v>
       </c>
-      <c r="S19" s="29"/>
+      <c r="S19" s="28"/>
     </row>
     <row r="20" spans="1:19" ht="12.75" customHeight="1">
       <c r="A20" s="14"/>
       <c r="B20" s="22"/>
-      <c r="C20" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="47"/>
-      <c r="E20" s="35">
+      <c r="C20" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="46"/>
+      <c r="E20" s="34">
         <f t="shared" ref="E20:I20" si="7">D18-E18</f>
         <v>6</v>
       </c>
-      <c r="F20" s="35">
+      <c r="F20" s="34">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G20" s="35">
+      <c r="G20" s="34">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H20" s="35">
+      <c r="H20" s="34">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I20" s="35">
+      <c r="I20" s="34">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J20" s="35">
+      <c r="J20" s="34">
         <f>H18-J18</f>
         <v>0</v>
       </c>
-      <c r="K20" s="35">
+      <c r="K20" s="34">
         <f>H18-K18</f>
         <v>0</v>
       </c>
-      <c r="L20" s="35">
+      <c r="L20" s="34">
         <f t="shared" ref="L20:O20" si="8">K18-L18</f>
         <v>0</v>
       </c>
-      <c r="M20" s="35">
+      <c r="M20" s="34">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N20" s="35">
+      <c r="N20" s="34">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O20" s="35">
+      <c r="O20" s="34">
         <f t="shared" si="8"/>
-        <v>-1</v>
-      </c>
-      <c r="P20" s="35">
+        <v>0</v>
+      </c>
+      <c r="P20" s="34">
         <f>N18-P18</f>
         <v>0</v>
       </c>
-      <c r="Q20" s="35">
+      <c r="Q20" s="34">
         <f>P18-Q18</f>
         <v>0</v>
       </c>
-      <c r="R20" s="35">
+      <c r="R20" s="34">
         <f>P18-R18</f>
         <v>0</v>
       </c>
-      <c r="S20" s="29"/>
+      <c r="S20" s="28"/>
     </row>
     <row r="21" spans="1:19" ht="12.75" customHeight="1">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
-      <c r="C21" s="27"/>
+      <c r="C21" s="26"/>
       <c r="D21" s="14"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="27"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
     </row>
     <row r="22" spans="1:19" ht="12.75" customHeight="1">
       <c r="A22" s="14"/>
@@ -34884,12 +34836,12 @@
       <c r="L24" s="14"/>
       <c r="M24" s="14"/>
       <c r="N24" s="14"/>
-      <c r="O24" s="48"/>
-      <c r="P24" s="48">
+      <c r="O24" s="47"/>
+      <c r="P24" s="47">
         <v>0</v>
       </c>
-      <c r="Q24" s="48"/>
-      <c r="R24" s="48">
+      <c r="Q24" s="47"/>
+      <c r="R24" s="47">
         <f>SUM(D14:D16)</f>
         <v>7</v>
       </c>
@@ -34909,12 +34861,12 @@
       <c r="L25" s="14"/>
       <c r="M25" s="14"/>
       <c r="N25" s="14"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="48">
+      <c r="O25" s="47"/>
+      <c r="P25" s="47">
         <v>10</v>
       </c>
-      <c r="Q25" s="48"/>
-      <c r="R25" s="48">
+      <c r="Q25" s="47"/>
+      <c r="R25" s="47">
         <v>0</v>
       </c>
     </row>
@@ -35917,14 +35869,14 @@
   </sheetPr>
   <dimension ref="A1:S988"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="7.77734375" customWidth="1"/>
-    <col min="3" max="3" width="52.77734375" customWidth="1"/>
+    <col min="3" max="3" width="34.77734375" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" customWidth="1"/>
     <col min="5" max="5" width="10.88671875" customWidth="1"/>
     <col min="6" max="6" width="10.21875" customWidth="1"/>
@@ -35960,28 +35912,28 @@
       <c r="R1" s="14"/>
     </row>
     <row r="2" spans="1:19" ht="43.5" customHeight="1">
-      <c r="A2" s="96" t="str">
+      <c r="A2" s="91" t="str">
         <f>CONCATENATE("Sprint #",D5,"Tracking Sheet")</f>
         <v>Sprint #3Tracking Sheet</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="86"/>
-      <c r="R2" s="86"/>
-      <c r="S2" s="87"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="93"/>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1">
       <c r="A3" s="14"/>
@@ -36009,15 +35961,15 @@
       <c r="C4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="88" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
+      <c r="D4" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
       <c r="M4" s="20"/>
@@ -36032,22 +35984,22 @@
       <c r="A5" s="14"/>
       <c r="B5" s="22"/>
       <c r="C5" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="89">
+        <v>36</v>
+      </c>
+      <c r="D5" s="82">
         <v>3</v>
       </c>
-      <c r="E5" s="82"/>
-      <c r="F5" s="90" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="81"/>
-      <c r="H5" s="97">
-        <v>44984</v>
-      </c>
-      <c r="I5" s="81"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="25"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="83" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="74"/>
+      <c r="H5" s="89">
+        <v>45002</v>
+      </c>
+      <c r="I5" s="74"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="24"/>
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
@@ -36060,18 +36012,18 @@
       <c r="A6" s="14"/>
       <c r="B6" s="22"/>
       <c r="C6" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="89" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="91"/>
-      <c r="K6" s="25"/>
+        <v>38</v>
+      </c>
+      <c r="D6" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="24"/>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
@@ -36083,14 +36035,14 @@
     <row r="7" spans="1:19" ht="12.75" customHeight="1">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
@@ -36103,7 +36055,7 @@
     <row r="8" spans="1:19" ht="13.5" customHeight="1">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
-      <c r="C8" s="28"/>
+      <c r="C8" s="27"/>
       <c r="D8" s="14"/>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
@@ -36123,524 +36075,524 @@
     <row r="9" spans="1:19" ht="12.75" customHeight="1">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
-      <c r="C9" s="28"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="22"/>
-      <c r="E9" s="80" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="81"/>
-      <c r="M9" s="81"/>
-      <c r="N9" s="81"/>
-      <c r="O9" s="81"/>
-      <c r="P9" s="81"/>
-      <c r="Q9" s="81"/>
-      <c r="R9" s="82"/>
-      <c r="S9" s="29"/>
+      <c r="E9" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="74"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="74"/>
+      <c r="R9" s="75"/>
+      <c r="S9" s="28"/>
     </row>
     <row r="10" spans="1:19" ht="12.75" customHeight="1">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" s="22"/>
-      <c r="E10" s="80" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="95" t="s">
+      <c r="E10" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="M10" s="81"/>
-      <c r="N10" s="81"/>
-      <c r="O10" s="81"/>
-      <c r="P10" s="81"/>
-      <c r="Q10" s="81"/>
-      <c r="R10" s="82"/>
-      <c r="S10" s="29"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="88" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="74"/>
+      <c r="R10" s="75"/>
+      <c r="S10" s="28"/>
     </row>
     <row r="11" spans="1:19" ht="12.75" customHeight="1">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="31">
+      <c r="D11" s="29"/>
+      <c r="E11" s="30">
         <v>1</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="30">
         <v>2</v>
       </c>
-      <c r="G11" s="31">
+      <c r="G11" s="30">
         <v>3</v>
       </c>
-      <c r="H11" s="31">
+      <c r="H11" s="30">
         <v>4</v>
       </c>
-      <c r="I11" s="31">
+      <c r="I11" s="30">
         <v>5</v>
       </c>
-      <c r="J11" s="31">
+      <c r="J11" s="30">
         <v>6</v>
       </c>
-      <c r="K11" s="31">
+      <c r="K11" s="30">
         <v>7</v>
       </c>
-      <c r="L11" s="31">
+      <c r="L11" s="30">
         <v>8</v>
       </c>
-      <c r="M11" s="31">
+      <c r="M11" s="30">
         <v>9</v>
       </c>
-      <c r="N11" s="31">
+      <c r="N11" s="30">
         <v>10</v>
       </c>
-      <c r="O11" s="31">
+      <c r="O11" s="30">
         <v>11</v>
       </c>
-      <c r="P11" s="31">
+      <c r="P11" s="30">
         <v>12</v>
       </c>
-      <c r="Q11" s="31">
+      <c r="Q11" s="30">
         <v>13</v>
       </c>
-      <c r="R11" s="31">
+      <c r="R11" s="30">
         <v>14</v>
       </c>
-      <c r="S11" s="29"/>
+      <c r="S11" s="28"/>
     </row>
     <row r="12" spans="1:19" ht="27" customHeight="1">
       <c r="A12" s="23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="66" t="s">
-        <v>42</v>
+      <c r="C12" s="31" t="s">
+        <v>43</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="33">
-        <v>44984</v>
-      </c>
-      <c r="F12" s="33">
+        <v>44</v>
+      </c>
+      <c r="E12" s="32">
+        <v>45002</v>
+      </c>
+      <c r="F12" s="32">
         <f t="shared" ref="F12:H12" si="0">E12+1</f>
-        <v>44985</v>
-      </c>
-      <c r="G12" s="33">
+        <v>45003</v>
+      </c>
+      <c r="G12" s="32">
         <f t="shared" si="0"/>
-        <v>44986</v>
-      </c>
-      <c r="H12" s="33">
+        <v>45004</v>
+      </c>
+      <c r="H12" s="32">
         <f t="shared" si="0"/>
-        <v>44987</v>
-      </c>
-      <c r="I12" s="33">
+        <v>45005</v>
+      </c>
+      <c r="I12" s="32">
         <f>G12+2</f>
-        <v>44988</v>
-      </c>
-      <c r="J12" s="33">
+        <v>45006</v>
+      </c>
+      <c r="J12" s="32">
         <f t="shared" ref="J12:L12" si="1">I12+1</f>
-        <v>44989</v>
-      </c>
-      <c r="K12" s="33">
+        <v>45007</v>
+      </c>
+      <c r="K12" s="32">
         <f t="shared" si="1"/>
-        <v>44990</v>
-      </c>
-      <c r="L12" s="33">
+        <v>45008</v>
+      </c>
+      <c r="L12" s="32">
         <f t="shared" si="1"/>
-        <v>44991</v>
-      </c>
-      <c r="M12" s="33">
+        <v>45009</v>
+      </c>
+      <c r="M12" s="32">
         <f>K12+2</f>
-        <v>44992</v>
-      </c>
-      <c r="N12" s="33">
+        <v>45010</v>
+      </c>
+      <c r="N12" s="32">
         <f t="shared" ref="N12:O12" si="2">M12+1</f>
-        <v>44993</v>
-      </c>
-      <c r="O12" s="33">
+        <v>45011</v>
+      </c>
+      <c r="O12" s="32">
         <f t="shared" si="2"/>
-        <v>44994</v>
-      </c>
-      <c r="P12" s="33">
+        <v>45012</v>
+      </c>
+      <c r="P12" s="32">
         <f t="shared" ref="P12:R12" si="3">N12+2</f>
-        <v>44995</v>
-      </c>
-      <c r="Q12" s="33">
+        <v>45013</v>
+      </c>
+      <c r="Q12" s="32">
         <f t="shared" si="3"/>
-        <v>44996</v>
-      </c>
-      <c r="R12" s="33">
+        <v>45014</v>
+      </c>
+      <c r="R12" s="32">
         <f t="shared" si="3"/>
-        <v>44997</v>
-      </c>
-      <c r="S12" s="34"/>
+        <v>45015</v>
+      </c>
+      <c r="S12" s="33"/>
     </row>
     <row r="13" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A13" s="35">
+      <c r="A13" s="34">
         <v>1</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="34">
         <v>6</v>
       </c>
-      <c r="C13" s="67" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="65">
+      <c r="C13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="34">
         <v>4</v>
       </c>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="36"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="35"/>
     </row>
     <row r="14" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A14" s="35">
+      <c r="A14" s="34">
         <v>2</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="34">
         <v>6</v>
       </c>
-      <c r="C14" s="67" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="65">
+      <c r="C14" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="34">
         <v>4</v>
       </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="36"/>
-    </row>
-    <row r="15" spans="1:19" ht="22.2" customHeight="1">
-      <c r="A15" s="35">
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="35"/>
+    </row>
+    <row r="15" spans="1:19" ht="12.75" customHeight="1">
+      <c r="A15" s="34">
         <v>3</v>
       </c>
-      <c r="B15" s="24">
+      <c r="B15" s="34">
         <v>6</v>
       </c>
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="65">
+      <c r="D15" s="34">
         <v>5</v>
       </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="36"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="35"/>
     </row>
     <row r="16" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A16" s="35">
+      <c r="A16" s="34">
         <v>4</v>
       </c>
-      <c r="B16" s="24">
+      <c r="B16" s="34">
         <v>6</v>
       </c>
-      <c r="C16" s="67" t="s">
+      <c r="C16" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="65">
+      <c r="D16" s="34">
         <v>5</v>
       </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="35"/>
-      <c r="S16" s="36"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="35"/>
     </row>
     <row r="17" spans="1:19" ht="12.75" customHeight="1">
-      <c r="A17" s="35"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="35"/>
-      <c r="S17" s="51"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="50"/>
     </row>
     <row r="18" spans="1:19" ht="12.75" customHeight="1">
       <c r="A18" s="14"/>
       <c r="B18" s="22"/>
-      <c r="C18" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="83">
+      <c r="C18" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="76">
         <f>SUM(D14:D17)</f>
         <v>14</v>
       </c>
-      <c r="E18" s="45">
+      <c r="E18" s="44">
         <f t="shared" ref="E18:H18" si="4">IF(COUNTA(E14:E16)&gt;0,SUM(E14:E16),D18)</f>
         <v>14</v>
       </c>
-      <c r="F18" s="45">
+      <c r="F18" s="44">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="G18" s="45">
+      <c r="G18" s="44">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="H18" s="45">
+      <c r="H18" s="44">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="I18" s="45">
+      <c r="I18" s="44">
         <f>IF(COUNTA(I14:I16)&gt;0,SUM(I14:I16),G18)</f>
         <v>14</v>
       </c>
-      <c r="J18" s="45">
+      <c r="J18" s="44">
         <f t="shared" ref="J18:L18" si="5">IF(COUNTA(J14:J16)&gt;0,SUM(J14:J16),I18)</f>
         <v>14</v>
       </c>
-      <c r="K18" s="45">
+      <c r="K18" s="44">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="L18" s="45">
+      <c r="L18" s="44">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="M18" s="45">
+      <c r="M18" s="44">
         <f>IF(COUNTA(M14:M16)&gt;0,SUM(M14:M16),K18)</f>
         <v>14</v>
       </c>
-      <c r="N18" s="45">
+      <c r="N18" s="44">
         <f t="shared" ref="N18:O18" si="6">IF(COUNTA(N14:N16)&gt;0,SUM(N14:N16),M18)</f>
         <v>14</v>
       </c>
-      <c r="O18" s="45">
+      <c r="O18" s="44">
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="P18" s="45">
+      <c r="P18" s="44">
         <f t="shared" ref="P18:R18" si="7">IF(COUNTA(P14:P16)&gt;0,SUM(P14:P16),N18)</f>
         <v>14</v>
       </c>
-      <c r="Q18" s="45">
+      <c r="Q18" s="44">
         <f t="shared" si="7"/>
         <v>14</v>
       </c>
-      <c r="R18" s="45">
+      <c r="R18" s="44">
         <f t="shared" si="7"/>
         <v>14</v>
       </c>
-      <c r="S18" s="29"/>
+      <c r="S18" s="28"/>
     </row>
     <row r="19" spans="1:19" ht="12.75" customHeight="1">
       <c r="A19" s="14"/>
       <c r="B19" s="22"/>
-      <c r="C19" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="84"/>
-      <c r="E19" s="46">
+      <c r="C19" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="77"/>
+      <c r="E19" s="45">
         <f t="shared" ref="E19:R19" si="8">FORECAST(E11,$R$24:$R$25,$P$24:$P$25)</f>
         <v>12.6</v>
       </c>
-      <c r="F19" s="46">
+      <c r="F19" s="45">
         <f t="shared" si="8"/>
         <v>11.2</v>
       </c>
-      <c r="G19" s="46">
+      <c r="G19" s="45">
         <f t="shared" si="8"/>
         <v>9.8000000000000007</v>
       </c>
-      <c r="H19" s="46">
+      <c r="H19" s="45">
         <f t="shared" si="8"/>
         <v>8.4</v>
       </c>
-      <c r="I19" s="46">
+      <c r="I19" s="45">
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="J19" s="46">
+      <c r="J19" s="45">
         <f t="shared" si="8"/>
         <v>5.6000000000000014</v>
       </c>
-      <c r="K19" s="46">
+      <c r="K19" s="45">
         <f t="shared" si="8"/>
         <v>4.2000000000000011</v>
       </c>
-      <c r="L19" s="46">
+      <c r="L19" s="45">
         <f t="shared" si="8"/>
         <v>2.8000000000000007</v>
       </c>
-      <c r="M19" s="46">
+      <c r="M19" s="45">
         <f t="shared" si="8"/>
         <v>1.4000000000000004</v>
       </c>
-      <c r="N19" s="46">
+      <c r="N19" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O19" s="46">
+      <c r="O19" s="45">
         <f t="shared" si="8"/>
         <v>-1.3999999999999986</v>
       </c>
-      <c r="P19" s="46">
+      <c r="P19" s="45">
         <f t="shared" si="8"/>
         <v>-2.7999999999999972</v>
       </c>
-      <c r="Q19" s="46">
+      <c r="Q19" s="45">
         <f t="shared" si="8"/>
         <v>-4.1999999999999993</v>
       </c>
-      <c r="R19" s="46">
+      <c r="R19" s="45">
         <f t="shared" si="8"/>
         <v>-5.5999999999999979</v>
       </c>
-      <c r="S19" s="29"/>
+      <c r="S19" s="28"/>
     </row>
     <row r="20" spans="1:19" ht="12.75" customHeight="1">
       <c r="A20" s="14"/>
       <c r="B20" s="22"/>
-      <c r="C20" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="47"/>
-      <c r="E20" s="35">
+      <c r="C20" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="46"/>
+      <c r="E20" s="34">
         <f t="shared" ref="E20:H20" si="9">D18-E18</f>
         <v>0</v>
       </c>
-      <c r="F20" s="35">
+      <c r="F20" s="34">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G20" s="35">
+      <c r="G20" s="34">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H20" s="35">
+      <c r="H20" s="34">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I20" s="35">
+      <c r="I20" s="34">
         <f>G18-I18</f>
         <v>0</v>
       </c>
-      <c r="J20" s="35">
+      <c r="J20" s="34">
         <f t="shared" ref="J20:L20" si="10">I18-J18</f>
         <v>0</v>
       </c>
-      <c r="K20" s="35">
+      <c r="K20" s="34">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L20" s="35">
+      <c r="L20" s="34">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M20" s="35">
+      <c r="M20" s="34">
         <f t="shared" ref="M20:R20" si="11">K18-M18</f>
         <v>0</v>
       </c>
-      <c r="N20" s="35">
+      <c r="N20" s="34">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O20" s="35">
+      <c r="O20" s="34">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="P20" s="35">
+      <c r="P20" s="34">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="35">
+      <c r="Q20" s="34">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="R20" s="35">
+      <c r="R20" s="34">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="S20" s="29"/>
+      <c r="S20" s="28"/>
     </row>
     <row r="21" spans="1:19" ht="12.75" customHeight="1">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
-      <c r="C21" s="27"/>
+      <c r="C21" s="26"/>
       <c r="D21" s="14"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="27"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
     </row>
     <row r="22" spans="1:19" ht="12.75" customHeight="1">
       <c r="A22" s="14"/>
@@ -36697,12 +36649,12 @@
       <c r="L24" s="14"/>
       <c r="M24" s="14"/>
       <c r="N24" s="14"/>
-      <c r="O24" s="48"/>
-      <c r="P24" s="48">
+      <c r="O24" s="47"/>
+      <c r="P24" s="47">
         <v>0</v>
       </c>
-      <c r="Q24" s="48"/>
-      <c r="R24" s="48">
+      <c r="Q24" s="47"/>
+      <c r="R24" s="47">
         <f>SUM(D14:D16)</f>
         <v>14</v>
       </c>
@@ -36722,12 +36674,12 @@
       <c r="L25" s="14"/>
       <c r="M25" s="14"/>
       <c r="N25" s="14"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="48">
+      <c r="O25" s="47"/>
+      <c r="P25" s="47">
         <v>10</v>
       </c>
-      <c r="Q25" s="48"/>
-      <c r="R25" s="48">
+      <c r="Q25" s="47"/>
+      <c r="R25" s="47">
         <v>0</v>
       </c>
     </row>
@@ -37730,9 +37682,7 @@
   </sheetPr>
   <dimension ref="A1:S987"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:J6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -37773,27 +37723,27 @@
       <c r="R1" s="14"/>
     </row>
     <row r="2" spans="1:19" ht="43.5" customHeight="1">
-      <c r="A2" s="85" t="str">
+      <c r="A2" s="78" t="str">
         <f>CONCATENATE("Sprint #",D5,"Tracking Sheet")</f>
         <v>Sprint #4Tracking Sheet</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="86"/>
-      <c r="R2" s="87"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="80"/>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1">
       <c r="A3" s="14"/>
@@ -37821,15 +37771,15 @@
       <c r="C4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="88" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
+      <c r="D4" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
       <c r="M4" s="20"/>
@@ -37844,22 +37794,22 @@
       <c r="A5" s="14"/>
       <c r="B5" s="22"/>
       <c r="C5" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="89">
+        <v>36</v>
+      </c>
+      <c r="D5" s="82">
         <v>4</v>
       </c>
-      <c r="E5" s="82"/>
-      <c r="F5" s="90" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="81"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="94">
-        <v>44998</v>
-      </c>
-      <c r="J5" s="82"/>
-      <c r="K5" s="25"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="83" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="74"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="87">
+        <v>45016</v>
+      </c>
+      <c r="J5" s="75"/>
+      <c r="K5" s="24"/>
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
@@ -37872,18 +37822,18 @@
       <c r="A6" s="14"/>
       <c r="B6" s="22"/>
       <c r="C6" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="91"/>
-      <c r="K6" s="25"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="24"/>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
@@ -37895,14 +37845,14 @@
     <row r="7" spans="1:19" ht="12.75" customHeight="1">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
@@ -37915,7 +37865,7 @@
     <row r="8" spans="1:19" ht="13.5" customHeight="1">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
-      <c r="C8" s="28"/>
+      <c r="C8" s="27"/>
       <c r="D8" s="14"/>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
@@ -37935,496 +37885,496 @@
     <row r="9" spans="1:19" ht="12.75" customHeight="1">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
-      <c r="C9" s="28"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="22"/>
-      <c r="E9" s="80" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="81"/>
-      <c r="M9" s="81"/>
-      <c r="N9" s="81"/>
-      <c r="O9" s="81"/>
-      <c r="P9" s="81"/>
-      <c r="Q9" s="81"/>
-      <c r="R9" s="82"/>
-      <c r="S9" s="29"/>
+      <c r="E9" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="74"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="74"/>
+      <c r="R9" s="75"/>
+      <c r="S9" s="28"/>
     </row>
     <row r="10" spans="1:19" ht="12.75" customHeight="1">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" s="22"/>
-      <c r="E10" s="80" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="95" t="s">
+      <c r="E10" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="M10" s="81"/>
-      <c r="N10" s="81"/>
-      <c r="O10" s="81"/>
-      <c r="P10" s="81"/>
-      <c r="Q10" s="81"/>
-      <c r="R10" s="82"/>
-      <c r="S10" s="29"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="88" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="74"/>
+      <c r="R10" s="75"/>
+      <c r="S10" s="28"/>
     </row>
     <row r="11" spans="1:19" ht="12.75" customHeight="1">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="31">
+      <c r="D11" s="29"/>
+      <c r="E11" s="30">
         <v>1</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="30">
         <v>2</v>
       </c>
-      <c r="G11" s="31">
+      <c r="G11" s="30">
         <v>3</v>
       </c>
-      <c r="H11" s="31">
+      <c r="H11" s="30">
         <v>4</v>
       </c>
-      <c r="I11" s="31">
+      <c r="I11" s="30">
         <v>5</v>
       </c>
-      <c r="J11" s="31">
+      <c r="J11" s="30">
         <v>6</v>
       </c>
-      <c r="K11" s="31">
+      <c r="K11" s="30">
         <v>7</v>
       </c>
-      <c r="L11" s="31">
+      <c r="L11" s="30">
         <v>8</v>
       </c>
-      <c r="M11" s="31">
+      <c r="M11" s="30">
         <v>9</v>
       </c>
-      <c r="N11" s="31">
+      <c r="N11" s="30">
         <v>10</v>
       </c>
-      <c r="O11" s="31">
+      <c r="O11" s="30">
         <v>11</v>
       </c>
-      <c r="P11" s="31">
+      <c r="P11" s="30">
         <v>12</v>
       </c>
-      <c r="Q11" s="31">
+      <c r="Q11" s="30">
         <v>13</v>
       </c>
-      <c r="R11" s="31">
+      <c r="R11" s="30">
         <v>14</v>
       </c>
-      <c r="S11" s="29"/>
+      <c r="S11" s="28"/>
     </row>
     <row r="12" spans="1:19" ht="27" customHeight="1">
       <c r="A12" s="23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="32" t="s">
-        <v>42</v>
+      <c r="C12" s="31" t="s">
+        <v>43</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="33">
+        <v>44</v>
+      </c>
+      <c r="E12" s="32">
         <f>I5</f>
-        <v>44998</v>
-      </c>
-      <c r="F12" s="33">
+        <v>45016</v>
+      </c>
+      <c r="F12" s="32">
         <f t="shared" ref="F12:I12" si="0">E12+1</f>
-        <v>44999</v>
-      </c>
-      <c r="G12" s="33">
+        <v>45017</v>
+      </c>
+      <c r="G12" s="32">
         <f t="shared" si="0"/>
-        <v>45000</v>
-      </c>
-      <c r="H12" s="33">
+        <v>45018</v>
+      </c>
+      <c r="H12" s="32">
         <f t="shared" si="0"/>
-        <v>45001</v>
-      </c>
-      <c r="I12" s="33">
+        <v>45019</v>
+      </c>
+      <c r="I12" s="32">
         <f t="shared" si="0"/>
-        <v>45002</v>
-      </c>
-      <c r="J12" s="33">
+        <v>45020</v>
+      </c>
+      <c r="J12" s="32">
         <f>H12+2</f>
-        <v>45003</v>
-      </c>
-      <c r="K12" s="33">
+        <v>45021</v>
+      </c>
+      <c r="K12" s="32">
         <f t="shared" ref="K12:L12" si="1">J12+1</f>
-        <v>45004</v>
-      </c>
-      <c r="L12" s="33">
+        <v>45022</v>
+      </c>
+      <c r="L12" s="32">
         <f t="shared" si="1"/>
-        <v>45005</v>
-      </c>
-      <c r="M12" s="33">
+        <v>45023</v>
+      </c>
+      <c r="M12" s="32">
         <f>K12+2</f>
-        <v>45006</v>
-      </c>
-      <c r="N12" s="33">
+        <v>45024</v>
+      </c>
+      <c r="N12" s="32">
         <f t="shared" ref="N12:Q12" si="2">M12+1</f>
-        <v>45007</v>
-      </c>
-      <c r="O12" s="33">
+        <v>45025</v>
+      </c>
+      <c r="O12" s="32">
         <f t="shared" si="2"/>
-        <v>45008</v>
-      </c>
-      <c r="P12" s="33">
+        <v>45026</v>
+      </c>
+      <c r="P12" s="32">
         <f t="shared" si="2"/>
-        <v>45009</v>
-      </c>
-      <c r="Q12" s="33">
+        <v>45027</v>
+      </c>
+      <c r="Q12" s="32">
         <f t="shared" si="2"/>
-        <v>45010</v>
-      </c>
-      <c r="R12" s="33">
+        <v>45028</v>
+      </c>
+      <c r="R12" s="32">
         <f>O12+3</f>
-        <v>45011</v>
-      </c>
-      <c r="S12" s="34"/>
-    </row>
-    <row r="13" spans="1:19" ht="33.6" customHeight="1">
-      <c r="A13" s="35">
+        <v>45029</v>
+      </c>
+      <c r="S12" s="33"/>
+    </row>
+    <row r="13" spans="1:19" ht="25.5" customHeight="1">
+      <c r="A13" s="34">
         <v>1</v>
       </c>
-      <c r="B13" s="35">
+      <c r="B13" s="34">
         <v>7</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="35">
+      <c r="D13" s="34">
         <v>8</v>
       </c>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="36"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="35"/>
     </row>
     <row r="14" spans="1:19" ht="18" customHeight="1">
-      <c r="A14" s="35">
+      <c r="A14" s="34">
         <v>2</v>
       </c>
-      <c r="B14" s="35">
+      <c r="B14" s="34">
         <v>7</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="35">
+      <c r="D14" s="34">
         <v>8</v>
       </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="36"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="35"/>
     </row>
     <row r="15" spans="1:19" ht="31.5" customHeight="1">
-      <c r="A15" s="35">
+      <c r="A15" s="34">
         <v>3</v>
       </c>
-      <c r="B15" s="35">
+      <c r="B15" s="34">
         <v>7</v>
       </c>
-      <c r="C15" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="35">
+      <c r="C15" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="34">
         <v>4</v>
       </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="36"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="35"/>
     </row>
     <row r="16" spans="1:19" ht="12.75" customHeight="1">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="35"/>
-      <c r="S16" s="51"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="50"/>
     </row>
     <row r="17" spans="1:19" ht="12.75" customHeight="1">
       <c r="A17" s="14"/>
       <c r="B17" s="22"/>
-      <c r="C17" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="83">
+      <c r="C17" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="76">
         <f>SUM(D14:D16)</f>
         <v>12</v>
       </c>
-      <c r="E17" s="45">
+      <c r="E17" s="44">
         <f t="shared" ref="E17:I17" si="3">IF(COUNTA(E14:E15)&gt;0,SUM(E14:E15),D17)</f>
         <v>12</v>
       </c>
-      <c r="F17" s="45">
+      <c r="F17" s="44">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="G17" s="45">
+      <c r="G17" s="44">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="H17" s="45">
+      <c r="H17" s="44">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="I17" s="45">
+      <c r="I17" s="44">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="J17" s="45">
+      <c r="J17" s="44">
         <f>IF(COUNTA(J14:J15)&gt;0,SUM(J14:J15),H17)</f>
         <v>12</v>
       </c>
-      <c r="K17" s="45">
+      <c r="K17" s="44">
         <f t="shared" ref="K17:L17" si="4">IF(COUNTA(K14:K15)&gt;0,SUM(K14:K15),J17)</f>
         <v>12</v>
       </c>
-      <c r="L17" s="45">
+      <c r="L17" s="44">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="M17" s="45">
+      <c r="M17" s="44">
         <f>IF(COUNTA(M14:M15)&gt;0,SUM(M14:M15),K17)</f>
         <v>12</v>
       </c>
-      <c r="N17" s="45">
+      <c r="N17" s="44">
         <f t="shared" ref="N17:Q17" si="5">IF(COUNTA(N14:N15)&gt;0,SUM(N14:N15),M17)</f>
         <v>12</v>
       </c>
-      <c r="O17" s="45">
+      <c r="O17" s="44">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="P17" s="45">
+      <c r="P17" s="44">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="Q17" s="45">
+      <c r="Q17" s="44">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="R17" s="45">
+      <c r="R17" s="44">
         <f>IF(COUNTA(R14:R15)&gt;0,SUM(R14:R15),O17)</f>
         <v>12</v>
       </c>
-      <c r="S17" s="29"/>
+      <c r="S17" s="28"/>
     </row>
     <row r="18" spans="1:19" ht="12.75" customHeight="1">
       <c r="A18" s="14"/>
       <c r="B18" s="22"/>
-      <c r="C18" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="84"/>
-      <c r="E18" s="46">
+      <c r="C18" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="77"/>
+      <c r="E18" s="45">
         <f t="shared" ref="E18:R18" si="6">FORECAST(E11,$R$23:$R$24,$O$23:$O$24)</f>
         <v>10.8</v>
       </c>
-      <c r="F18" s="46">
+      <c r="F18" s="45">
         <f t="shared" si="6"/>
         <v>9.6</v>
       </c>
-      <c r="G18" s="46">
+      <c r="G18" s="45">
         <f t="shared" si="6"/>
         <v>8.4</v>
       </c>
-      <c r="H18" s="46">
+      <c r="H18" s="45">
         <f t="shared" si="6"/>
         <v>7.2</v>
       </c>
-      <c r="I18" s="46">
+      <c r="I18" s="45">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="J18" s="46">
+      <c r="J18" s="45">
         <f t="shared" si="6"/>
         <v>4.8000000000000007</v>
       </c>
-      <c r="K18" s="46">
+      <c r="K18" s="45">
         <f t="shared" si="6"/>
         <v>3.5999999999999996</v>
       </c>
-      <c r="L18" s="46">
+      <c r="L18" s="45">
         <f t="shared" si="6"/>
         <v>2.4000000000000004</v>
       </c>
-      <c r="M18" s="46">
+      <c r="M18" s="45">
         <f t="shared" si="6"/>
         <v>1.2000000000000011</v>
       </c>
-      <c r="N18" s="46">
+      <c r="N18" s="45">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O18" s="46">
+      <c r="O18" s="45">
         <f t="shared" si="6"/>
         <v>-1.1999999999999993</v>
       </c>
-      <c r="P18" s="46">
+      <c r="P18" s="45">
         <f t="shared" si="6"/>
         <v>-2.3999999999999986</v>
       </c>
-      <c r="Q18" s="46">
+      <c r="Q18" s="45">
         <f t="shared" si="6"/>
         <v>-3.5999999999999996</v>
       </c>
-      <c r="R18" s="46">
+      <c r="R18" s="45">
         <f t="shared" si="6"/>
         <v>-4.8000000000000007</v>
       </c>
-      <c r="S18" s="29"/>
+      <c r="S18" s="28"/>
     </row>
     <row r="19" spans="1:19" ht="12.75" customHeight="1">
       <c r="A19" s="14"/>
       <c r="B19" s="22"/>
-      <c r="C19" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="47"/>
-      <c r="E19" s="35">
+      <c r="C19" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="46"/>
+      <c r="E19" s="34">
         <f t="shared" ref="E19:I19" si="7">D17-E17</f>
         <v>0</v>
       </c>
-      <c r="F19" s="35">
+      <c r="F19" s="34">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G19" s="35">
+      <c r="G19" s="34">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H19" s="35">
+      <c r="H19" s="34">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I19" s="35">
+      <c r="I19" s="34">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J19" s="35">
+      <c r="J19" s="34">
         <f>H17-J17</f>
         <v>0</v>
       </c>
-      <c r="K19" s="35">
+      <c r="K19" s="34">
         <f t="shared" ref="K19:L19" si="8">J17-K17</f>
         <v>0</v>
       </c>
-      <c r="L19" s="35">
+      <c r="L19" s="34">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M19" s="35">
+      <c r="M19" s="34">
         <f>K17-M17</f>
         <v>0</v>
       </c>
-      <c r="N19" s="35">
+      <c r="N19" s="34">
         <f t="shared" ref="N19:Q19" si="9">M17-N17</f>
         <v>0</v>
       </c>
-      <c r="O19" s="35">
+      <c r="O19" s="34">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="P19" s="35">
+      <c r="P19" s="34">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="35">
+      <c r="Q19" s="34">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R19" s="35">
+      <c r="R19" s="34">
         <f>O17-R17</f>
         <v>0</v>
       </c>
-      <c r="S19" s="29"/>
+      <c r="S19" s="28"/>
     </row>
     <row r="20" spans="1:19" ht="12.75" customHeight="1">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
-      <c r="C20" s="27"/>
+      <c r="C20" s="26"/>
       <c r="D20" s="14"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="27"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
     </row>
     <row r="21" spans="1:19" ht="12.75" customHeight="1">
       <c r="A21" s="14"/>
@@ -38481,12 +38431,12 @@
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>
       <c r="N23" s="14"/>
-      <c r="O23" s="48">
+      <c r="O23" s="47">
         <v>0</v>
       </c>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="48"/>
-      <c r="R23" s="48">
+      <c r="P23" s="47"/>
+      <c r="Q23" s="47"/>
+      <c r="R23" s="47">
         <f>SUM(D14:D15)</f>
         <v>12</v>
       </c>
@@ -38506,12 +38456,12 @@
       <c r="L24" s="14"/>
       <c r="M24" s="14"/>
       <c r="N24" s="14"/>
-      <c r="O24" s="48">
+      <c r="O24" s="47">
         <v>10</v>
       </c>
-      <c r="P24" s="48"/>
-      <c r="Q24" s="48"/>
-      <c r="R24" s="48">
+      <c r="P24" s="47"/>
+      <c r="Q24" s="47"/>
+      <c r="R24" s="47">
         <v>0</v>
       </c>
     </row>
@@ -39514,9 +39464,7 @@
   </sheetPr>
   <dimension ref="A1:S988"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:I4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -39557,28 +39505,28 @@
       <c r="R1" s="14"/>
     </row>
     <row r="2" spans="1:19" ht="43.5" customHeight="1">
-      <c r="A2" s="85" t="str">
+      <c r="A2" s="78" t="str">
         <f>CONCATENATE("Sprint #",D5,"Tracking Sheet")</f>
         <v>Sprint #5Tracking Sheet</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="86"/>
-      <c r="R2" s="86"/>
-      <c r="S2" s="87"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="80"/>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1">
       <c r="A3" s="14"/>
@@ -39606,14 +39554,14 @@
       <c r="C4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="88" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
+      <c r="D4" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="20"/>
@@ -39629,21 +39577,21 @@
       <c r="A5" s="14"/>
       <c r="B5" s="22"/>
       <c r="C5" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="89">
+        <v>36</v>
+      </c>
+      <c r="D5" s="82">
         <v>5</v>
       </c>
-      <c r="E5" s="82"/>
-      <c r="F5" s="90" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="81"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="52">
-        <v>45012</v>
-      </c>
-      <c r="J5" s="25"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="83" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="74"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="51">
+        <v>45030</v>
+      </c>
+      <c r="J5" s="24"/>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
@@ -39657,17 +39605,17 @@
       <c r="A6" s="14"/>
       <c r="B6" s="22"/>
       <c r="C6" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="91"/>
-      <c r="J6" s="25"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="24"/>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
@@ -39680,13 +39628,13 @@
     <row r="7" spans="1:19" ht="12.75" customHeight="1">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
@@ -39700,7 +39648,7 @@
     <row r="8" spans="1:19" ht="13.5" customHeight="1">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
-      <c r="C8" s="28"/>
+      <c r="C8" s="27"/>
       <c r="D8" s="14"/>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
@@ -39720,517 +39668,517 @@
     <row r="9" spans="1:19" ht="12.75" customHeight="1">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
-      <c r="C9" s="28"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="22"/>
-      <c r="E9" s="80" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="81"/>
-      <c r="M9" s="81"/>
-      <c r="N9" s="81"/>
-      <c r="O9" s="81"/>
-      <c r="P9" s="81"/>
-      <c r="Q9" s="81"/>
-      <c r="R9" s="82"/>
-      <c r="S9" s="29"/>
+      <c r="E9" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="74"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="74"/>
+      <c r="R9" s="75"/>
+      <c r="S9" s="28"/>
     </row>
     <row r="10" spans="1:19" ht="12.75" customHeight="1">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" s="22"/>
-      <c r="E10" s="80" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="80" t="s">
+      <c r="E10" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="K10" s="81"/>
-      <c r="L10" s="81"/>
-      <c r="M10" s="81"/>
-      <c r="N10" s="81"/>
-      <c r="O10" s="81"/>
-      <c r="P10" s="81"/>
-      <c r="Q10" s="81"/>
-      <c r="R10" s="82"/>
-      <c r="S10" s="29"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="74"/>
+      <c r="R10" s="75"/>
+      <c r="S10" s="28"/>
     </row>
     <row r="11" spans="1:19" ht="12.75" customHeight="1">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="31">
+      <c r="D11" s="29"/>
+      <c r="E11" s="30">
         <v>1</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="30">
         <v>2</v>
       </c>
-      <c r="G11" s="31">
+      <c r="G11" s="30">
         <v>3</v>
       </c>
-      <c r="H11" s="31">
+      <c r="H11" s="30">
         <v>4</v>
       </c>
-      <c r="I11" s="31">
+      <c r="I11" s="30">
         <v>5</v>
       </c>
-      <c r="J11" s="31">
+      <c r="J11" s="30">
         <v>6</v>
       </c>
-      <c r="K11" s="31">
+      <c r="K11" s="30">
         <v>7</v>
       </c>
-      <c r="L11" s="31">
+      <c r="L11" s="30">
         <v>8</v>
       </c>
-      <c r="M11" s="31">
+      <c r="M11" s="30">
         <v>9</v>
       </c>
-      <c r="N11" s="31">
+      <c r="N11" s="30">
         <v>10</v>
       </c>
-      <c r="O11" s="31">
+      <c r="O11" s="30">
         <v>11</v>
       </c>
-      <c r="P11" s="31">
+      <c r="P11" s="30">
         <v>12</v>
       </c>
-      <c r="Q11" s="31">
+      <c r="Q11" s="30">
         <v>13</v>
       </c>
-      <c r="R11" s="31">
+      <c r="R11" s="30">
         <v>14</v>
       </c>
-      <c r="S11" s="29"/>
+      <c r="S11" s="28"/>
     </row>
     <row r="12" spans="1:19" ht="27" customHeight="1">
       <c r="A12" s="23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="32" t="s">
-        <v>42</v>
+      <c r="C12" s="31" t="s">
+        <v>43</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="33">
+        <v>44</v>
+      </c>
+      <c r="E12" s="32">
         <f>I5</f>
-        <v>45012</v>
-      </c>
-      <c r="F12" s="33">
+        <v>45030</v>
+      </c>
+      <c r="F12" s="32">
         <f t="shared" ref="F12:K12" si="0">E12+1</f>
-        <v>45013</v>
-      </c>
-      <c r="G12" s="33">
+        <v>45031</v>
+      </c>
+      <c r="G12" s="32">
         <f t="shared" si="0"/>
-        <v>45014</v>
-      </c>
-      <c r="H12" s="33">
+        <v>45032</v>
+      </c>
+      <c r="H12" s="32">
         <f t="shared" si="0"/>
-        <v>45015</v>
-      </c>
-      <c r="I12" s="33">
+        <v>45033</v>
+      </c>
+      <c r="I12" s="32">
         <f t="shared" si="0"/>
-        <v>45016</v>
-      </c>
-      <c r="J12" s="33">
+        <v>45034</v>
+      </c>
+      <c r="J12" s="32">
         <f t="shared" si="0"/>
-        <v>45017</v>
-      </c>
-      <c r="K12" s="33">
+        <v>45035</v>
+      </c>
+      <c r="K12" s="32">
         <f t="shared" si="0"/>
-        <v>45018</v>
-      </c>
-      <c r="L12" s="33">
+        <v>45036</v>
+      </c>
+      <c r="L12" s="32">
         <f>J12+2</f>
-        <v>45019</v>
-      </c>
-      <c r="M12" s="33">
+        <v>45037</v>
+      </c>
+      <c r="M12" s="32">
         <f t="shared" ref="M12:R12" si="1">L12+1</f>
-        <v>45020</v>
-      </c>
-      <c r="N12" s="33">
+        <v>45038</v>
+      </c>
+      <c r="N12" s="32">
         <f t="shared" si="1"/>
-        <v>45021</v>
-      </c>
-      <c r="O12" s="33">
+        <v>45039</v>
+      </c>
+      <c r="O12" s="32">
         <f t="shared" si="1"/>
-        <v>45022</v>
-      </c>
-      <c r="P12" s="33">
+        <v>45040</v>
+      </c>
+      <c r="P12" s="32">
         <f t="shared" si="1"/>
-        <v>45023</v>
-      </c>
-      <c r="Q12" s="33">
+        <v>45041</v>
+      </c>
+      <c r="Q12" s="32">
         <f t="shared" si="1"/>
-        <v>45024</v>
-      </c>
-      <c r="R12" s="33">
+        <v>45042</v>
+      </c>
+      <c r="R12" s="32">
         <f t="shared" si="1"/>
-        <v>45025</v>
-      </c>
-      <c r="S12" s="34"/>
+        <v>45043</v>
+      </c>
+      <c r="S12" s="33"/>
     </row>
     <row r="13" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A13" s="35">
+      <c r="A13" s="34">
         <v>1</v>
       </c>
-      <c r="B13" s="35">
+      <c r="B13" s="34">
         <v>8</v>
       </c>
-      <c r="C13" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="35">
+      <c r="C13" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="34">
         <v>5</v>
       </c>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="36"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="35"/>
     </row>
     <row r="14" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A14" s="35">
+      <c r="A14" s="34">
         <v>2</v>
       </c>
-      <c r="B14" s="35">
+      <c r="B14" s="34">
         <v>8</v>
       </c>
-      <c r="C14" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="35">
+      <c r="C14" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="34">
         <v>5</v>
       </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="36"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="35"/>
     </row>
     <row r="15" spans="1:19" ht="12.75" customHeight="1">
-      <c r="A15" s="35">
+      <c r="A15" s="34">
         <v>3</v>
       </c>
-      <c r="B15" s="35">
+      <c r="B15" s="34">
         <v>8</v>
       </c>
-      <c r="C15" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="35">
+      <c r="C15" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="34">
         <v>4</v>
       </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="36"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="35"/>
     </row>
     <row r="16" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="35"/>
-      <c r="S16" s="36"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="35"/>
     </row>
     <row r="17" spans="1:19" ht="12.75" customHeight="1">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="35"/>
-      <c r="S17" s="51"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="50"/>
     </row>
     <row r="18" spans="1:19" ht="12.75" customHeight="1">
       <c r="A18" s="14"/>
       <c r="B18" s="22"/>
-      <c r="C18" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="83">
+      <c r="C18" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="76">
         <f>SUM(D14:D17)</f>
         <v>9</v>
       </c>
-      <c r="E18" s="45">
+      <c r="E18" s="44">
         <f t="shared" ref="E18:K18" si="2">IF(COUNTA(E14:E16)&gt;0,SUM(E14:E16),D18)</f>
         <v>9</v>
       </c>
-      <c r="F18" s="45">
+      <c r="F18" s="44">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="G18" s="45">
+      <c r="G18" s="44">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="H18" s="45">
+      <c r="H18" s="44">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="I18" s="45">
+      <c r="I18" s="44">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="J18" s="45">
+      <c r="J18" s="44">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="K18" s="45">
+      <c r="K18" s="44">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="L18" s="45">
+      <c r="L18" s="44">
         <f>IF(COUNTA(L14:L16)&gt;0,SUM(L14:L16),J18)</f>
         <v>9</v>
       </c>
-      <c r="M18" s="45">
+      <c r="M18" s="44">
         <f t="shared" ref="M18:Q18" si="3">IF(COUNTA(M14:M16)&gt;0,SUM(M14:M16),L18)</f>
         <v>9</v>
       </c>
-      <c r="N18" s="45">
+      <c r="N18" s="44">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="O18" s="45">
+      <c r="O18" s="44">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="P18" s="45">
+      <c r="P18" s="44">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="Q18" s="45">
+      <c r="Q18" s="44">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="R18" s="45">
+      <c r="R18" s="44">
         <f>IF(COUNTA(R14:R16)&gt;0,SUM(R14:R16),N18)</f>
         <v>9</v>
       </c>
-      <c r="S18" s="29"/>
+      <c r="S18" s="28"/>
     </row>
     <row r="19" spans="1:19" ht="12.75" customHeight="1">
       <c r="A19" s="14"/>
       <c r="B19" s="22"/>
-      <c r="C19" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="84"/>
-      <c r="E19" s="46">
+      <c r="C19" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="77"/>
+      <c r="E19" s="45">
         <f t="shared" ref="E19:R19" si="4">FORECAST(E11,$R$24:$R$25,$N$24:$N$25)</f>
         <v>8.1</v>
       </c>
-      <c r="F19" s="46">
+      <c r="F19" s="45">
         <f t="shared" si="4"/>
         <v>7.2</v>
       </c>
-      <c r="G19" s="46">
+      <c r="G19" s="45">
         <f t="shared" si="4"/>
         <v>6.3</v>
       </c>
-      <c r="H19" s="46">
+      <c r="H19" s="45">
         <f t="shared" si="4"/>
         <v>5.4</v>
       </c>
-      <c r="I19" s="46">
+      <c r="I19" s="45">
         <f t="shared" si="4"/>
         <v>4.5</v>
       </c>
-      <c r="J19" s="46">
+      <c r="J19" s="45">
         <f t="shared" si="4"/>
         <v>3.5999999999999996</v>
       </c>
-      <c r="K19" s="46">
+      <c r="K19" s="45">
         <f t="shared" si="4"/>
         <v>2.7</v>
       </c>
-      <c r="L19" s="46">
+      <c r="L19" s="45">
         <f t="shared" si="4"/>
         <v>1.7999999999999998</v>
       </c>
-      <c r="M19" s="46">
+      <c r="M19" s="45">
         <f t="shared" si="4"/>
         <v>0.90000000000000036</v>
       </c>
-      <c r="N19" s="46">
+      <c r="N19" s="45">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O19" s="46">
+      <c r="O19" s="45">
         <f t="shared" si="4"/>
         <v>-0.90000000000000036</v>
       </c>
-      <c r="P19" s="46">
+      <c r="P19" s="45">
         <f t="shared" si="4"/>
         <v>-1.8000000000000007</v>
       </c>
-      <c r="Q19" s="46">
+      <c r="Q19" s="45">
         <f t="shared" si="4"/>
         <v>-2.7000000000000011</v>
       </c>
-      <c r="R19" s="46">
+      <c r="R19" s="45">
         <f t="shared" si="4"/>
         <v>-3.5999999999999996</v>
       </c>
-      <c r="S19" s="29"/>
+      <c r="S19" s="28"/>
     </row>
     <row r="20" spans="1:19" ht="12.75" customHeight="1">
       <c r="A20" s="14"/>
       <c r="B20" s="22"/>
-      <c r="C20" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="47"/>
-      <c r="E20" s="35">
+      <c r="C20" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="46"/>
+      <c r="E20" s="34">
         <f t="shared" ref="E20:K20" si="5">D18-E18</f>
         <v>0</v>
       </c>
-      <c r="F20" s="35">
+      <c r="F20" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G20" s="35">
+      <c r="G20" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H20" s="35">
+      <c r="H20" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I20" s="35">
+      <c r="I20" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J20" s="35">
+      <c r="J20" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K20" s="35">
+      <c r="K20" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L20" s="35">
+      <c r="L20" s="34">
         <f>J18-L18</f>
         <v>0</v>
       </c>
-      <c r="M20" s="35">
+      <c r="M20" s="34">
         <f t="shared" ref="M20:Q20" si="6">L18-M18</f>
         <v>0</v>
       </c>
-      <c r="N20" s="35">
+      <c r="N20" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O20" s="35">
+      <c r="O20" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P20" s="35">
+      <c r="P20" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="35">
+      <c r="Q20" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R20" s="35">
+      <c r="R20" s="34">
         <f>N18-R18</f>
         <v>0</v>
       </c>
-      <c r="S20" s="29"/>
+      <c r="S20" s="28"/>
     </row>
     <row r="21" spans="1:19" ht="12.75" customHeight="1">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
-      <c r="C21" s="27"/>
+      <c r="C21" s="26"/>
       <c r="D21" s="14"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="27"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
     </row>
     <row r="22" spans="1:19" ht="12.75" customHeight="1">
       <c r="A22" s="14"/>
@@ -40286,13 +40234,13 @@
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
       <c r="M24" s="14"/>
-      <c r="N24" s="48">
+      <c r="N24" s="47">
         <v>0</v>
       </c>
-      <c r="O24" s="48"/>
-      <c r="P24" s="48"/>
-      <c r="Q24" s="48"/>
-      <c r="R24" s="48">
+      <c r="O24" s="47"/>
+      <c r="P24" s="47"/>
+      <c r="Q24" s="47"/>
+      <c r="R24" s="47">
         <f>SUM(D14:D16)</f>
         <v>9</v>
       </c>
@@ -40311,13 +40259,13 @@
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
       <c r="M25" s="14"/>
-      <c r="N25" s="48">
+      <c r="N25" s="47">
         <v>10</v>
       </c>
-      <c r="O25" s="48"/>
-      <c r="P25" s="48"/>
-      <c r="Q25" s="48"/>
-      <c r="R25" s="48">
+      <c r="O25" s="47"/>
+      <c r="P25" s="47"/>
+      <c r="Q25" s="47"/>
+      <c r="R25" s="47">
         <v>0</v>
       </c>
     </row>
@@ -41330,155 +41278,155 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A1" s="53"/>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
+      <c r="A1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
     </row>
     <row r="2" spans="1:6" ht="39.75" customHeight="1">
-      <c r="A2" s="98" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
+      <c r="A2" s="90" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="80"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
     </row>
     <row r="3" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A3" s="53"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
     </row>
     <row r="4" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A4" s="53"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
     </row>
     <row r="5" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
     </row>
     <row r="6" spans="1:6" ht="63.75" customHeight="1">
-      <c r="A6" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
+      <c r="A6" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
     </row>
     <row r="7" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A7" s="53"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
     </row>
     <row r="8" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A8" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="58" t="str">
+      <c r="A8" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="57" t="str">
         <f>HYPERLINK("http://www.softhouse.se/Uploades/Scrum_eng_webb.pdf","Scrum in 5 minutes (PDF) from softhouse")</f>
         <v>Scrum in 5 minutes (PDF) from softhouse</v>
       </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
     </row>
     <row r="9" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A9" s="59"/>
-      <c r="B9" s="60" t="str">
+      <c r="A9" s="58"/>
+      <c r="B9" s="59" t="str">
         <f>HYPERLINK("http://media.agile42.com/content/Scrum_Cheat_Sheet.pdf","Scrum Cheat Sheet (PDF) from agile42")</f>
         <v>Scrum Cheat Sheet (PDF) from agile42</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
     </row>
     <row r="10" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A10" s="53"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
     </row>
     <row r="11" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A11" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="61" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
+      <c r="A11" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
     </row>
     <row r="12" spans="1:6" ht="38.25" customHeight="1">
-      <c r="A12" s="53"/>
-      <c r="B12" s="61" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
     </row>
     <row r="13" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A13" s="53"/>
-      <c r="B13" s="61" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
     </row>
     <row r="14" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A14" s="53"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
     </row>
     <row r="15" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A15" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
+      <c r="A15" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
     </row>
     <row r="16" spans="1:6" ht="25.5" customHeight="1">
       <c r="A16" s="14"/>
-      <c r="B16" s="54" t="s">
-        <v>65</v>
+      <c r="B16" s="53" t="s">
+        <v>67</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
@@ -41486,208 +41434,208 @@
       <c r="F16" s="14"/>
     </row>
     <row r="17" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A17" s="53"/>
-      <c r="B17" s="54" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
+      <c r="A17" s="52"/>
+      <c r="B17" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
     </row>
     <row r="18" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A18" s="53"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
     </row>
     <row r="19" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A19" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
+      <c r="A19" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
     </row>
     <row r="20" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A20" s="53"/>
-      <c r="B20" s="54" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
     </row>
     <row r="21" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A21" s="53"/>
-      <c r="B21" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
     </row>
     <row r="22" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A22" s="53"/>
-      <c r="B22" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
+      <c r="A22" s="52"/>
+      <c r="B22" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
     </row>
     <row r="23" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A23" s="53"/>
-      <c r="B23" s="63"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
     </row>
     <row r="24" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A24" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="B24" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
+      <c r="A24" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
     </row>
     <row r="25" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A25" s="53"/>
-      <c r="B25" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
+      <c r="A25" s="52"/>
+      <c r="B25" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
     </row>
     <row r="26" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A26" s="53"/>
-      <c r="B26" s="60" t="str">
+      <c r="A26" s="52"/>
+      <c r="B26" s="59" t="str">
         <f>HYPERLINK("mailto:olivier@gerardin.info?subject=Scrum%20Excel%20Helper%20Workbook","E-mail me: olivier@gerardin.info")</f>
         <v>E-mail me: olivier@gerardin.info</v>
       </c>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
     </row>
     <row r="27" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A27" s="53"/>
-      <c r="B27" s="60" t="str">
+      <c r="A27" s="52"/>
+      <c r="B27" s="59" t="str">
         <f>HYPERLINK("http://blog.gerardin.info/","My blog: blog.gerardin.info")</f>
         <v>My blog: blog.gerardin.info</v>
       </c>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
     </row>
     <row r="28" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A28" s="53"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
+      <c r="A28" s="52"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
     </row>
     <row r="29" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A29" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="B29" s="64" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
+      <c r="A29" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
     </row>
     <row r="30" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A30" s="53"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
+      <c r="A30" s="52"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
     </row>
     <row r="31" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A31" s="53"/>
-      <c r="B31" s="54"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
+      <c r="A31" s="52"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
     </row>
     <row r="32" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A32" s="53"/>
-      <c r="B32" s="54"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
+      <c r="A32" s="52"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
     </row>
     <row r="33" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A33" s="54"/>
+      <c r="A33" s="53"/>
       <c r="B33" s="14"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
     </row>
     <row r="34" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A34" s="54"/>
+      <c r="A34" s="53"/>
       <c r="B34" s="14"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
     </row>
     <row r="35" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A35" s="54"/>
+      <c r="A35" s="53"/>
       <c r="B35" s="14"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
     </row>
     <row r="36" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A36" s="54"/>
+      <c r="A36" s="53"/>
       <c r="B36" s="14"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
     </row>
     <row r="37" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A37" s="54"/>
+      <c r="A37" s="53"/>
       <c r="B37" s="14"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
     </row>
     <row r="38" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A38" s="53"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="54"/>
+      <c r="A38" s="52"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
     </row>
     <row r="39" spans="1:6" ht="12.75" customHeight="1"/>
     <row r="40" spans="1:6" ht="12.75" customHeight="1"/>

--- a/Scrum Sheet.xlsx
+++ b/Scrum Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Main_Project\Student-Performance-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E21374D-CF11-42CE-AE12-5BF0FA2BE68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05C1608-3F5E-4070-84A9-B53F4192866A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -867,7 +867,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="80">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -974,9 +974,6 @@
     <t>integrating the model into Department Management System web app</t>
   </si>
   <si>
-    <t>Department Management System</t>
-  </si>
-  <si>
     <t>Sprint #</t>
   </si>
   <si>
@@ -1020,9 +1017,6 @@
   </si>
   <si>
     <t>Velocity</t>
-  </si>
-  <si>
-    <t>Data Training</t>
   </si>
   <si>
     <t>familiarizing model</t>
@@ -1111,6 +1105,9 @@
   </si>
   <si>
     <t>Not Completed</t>
+  </si>
+  <si>
+    <t>Data Training</t>
   </si>
 </sst>
 </file>
@@ -1236,12 +1233,14 @@
     </font>
     <font>
       <sz val="14"/>
-      <name val="Arial"/>
+      <color theme="1"/>
+      <name val="Lato"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Lato"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1289,7 +1288,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1505,11 +1504,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1561,6 +1575,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1666,6 +1683,22 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1713,17 +1746,15 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1902,7 +1933,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6872-4EE5-8299-53C5848262DB}"/>
+              <c16:uniqueId val="{00000000-80B2-430B-A7E3-3AE3A19833BF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1973,7 +2004,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6872-4EE5-8299-53C5848262DB}"/>
+              <c16:uniqueId val="{00000001-80B2-430B-A7E3-3AE3A19833BF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1986,11 +2017,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1705383947"/>
-        <c:axId val="276443948"/>
+        <c:axId val="125387098"/>
+        <c:axId val="964995014"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1705383947"/>
+        <c:axId val="125387098"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2035,7 +2066,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="276443948"/>
+        <c:crossAx val="964995014"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2043,7 +2074,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="276443948"/>
+        <c:axId val="964995014"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2111,7 +2142,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1705383947"/>
+        <c:crossAx val="125387098"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2210,7 +2241,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1</c:v>
@@ -2227,7 +2258,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A61A-4E28-AF07-B07431957525}"/>
+              <c16:uniqueId val="{00000000-9C32-4AA1-8485-BFCC411EDA91}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2298,7 +2329,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A61A-4E28-AF07-B07431957525}"/>
+              <c16:uniqueId val="{00000001-9C32-4AA1-8485-BFCC411EDA91}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2311,11 +2342,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1167129717"/>
-        <c:axId val="872854805"/>
+        <c:axId val="1233699760"/>
+        <c:axId val="824926627"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1167129717"/>
+        <c:axId val="1233699760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2360,7 +2391,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="872854805"/>
+        <c:crossAx val="824926627"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2368,7 +2399,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="872854805"/>
+        <c:axId val="824926627"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2436,7 +2467,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1167129717"/>
+        <c:crossAx val="1233699760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2552,7 +2583,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-89C0-4E8A-AD0A-5347AB2E4CCB}"/>
+              <c16:uniqueId val="{00000000-F4C6-4B2E-AD15-EC8896407F3F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2623,7 +2654,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-89C0-4E8A-AD0A-5347AB2E4CCB}"/>
+              <c16:uniqueId val="{00000001-F4C6-4B2E-AD15-EC8896407F3F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2636,11 +2667,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2052426388"/>
-        <c:axId val="2010745366"/>
+        <c:axId val="1635802014"/>
+        <c:axId val="39797651"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2052426388"/>
+        <c:axId val="1635802014"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2685,7 +2716,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2010745366"/>
+        <c:crossAx val="39797651"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2693,7 +2724,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2010745366"/>
+        <c:axId val="39797651"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2761,7 +2792,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2052426388"/>
+        <c:crossAx val="1635802014"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2877,7 +2908,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5C5D-41A4-9584-4C46CCEF5AC2}"/>
+              <c16:uniqueId val="{00000000-DF88-4913-A247-82F5158815A5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2948,7 +2979,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5C5D-41A4-9584-4C46CCEF5AC2}"/>
+              <c16:uniqueId val="{00000001-DF88-4913-A247-82F5158815A5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2961,11 +2992,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1406862738"/>
-        <c:axId val="1292566077"/>
+        <c:axId val="586944890"/>
+        <c:axId val="616335535"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1406862738"/>
+        <c:axId val="586944890"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2985,7 +3016,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr/>
+                <a:endParaRPr lang="en-IN"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3010,7 +3041,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1292566077"/>
+        <c:crossAx val="616335535"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3018,7 +3049,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1292566077"/>
+        <c:axId val="616335535"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3058,7 +3089,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr/>
+                <a:endParaRPr lang="en-IN"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3086,7 +3117,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1406862738"/>
+        <c:crossAx val="586944890"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3202,7 +3233,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-465C-4C44-AFE9-05522F1DE676}"/>
+              <c16:uniqueId val="{00000000-AF21-40F2-BCBF-C2D1FE4579DB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3273,7 +3304,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-465C-4C44-AFE9-05522F1DE676}"/>
+              <c16:uniqueId val="{00000001-AF21-40F2-BCBF-C2D1FE4579DB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3286,11 +3317,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1145153771"/>
-        <c:axId val="186339356"/>
+        <c:axId val="387773175"/>
+        <c:axId val="356059240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1145153771"/>
+        <c:axId val="387773175"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3310,7 +3341,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr/>
+                <a:endParaRPr lang="en-IN"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3335,7 +3366,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="186339356"/>
+        <c:crossAx val="356059240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3343,7 +3374,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="186339356"/>
+        <c:axId val="356059240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3383,7 +3414,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr/>
+                <a:endParaRPr lang="en-IN"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3411,7 +3442,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1145153771"/>
+        <c:crossAx val="387773175"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3903,15 +3934,15 @@
   </sheetPr>
   <dimension ref="A1:Z1005"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
     <col min="5" max="5" width="26.109375" customWidth="1"/>
-    <col min="6" max="6" width="61.88671875" customWidth="1"/>
+    <col min="6" max="6" width="64.5546875" customWidth="1"/>
     <col min="7" max="7" width="19.88671875" customWidth="1"/>
     <col min="8" max="8" width="16.88671875" customWidth="1"/>
   </cols>
@@ -3945,17 +3976,17 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="66"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="73"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -3975,15 +4006,15 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A3" s="67"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="69"/>
+      <c r="A3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="76"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -4003,15 +4034,15 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A4" s="70"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="72"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="79"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -4229,7 +4260,7 @@
       <c r="F11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="69" t="s">
         <v>13</v>
       </c>
       <c r="H11" s="4" t="s">
@@ -4254,7 +4285,7 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1">
+    <row r="12" spans="1:26" ht="18" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="7">
@@ -4270,7 +4301,7 @@
         <v>17</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H12" s="5">
         <v>1</v>
@@ -4294,7 +4325,7 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1">
+    <row r="13" spans="1:26" ht="19.8" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="7">
@@ -4310,7 +4341,7 @@
         <v>18</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H13" s="5">
         <v>1</v>
@@ -4334,7 +4365,7 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1">
+    <row r="14" spans="1:26" ht="19.8" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="7">
@@ -4350,7 +4381,7 @@
         <v>21</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H14" s="5">
         <v>2</v>
@@ -4374,7 +4405,7 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1">
+    <row r="15" spans="1:26" ht="22.2" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="7">
@@ -4390,7 +4421,7 @@
         <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H15" s="5">
         <v>2</v>
@@ -4414,7 +4445,7 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1">
+    <row r="16" spans="1:26" ht="19.8" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="7">
@@ -4430,7 +4461,7 @@
         <v>25</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H16" s="5">
         <v>2</v>
@@ -4454,7 +4485,7 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1">
+    <row r="17" spans="1:26" ht="19.8" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="7">
@@ -4470,7 +4501,7 @@
         <v>28</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H17" s="5">
         <v>3</v>
@@ -4494,7 +4525,7 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1">
+    <row r="18" spans="1:26" ht="19.2" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="7">
@@ -4510,7 +4541,7 @@
         <v>31</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H18" s="5">
         <v>4</v>
@@ -4534,7 +4565,7 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1">
+    <row r="19" spans="1:26" ht="19.8" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="7">
@@ -4550,7 +4581,7 @@
         <v>34</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H19" s="5">
         <v>5</v>
@@ -4742,7 +4773,7 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:26" ht="17.399999999999999">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="7"/>
@@ -4770,7 +4801,7 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:26" ht="15.75" customHeight="1">
+    <row r="27" spans="1:26" ht="17.399999999999999">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="7"/>
@@ -4798,7 +4829,7 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" spans="1:26" ht="22.2">
+    <row r="28" spans="1:26" ht="17.399999999999999">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="7"/>
@@ -4826,7 +4857,7 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:26" ht="22.2">
+    <row r="29" spans="1:26" ht="17.399999999999999">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="7"/>
@@ -4854,7 +4885,7 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" spans="1:26" ht="22.2">
+    <row r="30" spans="1:26" ht="17.399999999999999">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="7"/>
@@ -4882,7 +4913,7 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" spans="1:26" ht="22.2">
+    <row r="31" spans="1:26" ht="17.399999999999999">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="7"/>
@@ -4910,7 +4941,7 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" spans="1:26" ht="22.2">
+    <row r="32" spans="1:26" ht="17.399999999999999">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="7"/>
@@ -4938,7 +4969,7 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" spans="1:26" ht="22.2">
+    <row r="33" spans="1:26" ht="17.399999999999999">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="2"/>
@@ -4966,7 +4997,7 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" spans="1:26" ht="22.2">
+    <row r="34" spans="1:26" ht="17.399999999999999">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="2"/>
@@ -4994,7 +5025,7 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" spans="1:26" ht="22.2">
+    <row r="35" spans="1:26" ht="17.399999999999999">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="2"/>
@@ -5022,7 +5053,7 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="1:26" ht="22.2">
+    <row r="36" spans="1:26" ht="17.399999999999999">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="2"/>
@@ -32187,11 +32218,12 @@
     <mergeCell ref="A2:I4"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G12:G19" xr:uid="{7DC6E1A2-3280-41D3-956E-0E77E922F344}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G12 G13:G19" xr:uid="{83FAB298-2D8D-4F4C-B948-ADB1E126ABC9}">
       <formula1>"Completed, Not Completed"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -32202,12 +32234,14 @@
   </sheetPr>
   <dimension ref="A1:S989"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:K4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="7.77734375" customWidth="1"/>
-    <col min="3" max="3" width="37.21875" customWidth="1"/>
+    <col min="3" max="3" width="62.6640625" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" customWidth="1"/>
     <col min="5" max="5" width="10.88671875" customWidth="1"/>
     <col min="6" max="6" width="10.21875" customWidth="1"/>
@@ -32243,28 +32277,28 @@
       <c r="R1" s="14"/>
     </row>
     <row r="2" spans="1:19" ht="43.5" customHeight="1">
-      <c r="A2" s="78" t="str">
+      <c r="A2" s="85" t="str">
         <f>CONCATENATE("Sprint #",D5,"Tracking Sheet")</f>
         <v>Sprint #1Tracking Sheet</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="80"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="86"/>
+      <c r="R2" s="86"/>
+      <c r="S2" s="87"/>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1">
       <c r="A3" s="14"/>
@@ -32292,16 +32326,16 @@
       <c r="C4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="81" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
+      <c r="D4" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
       <c r="L4" s="19"/>
       <c r="M4" s="20"/>
       <c r="N4" s="20"/>
@@ -32315,23 +32349,23 @@
       <c r="A5" s="14"/>
       <c r="B5" s="22"/>
       <c r="C5" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="89">
+        <v>1</v>
+      </c>
+      <c r="E5" s="82"/>
+      <c r="F5" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="82">
-        <v>1</v>
-      </c>
-      <c r="E5" s="75"/>
-      <c r="F5" s="83" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="74"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="85">
-        <v>44974</v>
-      </c>
-      <c r="J5" s="74"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="24"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="92">
+        <v>44956</v>
+      </c>
+      <c r="J5" s="81"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="25"/>
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -32343,19 +32377,19 @@
       <c r="A6" s="14"/>
       <c r="B6" s="22"/>
       <c r="C6" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="82" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="24"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="25"/>
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -32366,15 +32400,15 @@
     <row r="7" spans="1:19" ht="12.75" customHeight="1">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
       <c r="N7" s="14"/>
@@ -32386,7 +32420,7 @@
     <row r="8" spans="1:19" ht="13.5" customHeight="1">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
-      <c r="C8" s="27"/>
+      <c r="C8" s="28"/>
       <c r="D8" s="14"/>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
@@ -32406,569 +32440,569 @@
     <row r="9" spans="1:19" ht="12.75" customHeight="1">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
-      <c r="C9" s="27"/>
+      <c r="C9" s="28"/>
       <c r="D9" s="22"/>
-      <c r="E9" s="73" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="74"/>
-      <c r="N9" s="74"/>
-      <c r="O9" s="74"/>
-      <c r="P9" s="74"/>
-      <c r="Q9" s="74"/>
-      <c r="R9" s="75"/>
-      <c r="S9" s="28"/>
+      <c r="E9" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="81"/>
+      <c r="M9" s="81"/>
+      <c r="N9" s="81"/>
+      <c r="O9" s="81"/>
+      <c r="P9" s="81"/>
+      <c r="Q9" s="81"/>
+      <c r="R9" s="82"/>
+      <c r="S9" s="29"/>
     </row>
     <row r="10" spans="1:19" ht="12.75" customHeight="1">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" s="22"/>
-      <c r="E10" s="73" t="s">
+      <c r="E10" s="80" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="73" t="s">
-        <v>41</v>
-      </c>
-      <c r="M10" s="74"/>
-      <c r="N10" s="74"/>
-      <c r="O10" s="74"/>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="75"/>
-      <c r="S10" s="28"/>
+      <c r="M10" s="81"/>
+      <c r="N10" s="81"/>
+      <c r="O10" s="81"/>
+      <c r="P10" s="81"/>
+      <c r="Q10" s="81"/>
+      <c r="R10" s="82"/>
+      <c r="S10" s="29"/>
     </row>
     <row r="11" spans="1:19" ht="12.75" customHeight="1">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="30">
+      <c r="D11" s="30"/>
+      <c r="E11" s="31">
         <v>1</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="31">
         <v>2</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="31">
         <v>3</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="31">
         <v>4</v>
       </c>
-      <c r="I11" s="30">
+      <c r="I11" s="31">
         <v>5</v>
       </c>
-      <c r="J11" s="30">
+      <c r="J11" s="31">
         <v>6</v>
       </c>
-      <c r="K11" s="30">
+      <c r="K11" s="31">
         <v>7</v>
       </c>
-      <c r="L11" s="30">
+      <c r="L11" s="31">
         <v>8</v>
       </c>
-      <c r="M11" s="30">
+      <c r="M11" s="31">
         <v>9</v>
       </c>
-      <c r="N11" s="30">
+      <c r="N11" s="31">
         <v>10</v>
       </c>
-      <c r="O11" s="30">
+      <c r="O11" s="31">
         <v>11</v>
       </c>
-      <c r="P11" s="30">
+      <c r="P11" s="31">
         <v>12</v>
       </c>
-      <c r="Q11" s="30">
+      <c r="Q11" s="31">
         <v>13</v>
       </c>
-      <c r="R11" s="30">
+      <c r="R11" s="31">
         <v>14</v>
       </c>
-      <c r="S11" s="28"/>
+      <c r="S11" s="29"/>
     </row>
     <row r="12" spans="1:19" ht="27" customHeight="1">
       <c r="A12" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="32">
+      <c r="E12" s="33">
         <f>I5</f>
-        <v>44974</v>
-      </c>
-      <c r="F12" s="32">
+        <v>44956</v>
+      </c>
+      <c r="F12" s="33">
         <f t="shared" ref="F12:G12" si="0">E12+1</f>
-        <v>44975</v>
-      </c>
-      <c r="G12" s="32">
+        <v>44957</v>
+      </c>
+      <c r="G12" s="33">
         <f t="shared" si="0"/>
-        <v>44976</v>
-      </c>
-      <c r="H12" s="32">
+        <v>44958</v>
+      </c>
+      <c r="H12" s="33">
         <f t="shared" ref="H12:I12" si="1">G12+1</f>
-        <v>44977</v>
-      </c>
-      <c r="I12" s="32">
+        <v>44959</v>
+      </c>
+      <c r="I12" s="33">
         <f t="shared" si="1"/>
-        <v>44978</v>
-      </c>
-      <c r="J12" s="32">
+        <v>44960</v>
+      </c>
+      <c r="J12" s="33">
         <f>H12+2</f>
-        <v>44979</v>
-      </c>
-      <c r="K12" s="32">
+        <v>44961</v>
+      </c>
+      <c r="K12" s="33">
         <f>J12+1</f>
-        <v>44980</v>
-      </c>
-      <c r="L12" s="32">
+        <v>44962</v>
+      </c>
+      <c r="L12" s="33">
         <f>K12+1</f>
-        <v>44981</v>
-      </c>
-      <c r="M12" s="32">
+        <v>44963</v>
+      </c>
+      <c r="M12" s="33">
         <f>L12+1</f>
-        <v>44982</v>
-      </c>
-      <c r="N12" s="32">
+        <v>44964</v>
+      </c>
+      <c r="N12" s="33">
         <f t="shared" ref="N12:P12" si="2">M12+1</f>
-        <v>44983</v>
-      </c>
-      <c r="O12" s="32">
+        <v>44965</v>
+      </c>
+      <c r="O12" s="33">
         <f t="shared" si="2"/>
-        <v>44984</v>
-      </c>
-      <c r="P12" s="32">
+        <v>44966</v>
+      </c>
+      <c r="P12" s="33">
         <f t="shared" si="2"/>
-        <v>44985</v>
-      </c>
-      <c r="Q12" s="32">
+        <v>44967</v>
+      </c>
+      <c r="Q12" s="33">
         <f>O12+2</f>
-        <v>44986</v>
-      </c>
-      <c r="R12" s="32">
+        <v>44968</v>
+      </c>
+      <c r="R12" s="33">
         <f>Q12+1</f>
-        <v>44987</v>
-      </c>
-      <c r="S12" s="33"/>
+        <v>44969</v>
+      </c>
+      <c r="S12" s="34"/>
     </row>
     <row r="13" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A13" s="34">
+      <c r="A13" s="35">
         <v>1</v>
       </c>
-      <c r="B13" s="34">
+      <c r="B13" s="35">
         <v>1</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D13" s="35">
         <v>5</v>
       </c>
-      <c r="E13" s="34">
+      <c r="E13" s="35">
         <v>1</v>
       </c>
-      <c r="F13" s="34">
+      <c r="F13" s="35">
         <v>1</v>
       </c>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34">
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35">
         <v>2</v>
       </c>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34">
+      <c r="J13" s="35"/>
+      <c r="K13" s="35">
         <v>1</v>
       </c>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="36"/>
     </row>
     <row r="14" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A14" s="34">
+      <c r="A14" s="35">
         <v>2</v>
       </c>
-      <c r="B14" s="34">
+      <c r="B14" s="35">
         <v>1</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="35">
+        <v>2</v>
+      </c>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35">
+        <v>1</v>
+      </c>
+      <c r="I14" s="35">
+        <v>1</v>
+      </c>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="36"/>
+    </row>
+    <row r="15" spans="1:19" ht="25.5" customHeight="1">
+      <c r="A15" s="35">
+        <v>3</v>
+      </c>
+      <c r="B15" s="35">
+        <v>2</v>
+      </c>
+      <c r="C15" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="34">
+      <c r="D15" s="35">
+        <v>6</v>
+      </c>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35">
+        <v>1</v>
+      </c>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35">
+        <v>1</v>
+      </c>
+      <c r="M15" s="35">
+        <v>1</v>
+      </c>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35">
+        <v>1</v>
+      </c>
+      <c r="P15" s="35">
         <v>2</v>
       </c>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34">
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="36"/>
+    </row>
+    <row r="16" spans="1:19" ht="25.5" customHeight="1">
+      <c r="A16" s="35">
+        <v>4</v>
+      </c>
+      <c r="B16" s="35">
+        <v>2</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="35">
         <v>1</v>
       </c>
-      <c r="I14" s="34">
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35">
         <v>1</v>
       </c>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="35"/>
-    </row>
-    <row r="15" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A15" s="34">
-        <v>3</v>
-      </c>
-      <c r="B15" s="34">
-        <v>2</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="34">
-        <v>6</v>
-      </c>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34">
-        <v>1</v>
-      </c>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34">
-        <v>1</v>
-      </c>
-      <c r="M15" s="34">
-        <v>1</v>
-      </c>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34">
-        <v>1</v>
-      </c>
-      <c r="P15" s="34">
-        <v>2</v>
-      </c>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="35"/>
-    </row>
-    <row r="16" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A16" s="34">
-        <v>4</v>
-      </c>
-      <c r="B16" s="34">
-        <v>2</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="34">
-        <v>1</v>
-      </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34">
-        <v>1</v>
-      </c>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="34"/>
-      <c r="S16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="36"/>
     </row>
     <row r="17" spans="1:19" ht="12.75" customHeight="1">
-      <c r="A17" s="34"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="35"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="36"/>
     </row>
     <row r="18" spans="1:19" ht="12.75" customHeight="1">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="41"/>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="41"/>
-      <c r="R18" s="41"/>
-      <c r="S18" s="42"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="43"/>
     </row>
     <row r="19" spans="1:19" ht="12.75" customHeight="1">
       <c r="A19" s="14"/>
       <c r="B19" s="22"/>
-      <c r="C19" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="76">
+      <c r="C19" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="83">
         <f>SUM(D14:D17)</f>
         <v>9</v>
       </c>
-      <c r="E19" s="44">
+      <c r="E19" s="45">
         <f t="shared" ref="E19:I19" si="3">IF(COUNTA(E14:E17)&gt;0,SUM(E14:E17),D19)</f>
         <v>9</v>
       </c>
-      <c r="F19" s="44">
+      <c r="F19" s="45">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="G19" s="44">
+      <c r="G19" s="45">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="H19" s="44">
+      <c r="H19" s="45">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="I19" s="44">
+      <c r="I19" s="45">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J19" s="44">
+      <c r="J19" s="45">
         <f>IF(COUNTA(J14:J17)&gt;0,SUM(J14:J17),H19)</f>
         <v>2</v>
       </c>
-      <c r="K19" s="44">
+      <c r="K19" s="45">
         <f>IF(COUNTA(K14:K17)&gt;0,SUM(K14:K17),H19)</f>
         <v>2</v>
       </c>
-      <c r="L19" s="44">
+      <c r="L19" s="45">
         <f t="shared" ref="L19:P19" si="4">IF(COUNTA(L14:L17)&gt;0,SUM(L14:L17),K19)</f>
         <v>1</v>
       </c>
-      <c r="M19" s="44">
+      <c r="M19" s="45">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="N19" s="44">
+      <c r="N19" s="45">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="O19" s="44">
+      <c r="O19" s="45">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="P19" s="44">
+      <c r="P19" s="45">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="Q19" s="44">
+      <c r="Q19" s="45">
         <f>IF(COUNTA(Q14:Q17)&gt;0,SUM(Q14:Q17),O19)</f>
         <v>1</v>
       </c>
-      <c r="R19" s="44">
+      <c r="R19" s="45">
         <f>IF(COUNTA(R14:R17)&gt;0,SUM(R14:R17),O19)</f>
         <v>1</v>
       </c>
-      <c r="S19" s="28"/>
+      <c r="S19" s="29"/>
     </row>
     <row r="20" spans="1:19" ht="12.75" customHeight="1">
       <c r="A20" s="14"/>
       <c r="B20" s="22"/>
-      <c r="C20" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="77"/>
-      <c r="E20" s="45">
+      <c r="C20" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="84"/>
+      <c r="E20" s="46">
         <f t="shared" ref="E20:R20" si="5">FORECAST(E11,$R$25:$R$26,$O$25:$O$26)</f>
         <v>8.1</v>
       </c>
-      <c r="F20" s="45">
+      <c r="F20" s="46">
         <f t="shared" si="5"/>
         <v>7.2</v>
       </c>
-      <c r="G20" s="45">
+      <c r="G20" s="46">
         <f t="shared" si="5"/>
         <v>6.3</v>
       </c>
-      <c r="H20" s="45">
+      <c r="H20" s="46">
         <f t="shared" si="5"/>
         <v>5.4</v>
       </c>
-      <c r="I20" s="45">
+      <c r="I20" s="46">
         <f t="shared" si="5"/>
         <v>4.5</v>
       </c>
-      <c r="J20" s="45">
+      <c r="J20" s="46">
         <f t="shared" si="5"/>
         <v>3.5999999999999996</v>
       </c>
-      <c r="K20" s="45">
+      <c r="K20" s="46">
         <f t="shared" si="5"/>
         <v>2.7</v>
       </c>
-      <c r="L20" s="45">
+      <c r="L20" s="46">
         <f t="shared" si="5"/>
         <v>1.7999999999999998</v>
       </c>
-      <c r="M20" s="45">
+      <c r="M20" s="46">
         <f t="shared" si="5"/>
         <v>0.90000000000000036</v>
       </c>
-      <c r="N20" s="45">
+      <c r="N20" s="46">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O20" s="45">
+      <c r="O20" s="46">
         <f t="shared" si="5"/>
         <v>-0.90000000000000036</v>
       </c>
-      <c r="P20" s="45">
+      <c r="P20" s="46">
         <f t="shared" si="5"/>
         <v>-1.8000000000000007</v>
       </c>
-      <c r="Q20" s="45">
+      <c r="Q20" s="46">
         <f t="shared" si="5"/>
         <v>-2.7000000000000011</v>
       </c>
-      <c r="R20" s="45">
+      <c r="R20" s="46">
         <f t="shared" si="5"/>
         <v>-3.5999999999999996</v>
       </c>
-      <c r="S20" s="28"/>
+      <c r="S20" s="29"/>
     </row>
     <row r="21" spans="1:19" ht="12.75" customHeight="1">
       <c r="A21" s="14"/>
       <c r="B21" s="22"/>
-      <c r="C21" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="46"/>
-      <c r="E21" s="34">
+      <c r="C21" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="47"/>
+      <c r="E21" s="35">
         <f t="shared" ref="E21:I21" si="6">D19-E19</f>
         <v>0</v>
       </c>
-      <c r="F21" s="34">
+      <c r="F21" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G21" s="34">
+      <c r="G21" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H21" s="34">
+      <c r="H21" s="35">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="I21" s="34">
+      <c r="I21" s="35">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="J21" s="34">
+      <c r="J21" s="35">
         <f t="shared" ref="J21:K21" si="7">G19-J19</f>
         <v>7</v>
       </c>
-      <c r="K21" s="34">
+      <c r="K21" s="35">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L21" s="34">
+      <c r="L21" s="35">
         <f t="shared" ref="L21:P21" si="8">K19-L19</f>
         <v>1</v>
       </c>
-      <c r="M21" s="34">
+      <c r="M21" s="35">
         <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="N21" s="34">
+      <c r="N21" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O21" s="34">
+      <c r="O21" s="35">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="P21" s="34">
+      <c r="P21" s="35">
         <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="Q21" s="34">
+      <c r="Q21" s="35">
         <v>0</v>
       </c>
-      <c r="R21" s="34">
+      <c r="R21" s="35">
         <f>O19-R19</f>
         <v>0</v>
       </c>
-      <c r="S21" s="28"/>
+      <c r="S21" s="29"/>
     </row>
     <row r="22" spans="1:19" ht="12.75" customHeight="1">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
-      <c r="C22" s="26"/>
+      <c r="C22" s="27"/>
       <c r="D22" s="14"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="26"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
     </row>
     <row r="23" spans="1:19" ht="12.75" customHeight="1">
       <c r="A23" s="14"/>
@@ -33025,12 +33059,12 @@
       <c r="L25" s="14"/>
       <c r="M25" s="14"/>
       <c r="N25" s="14"/>
-      <c r="O25" s="47">
+      <c r="O25" s="48">
         <v>0</v>
       </c>
-      <c r="P25" s="47"/>
-      <c r="Q25" s="47"/>
-      <c r="R25" s="47">
+      <c r="P25" s="48"/>
+      <c r="Q25" s="48"/>
+      <c r="R25" s="48">
         <f>SUM(D14:D17)</f>
         <v>9</v>
       </c>
@@ -33050,12 +33084,12 @@
       <c r="L26" s="14"/>
       <c r="M26" s="14"/>
       <c r="N26" s="14"/>
-      <c r="O26" s="47">
+      <c r="O26" s="48">
         <v>10</v>
       </c>
-      <c r="P26" s="47"/>
-      <c r="Q26" s="47"/>
-      <c r="R26" s="47">
+      <c r="P26" s="48"/>
+      <c r="Q26" s="48"/>
+      <c r="R26" s="48">
         <v>0</v>
       </c>
     </row>
@@ -34057,12 +34091,14 @@
   </sheetPr>
   <dimension ref="A1:S988"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="7.77734375" customWidth="1"/>
-    <col min="3" max="3" width="34.77734375" customWidth="1"/>
+    <col min="3" max="3" width="58.109375" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" customWidth="1"/>
     <col min="5" max="5" width="10.88671875" customWidth="1"/>
     <col min="6" max="6" width="10.21875" customWidth="1"/>
@@ -34098,28 +34134,28 @@
       <c r="R1" s="14"/>
     </row>
     <row r="2" spans="1:19" ht="43.5" customHeight="1">
-      <c r="A2" s="78" t="str">
+      <c r="A2" s="85" t="str">
         <f>CONCATENATE("Sprint #",D5,"Tracking Sheet")</f>
         <v>Sprint #2Tracking Sheet</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="80"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="86"/>
+      <c r="R2" s="86"/>
+      <c r="S2" s="87"/>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1">
       <c r="A3" s="14"/>
@@ -34147,16 +34183,16 @@
       <c r="C4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="81" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
+      <c r="D4" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
       <c r="L4" s="19"/>
       <c r="M4" s="20"/>
       <c r="N4" s="20"/>
@@ -34170,23 +34206,23 @@
       <c r="A5" s="14"/>
       <c r="B5" s="22"/>
       <c r="C5" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="89">
+        <v>2</v>
+      </c>
+      <c r="E5" s="82"/>
+      <c r="F5" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="82">
-        <v>2</v>
-      </c>
-      <c r="E5" s="75"/>
-      <c r="F5" s="83" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="74"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="87">
-        <v>44988</v>
-      </c>
-      <c r="J5" s="74"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="24"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="94">
+        <v>44970</v>
+      </c>
+      <c r="J5" s="81"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="25"/>
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -34198,19 +34234,19 @@
       <c r="A6" s="14"/>
       <c r="B6" s="22"/>
       <c r="C6" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="82" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="24"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="25"/>
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -34221,15 +34257,15 @@
     <row r="7" spans="1:19" ht="12.75" customHeight="1">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
       <c r="N7" s="14"/>
@@ -34241,7 +34277,7 @@
     <row r="8" spans="1:19" ht="13.5" customHeight="1">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
-      <c r="C8" s="27"/>
+      <c r="C8" s="28"/>
       <c r="D8" s="14"/>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
@@ -34261,525 +34297,537 @@
     <row r="9" spans="1:19" ht="12.75" customHeight="1">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
-      <c r="C9" s="27"/>
+      <c r="C9" s="28"/>
       <c r="D9" s="22"/>
-      <c r="E9" s="73" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="74"/>
-      <c r="N9" s="74"/>
-      <c r="O9" s="74"/>
-      <c r="P9" s="74"/>
-      <c r="Q9" s="74"/>
-      <c r="R9" s="75"/>
-      <c r="S9" s="28"/>
+      <c r="E9" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="81"/>
+      <c r="M9" s="81"/>
+      <c r="N9" s="81"/>
+      <c r="O9" s="81"/>
+      <c r="P9" s="81"/>
+      <c r="Q9" s="81"/>
+      <c r="R9" s="82"/>
+      <c r="S9" s="29"/>
     </row>
     <row r="10" spans="1:19" ht="12.75" customHeight="1">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" s="22"/>
-      <c r="E10" s="73" t="s">
+      <c r="E10" s="80" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="73" t="s">
-        <v>41</v>
-      </c>
-      <c r="M10" s="74"/>
-      <c r="N10" s="74"/>
-      <c r="O10" s="74"/>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="75"/>
-      <c r="S10" s="28"/>
+      <c r="M10" s="81"/>
+      <c r="N10" s="81"/>
+      <c r="O10" s="81"/>
+      <c r="P10" s="81"/>
+      <c r="Q10" s="81"/>
+      <c r="R10" s="82"/>
+      <c r="S10" s="29"/>
     </row>
     <row r="11" spans="1:19" ht="12.75" customHeight="1">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="30">
+      <c r="D11" s="30"/>
+      <c r="E11" s="31">
         <v>1</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="31">
         <v>2</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="31">
         <v>3</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="31">
         <v>4</v>
       </c>
-      <c r="I11" s="30">
+      <c r="I11" s="31">
         <v>5</v>
       </c>
-      <c r="J11" s="30">
+      <c r="J11" s="31">
         <v>6</v>
       </c>
-      <c r="K11" s="30">
+      <c r="K11" s="31">
         <v>7</v>
       </c>
-      <c r="L11" s="30">
+      <c r="L11" s="31">
         <v>8</v>
       </c>
-      <c r="M11" s="30">
+      <c r="M11" s="31">
         <v>9</v>
       </c>
-      <c r="N11" s="30">
+      <c r="N11" s="31">
         <v>10</v>
       </c>
-      <c r="O11" s="30">
+      <c r="O11" s="31">
         <v>11</v>
       </c>
-      <c r="P11" s="30">
+      <c r="P11" s="31">
         <v>12</v>
       </c>
-      <c r="Q11" s="30">
+      <c r="Q11" s="31">
         <v>13</v>
       </c>
-      <c r="R11" s="30">
+      <c r="R11" s="31">
         <v>14</v>
       </c>
-      <c r="S11" s="28"/>
+      <c r="S11" s="29"/>
     </row>
     <row r="12" spans="1:19" ht="27" customHeight="1">
       <c r="A12" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="32">
+      <c r="E12" s="33">
         <f>I5</f>
-        <v>44988</v>
-      </c>
-      <c r="F12" s="32">
+        <v>44970</v>
+      </c>
+      <c r="F12" s="33">
         <f t="shared" ref="F12:I12" si="0">E12+1</f>
-        <v>44989</v>
-      </c>
-      <c r="G12" s="32">
+        <v>44971</v>
+      </c>
+      <c r="G12" s="33">
         <f t="shared" si="0"/>
-        <v>44990</v>
-      </c>
-      <c r="H12" s="32">
+        <v>44972</v>
+      </c>
+      <c r="H12" s="33">
         <f t="shared" si="0"/>
-        <v>44991</v>
-      </c>
-      <c r="I12" s="32">
+        <v>44973</v>
+      </c>
+      <c r="I12" s="33">
         <f t="shared" si="0"/>
-        <v>44992</v>
-      </c>
-      <c r="J12" s="32">
+        <v>44974</v>
+      </c>
+      <c r="J12" s="33">
         <f>H12+2</f>
-        <v>44993</v>
-      </c>
-      <c r="K12" s="32">
+        <v>44975</v>
+      </c>
+      <c r="K12" s="33">
         <f t="shared" ref="K12:L12" si="1">J12+1</f>
-        <v>44994</v>
-      </c>
-      <c r="L12" s="32">
+        <v>44976</v>
+      </c>
+      <c r="L12" s="33">
         <f t="shared" si="1"/>
-        <v>44995</v>
-      </c>
-      <c r="M12" s="32">
+        <v>44977</v>
+      </c>
+      <c r="M12" s="33">
         <f t="shared" ref="M12:P12" si="2">L12+1</f>
-        <v>44996</v>
-      </c>
-      <c r="N12" s="32">
+        <v>44978</v>
+      </c>
+      <c r="N12" s="33">
         <f t="shared" si="2"/>
-        <v>44997</v>
-      </c>
-      <c r="O12" s="32">
+        <v>44979</v>
+      </c>
+      <c r="O12" s="33">
         <f t="shared" si="2"/>
-        <v>44998</v>
-      </c>
-      <c r="P12" s="32">
+        <v>44980</v>
+      </c>
+      <c r="P12" s="33">
         <f t="shared" si="2"/>
-        <v>44999</v>
-      </c>
-      <c r="Q12" s="32">
+        <v>44981</v>
+      </c>
+      <c r="Q12" s="33">
         <f t="shared" ref="Q12:R12" si="3">P12+1</f>
-        <v>45000</v>
-      </c>
-      <c r="R12" s="32">
+        <v>44982</v>
+      </c>
+      <c r="R12" s="33">
         <f t="shared" si="3"/>
-        <v>45001</v>
-      </c>
-      <c r="S12" s="33"/>
+        <v>44983</v>
+      </c>
+      <c r="S12" s="34"/>
     </row>
     <row r="13" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A13" s="34">
+      <c r="A13" s="35">
         <v>1</v>
       </c>
-      <c r="B13" s="34">
+      <c r="B13" s="35">
         <v>3</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D13" s="35">
         <v>5</v>
       </c>
-      <c r="E13" s="34">
+      <c r="E13" s="35">
         <v>1</v>
       </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34">
+      <c r="F13" s="35"/>
+      <c r="G13" s="35">
         <v>1</v>
       </c>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35">
+        <v>1</v>
+      </c>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35">
+        <v>1</v>
+      </c>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="36"/>
     </row>
     <row r="14" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A14" s="34">
+      <c r="A14" s="35">
         <v>2</v>
       </c>
-      <c r="B14" s="34">
+      <c r="B14" s="35">
         <v>4</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="34">
+      <c r="D14" s="35">
         <v>3</v>
       </c>
-      <c r="E14" s="34">
+      <c r="E14" s="35">
         <v>1</v>
       </c>
-      <c r="F14" s="34">
+      <c r="F14" s="35">
         <v>1</v>
       </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35">
+        <v>1</v>
+      </c>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="36"/>
     </row>
     <row r="15" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A15" s="34">
+      <c r="A15" s="35">
         <v>3</v>
       </c>
-      <c r="B15" s="34">
+      <c r="B15" s="35">
         <v>5</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="34">
+      <c r="D15" s="35">
         <v>4</v>
       </c>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35">
+        <v>1</v>
+      </c>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35">
+        <v>1</v>
+      </c>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35">
+        <v>2</v>
+      </c>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="36"/>
     </row>
     <row r="16" spans="1:19" ht="12.75" customHeight="1">
-      <c r="A16" s="34"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="34"/>
-      <c r="S16" s="35"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="36"/>
     </row>
     <row r="17" spans="1:19" ht="12.75" customHeight="1">
-      <c r="A17" s="34"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="35"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="36"/>
     </row>
     <row r="18" spans="1:19" ht="12.75" customHeight="1">
       <c r="A18" s="14"/>
       <c r="B18" s="22"/>
-      <c r="C18" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="86">
+      <c r="C18" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="93">
         <f>SUM(D14:D17)</f>
         <v>7</v>
       </c>
-      <c r="E18" s="49">
+      <c r="E18" s="50">
         <f t="shared" ref="E18:I18" si="4">IF(COUNTA(E14:E16)&gt;0,SUM(E14:E16),D18)</f>
         <v>1</v>
       </c>
-      <c r="F18" s="49">
+      <c r="F18" s="50">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G18" s="49">
+      <c r="G18" s="50">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H18" s="49">
+      <c r="H18" s="50">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="I18" s="49">
+      <c r="I18" s="50">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J18" s="49">
+      <c r="J18" s="50">
         <f>IF(COUNTA(J14:J16)&gt;0,SUM(J14:J16),H18)</f>
         <v>1</v>
       </c>
-      <c r="K18" s="49">
+      <c r="K18" s="50">
         <f>IF(COUNTA(K14:K16)&gt;0,SUM(K14:K16),H18)</f>
         <v>1</v>
       </c>
-      <c r="L18" s="49">
+      <c r="L18" s="50">
         <f t="shared" ref="L18:O18" si="5">IF(COUNTA(L14:L16)&gt;0,SUM(L14:L16),K18)</f>
         <v>1</v>
       </c>
-      <c r="M18" s="49">
+      <c r="M18" s="50">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="N18" s="49">
+      <c r="N18" s="50">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O18" s="49">
+      <c r="O18" s="50">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="P18" s="49">
+        <v>2</v>
+      </c>
+      <c r="P18" s="50">
         <f>IF(COUNTA(P14:P16)&gt;0,SUM(P14:P16),N18)</f>
         <v>1</v>
       </c>
-      <c r="Q18" s="49">
+      <c r="Q18" s="50">
         <f>IF(COUNTA(Q14:Q16)&gt;0,SUM(Q14:Q16),P18)</f>
         <v>1</v>
       </c>
-      <c r="R18" s="49">
+      <c r="R18" s="50">
         <f>IF(COUNTA(R14:R16)&gt;0,SUM(R14:R16),P18)</f>
         <v>1</v>
       </c>
-      <c r="S18" s="28"/>
+      <c r="S18" s="29"/>
     </row>
     <row r="19" spans="1:19" ht="12.75" customHeight="1">
       <c r="A19" s="14"/>
       <c r="B19" s="22"/>
-      <c r="C19" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="77"/>
-      <c r="E19" s="45">
+      <c r="C19" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="84"/>
+      <c r="E19" s="46">
         <f t="shared" ref="E19:R19" si="6">FORECAST(E11,$R$24:$R$25,$P$24:$P$25)</f>
         <v>6.3</v>
       </c>
-      <c r="F19" s="45">
+      <c r="F19" s="46">
         <f t="shared" si="6"/>
         <v>5.6</v>
       </c>
-      <c r="G19" s="45">
+      <c r="G19" s="46">
         <f t="shared" si="6"/>
         <v>4.9000000000000004</v>
       </c>
-      <c r="H19" s="45">
+      <c r="H19" s="46">
         <f t="shared" si="6"/>
         <v>4.2</v>
       </c>
-      <c r="I19" s="45">
+      <c r="I19" s="46">
         <f t="shared" si="6"/>
         <v>3.5</v>
       </c>
-      <c r="J19" s="45">
+      <c r="J19" s="46">
         <f t="shared" si="6"/>
         <v>2.8000000000000007</v>
       </c>
-      <c r="K19" s="45">
+      <c r="K19" s="46">
         <f t="shared" si="6"/>
         <v>2.1000000000000005</v>
       </c>
-      <c r="L19" s="45">
+      <c r="L19" s="46">
         <f t="shared" si="6"/>
         <v>1.4000000000000004</v>
       </c>
-      <c r="M19" s="45">
+      <c r="M19" s="46">
         <f t="shared" si="6"/>
         <v>0.70000000000000018</v>
       </c>
-      <c r="N19" s="45">
+      <c r="N19" s="46">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O19" s="45">
+      <c r="O19" s="46">
         <f t="shared" si="6"/>
         <v>-0.69999999999999929</v>
       </c>
-      <c r="P19" s="45">
+      <c r="P19" s="46">
         <f t="shared" si="6"/>
         <v>-1.3999999999999986</v>
       </c>
-      <c r="Q19" s="45">
+      <c r="Q19" s="46">
         <f t="shared" si="6"/>
         <v>-2.0999999999999996</v>
       </c>
-      <c r="R19" s="45">
+      <c r="R19" s="46">
         <f t="shared" si="6"/>
         <v>-2.7999999999999989</v>
       </c>
-      <c r="S19" s="28"/>
+      <c r="S19" s="29"/>
     </row>
     <row r="20" spans="1:19" ht="12.75" customHeight="1">
       <c r="A20" s="14"/>
       <c r="B20" s="22"/>
-      <c r="C20" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="46"/>
-      <c r="E20" s="34">
+      <c r="C20" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="47"/>
+      <c r="E20" s="35">
         <f t="shared" ref="E20:I20" si="7">D18-E18</f>
         <v>6</v>
       </c>
-      <c r="F20" s="34">
+      <c r="F20" s="35">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G20" s="34">
+      <c r="G20" s="35">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H20" s="34">
+      <c r="H20" s="35">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I20" s="34">
+      <c r="I20" s="35">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J20" s="34">
+      <c r="J20" s="35">
         <f>H18-J18</f>
         <v>0</v>
       </c>
-      <c r="K20" s="34">
+      <c r="K20" s="35">
         <f>H18-K18</f>
         <v>0</v>
       </c>
-      <c r="L20" s="34">
+      <c r="L20" s="35">
         <f t="shared" ref="L20:O20" si="8">K18-L18</f>
         <v>0</v>
       </c>
-      <c r="M20" s="34">
+      <c r="M20" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N20" s="34">
+      <c r="N20" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O20" s="34">
+      <c r="O20" s="35">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P20" s="34">
+        <v>-1</v>
+      </c>
+      <c r="P20" s="35">
         <f>N18-P18</f>
         <v>0</v>
       </c>
-      <c r="Q20" s="34">
+      <c r="Q20" s="35">
         <f>P18-Q18</f>
         <v>0</v>
       </c>
-      <c r="R20" s="34">
+      <c r="R20" s="35">
         <f>P18-R18</f>
         <v>0</v>
       </c>
-      <c r="S20" s="28"/>
+      <c r="S20" s="29"/>
     </row>
     <row r="21" spans="1:19" ht="12.75" customHeight="1">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
-      <c r="C21" s="26"/>
+      <c r="C21" s="27"/>
       <c r="D21" s="14"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
     </row>
     <row r="22" spans="1:19" ht="12.75" customHeight="1">
       <c r="A22" s="14"/>
@@ -34836,12 +34884,12 @@
       <c r="L24" s="14"/>
       <c r="M24" s="14"/>
       <c r="N24" s="14"/>
-      <c r="O24" s="47"/>
-      <c r="P24" s="47">
+      <c r="O24" s="48"/>
+      <c r="P24" s="48">
         <v>0</v>
       </c>
-      <c r="Q24" s="47"/>
-      <c r="R24" s="47">
+      <c r="Q24" s="48"/>
+      <c r="R24" s="48">
         <f>SUM(D14:D16)</f>
         <v>7</v>
       </c>
@@ -34861,12 +34909,12 @@
       <c r="L25" s="14"/>
       <c r="M25" s="14"/>
       <c r="N25" s="14"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="47">
+      <c r="O25" s="48"/>
+      <c r="P25" s="48">
         <v>10</v>
       </c>
-      <c r="Q25" s="47"/>
-      <c r="R25" s="47">
+      <c r="Q25" s="48"/>
+      <c r="R25" s="48">
         <v>0</v>
       </c>
     </row>
@@ -35869,14 +35917,14 @@
   </sheetPr>
   <dimension ref="A1:S988"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="7.77734375" customWidth="1"/>
-    <col min="3" max="3" width="34.77734375" customWidth="1"/>
+    <col min="3" max="3" width="52.77734375" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" customWidth="1"/>
     <col min="5" max="5" width="10.88671875" customWidth="1"/>
     <col min="6" max="6" width="10.21875" customWidth="1"/>
@@ -35912,28 +35960,28 @@
       <c r="R1" s="14"/>
     </row>
     <row r="2" spans="1:19" ht="43.5" customHeight="1">
-      <c r="A2" s="91" t="str">
+      <c r="A2" s="96" t="str">
         <f>CONCATENATE("Sprint #",D5,"Tracking Sheet")</f>
         <v>Sprint #3Tracking Sheet</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="93"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="86"/>
+      <c r="R2" s="86"/>
+      <c r="S2" s="87"/>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1">
       <c r="A3" s="14"/>
@@ -35961,15 +36009,15 @@
       <c r="C4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="81" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
+      <c r="D4" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
       <c r="M4" s="20"/>
@@ -35984,22 +36032,22 @@
       <c r="A5" s="14"/>
       <c r="B5" s="22"/>
       <c r="C5" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="89">
+        <v>3</v>
+      </c>
+      <c r="E5" s="82"/>
+      <c r="F5" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="82">
-        <v>3</v>
-      </c>
-      <c r="E5" s="75"/>
-      <c r="F5" s="83" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="74"/>
-      <c r="H5" s="89">
-        <v>45002</v>
-      </c>
-      <c r="I5" s="74"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="24"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="97">
+        <v>44984</v>
+      </c>
+      <c r="I5" s="81"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="25"/>
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
@@ -36012,18 +36060,18 @@
       <c r="A6" s="14"/>
       <c r="B6" s="22"/>
       <c r="C6" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="82" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="24"/>
+        <v>37</v>
+      </c>
+      <c r="D6" s="89" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="25"/>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
@@ -36035,14 +36083,14 @@
     <row r="7" spans="1:19" ht="12.75" customHeight="1">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
@@ -36055,7 +36103,7 @@
     <row r="8" spans="1:19" ht="13.5" customHeight="1">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
-      <c r="C8" s="27"/>
+      <c r="C8" s="28"/>
       <c r="D8" s="14"/>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
@@ -36075,524 +36123,524 @@
     <row r="9" spans="1:19" ht="12.75" customHeight="1">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
-      <c r="C9" s="27"/>
+      <c r="C9" s="28"/>
       <c r="D9" s="22"/>
-      <c r="E9" s="73" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="74"/>
-      <c r="N9" s="74"/>
-      <c r="O9" s="74"/>
-      <c r="P9" s="74"/>
-      <c r="Q9" s="74"/>
-      <c r="R9" s="75"/>
-      <c r="S9" s="28"/>
+      <c r="E9" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="81"/>
+      <c r="M9" s="81"/>
+      <c r="N9" s="81"/>
+      <c r="O9" s="81"/>
+      <c r="P9" s="81"/>
+      <c r="Q9" s="81"/>
+      <c r="R9" s="82"/>
+      <c r="S9" s="29"/>
     </row>
     <row r="10" spans="1:19" ht="12.75" customHeight="1">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" s="22"/>
-      <c r="E10" s="73" t="s">
+      <c r="E10" s="80" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="88" t="s">
-        <v>41</v>
-      </c>
-      <c r="M10" s="74"/>
-      <c r="N10" s="74"/>
-      <c r="O10" s="74"/>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="75"/>
-      <c r="S10" s="28"/>
+      <c r="M10" s="81"/>
+      <c r="N10" s="81"/>
+      <c r="O10" s="81"/>
+      <c r="P10" s="81"/>
+      <c r="Q10" s="81"/>
+      <c r="R10" s="82"/>
+      <c r="S10" s="29"/>
     </row>
     <row r="11" spans="1:19" ht="12.75" customHeight="1">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="30">
+      <c r="D11" s="30"/>
+      <c r="E11" s="31">
         <v>1</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="31">
         <v>2</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="31">
         <v>3</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="31">
         <v>4</v>
       </c>
-      <c r="I11" s="30">
+      <c r="I11" s="31">
         <v>5</v>
       </c>
-      <c r="J11" s="30">
+      <c r="J11" s="31">
         <v>6</v>
       </c>
-      <c r="K11" s="30">
+      <c r="K11" s="31">
         <v>7</v>
       </c>
-      <c r="L11" s="30">
+      <c r="L11" s="31">
         <v>8</v>
       </c>
-      <c r="M11" s="30">
+      <c r="M11" s="31">
         <v>9</v>
       </c>
-      <c r="N11" s="30">
+      <c r="N11" s="31">
         <v>10</v>
       </c>
-      <c r="O11" s="30">
+      <c r="O11" s="31">
         <v>11</v>
       </c>
-      <c r="P11" s="30">
+      <c r="P11" s="31">
         <v>12</v>
       </c>
-      <c r="Q11" s="30">
+      <c r="Q11" s="31">
         <v>13</v>
       </c>
-      <c r="R11" s="30">
+      <c r="R11" s="31">
         <v>14</v>
       </c>
-      <c r="S11" s="28"/>
+      <c r="S11" s="29"/>
     </row>
     <row r="12" spans="1:19" ht="27" customHeight="1">
       <c r="A12" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="32">
-        <v>45002</v>
-      </c>
-      <c r="F12" s="32">
+      <c r="E12" s="33">
+        <v>44984</v>
+      </c>
+      <c r="F12" s="33">
         <f t="shared" ref="F12:H12" si="0">E12+1</f>
-        <v>45003</v>
-      </c>
-      <c r="G12" s="32">
+        <v>44985</v>
+      </c>
+      <c r="G12" s="33">
         <f t="shared" si="0"/>
-        <v>45004</v>
-      </c>
-      <c r="H12" s="32">
+        <v>44986</v>
+      </c>
+      <c r="H12" s="33">
         <f t="shared" si="0"/>
-        <v>45005</v>
-      </c>
-      <c r="I12" s="32">
+        <v>44987</v>
+      </c>
+      <c r="I12" s="33">
         <f>G12+2</f>
-        <v>45006</v>
-      </c>
-      <c r="J12" s="32">
+        <v>44988</v>
+      </c>
+      <c r="J12" s="33">
         <f t="shared" ref="J12:L12" si="1">I12+1</f>
-        <v>45007</v>
-      </c>
-      <c r="K12" s="32">
+        <v>44989</v>
+      </c>
+      <c r="K12" s="33">
         <f t="shared" si="1"/>
-        <v>45008</v>
-      </c>
-      <c r="L12" s="32">
+        <v>44990</v>
+      </c>
+      <c r="L12" s="33">
         <f t="shared" si="1"/>
-        <v>45009</v>
-      </c>
-      <c r="M12" s="32">
+        <v>44991</v>
+      </c>
+      <c r="M12" s="33">
         <f>K12+2</f>
-        <v>45010</v>
-      </c>
-      <c r="N12" s="32">
+        <v>44992</v>
+      </c>
+      <c r="N12" s="33">
         <f t="shared" ref="N12:O12" si="2">M12+1</f>
-        <v>45011</v>
-      </c>
-      <c r="O12" s="32">
+        <v>44993</v>
+      </c>
+      <c r="O12" s="33">
         <f t="shared" si="2"/>
-        <v>45012</v>
-      </c>
-      <c r="P12" s="32">
+        <v>44994</v>
+      </c>
+      <c r="P12" s="33">
         <f t="shared" ref="P12:R12" si="3">N12+2</f>
-        <v>45013</v>
-      </c>
-      <c r="Q12" s="32">
+        <v>44995</v>
+      </c>
+      <c r="Q12" s="33">
         <f t="shared" si="3"/>
-        <v>45014</v>
-      </c>
-      <c r="R12" s="32">
+        <v>44996</v>
+      </c>
+      <c r="R12" s="33">
         <f t="shared" si="3"/>
-        <v>45015</v>
-      </c>
-      <c r="S12" s="33"/>
+        <v>44997</v>
+      </c>
+      <c r="S12" s="34"/>
     </row>
     <row r="13" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A13" s="34">
+      <c r="A13" s="35">
         <v>1</v>
       </c>
-      <c r="B13" s="34">
+      <c r="B13" s="24">
         <v>6</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="34">
+      <c r="C13" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="65">
         <v>4</v>
       </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="36"/>
     </row>
     <row r="14" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A14" s="34">
+      <c r="A14" s="35">
         <v>2</v>
       </c>
-      <c r="B14" s="34">
+      <c r="B14" s="24">
         <v>6</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="34">
+      <c r="C14" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="65">
         <v>4</v>
       </c>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="35"/>
-    </row>
-    <row r="15" spans="1:19" ht="12.75" customHeight="1">
-      <c r="A15" s="34">
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="36"/>
+    </row>
+    <row r="15" spans="1:19" ht="22.2" customHeight="1">
+      <c r="A15" s="35">
         <v>3</v>
       </c>
-      <c r="B15" s="34">
+      <c r="B15" s="24">
         <v>6</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="34">
+      <c r="D15" s="65">
         <v>5</v>
       </c>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="36"/>
     </row>
     <row r="16" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A16" s="34">
+      <c r="A16" s="35">
         <v>4</v>
       </c>
-      <c r="B16" s="34">
+      <c r="B16" s="24">
         <v>6</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="34">
+      <c r="D16" s="65">
         <v>5</v>
       </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="34"/>
-      <c r="S16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="36"/>
     </row>
     <row r="17" spans="1:19" ht="12.75" customHeight="1">
-      <c r="A17" s="34"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="50"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="51"/>
     </row>
     <row r="18" spans="1:19" ht="12.75" customHeight="1">
       <c r="A18" s="14"/>
       <c r="B18" s="22"/>
-      <c r="C18" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="76">
+      <c r="C18" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="83">
         <f>SUM(D14:D17)</f>
         <v>14</v>
       </c>
-      <c r="E18" s="44">
+      <c r="E18" s="45">
         <f t="shared" ref="E18:H18" si="4">IF(COUNTA(E14:E16)&gt;0,SUM(E14:E16),D18)</f>
         <v>14</v>
       </c>
-      <c r="F18" s="44">
+      <c r="F18" s="45">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="G18" s="44">
+      <c r="G18" s="45">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="H18" s="44">
+      <c r="H18" s="45">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="I18" s="44">
+      <c r="I18" s="45">
         <f>IF(COUNTA(I14:I16)&gt;0,SUM(I14:I16),G18)</f>
         <v>14</v>
       </c>
-      <c r="J18" s="44">
+      <c r="J18" s="45">
         <f t="shared" ref="J18:L18" si="5">IF(COUNTA(J14:J16)&gt;0,SUM(J14:J16),I18)</f>
         <v>14</v>
       </c>
-      <c r="K18" s="44">
+      <c r="K18" s="45">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="L18" s="44">
+      <c r="L18" s="45">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="M18" s="44">
+      <c r="M18" s="45">
         <f>IF(COUNTA(M14:M16)&gt;0,SUM(M14:M16),K18)</f>
         <v>14</v>
       </c>
-      <c r="N18" s="44">
+      <c r="N18" s="45">
         <f t="shared" ref="N18:O18" si="6">IF(COUNTA(N14:N16)&gt;0,SUM(N14:N16),M18)</f>
         <v>14</v>
       </c>
-      <c r="O18" s="44">
+      <c r="O18" s="45">
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="P18" s="44">
+      <c r="P18" s="45">
         <f t="shared" ref="P18:R18" si="7">IF(COUNTA(P14:P16)&gt;0,SUM(P14:P16),N18)</f>
         <v>14</v>
       </c>
-      <c r="Q18" s="44">
+      <c r="Q18" s="45">
         <f t="shared" si="7"/>
         <v>14</v>
       </c>
-      <c r="R18" s="44">
+      <c r="R18" s="45">
         <f t="shared" si="7"/>
         <v>14</v>
       </c>
-      <c r="S18" s="28"/>
+      <c r="S18" s="29"/>
     </row>
     <row r="19" spans="1:19" ht="12.75" customHeight="1">
       <c r="A19" s="14"/>
       <c r="B19" s="22"/>
-      <c r="C19" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="77"/>
-      <c r="E19" s="45">
+      <c r="C19" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="84"/>
+      <c r="E19" s="46">
         <f t="shared" ref="E19:R19" si="8">FORECAST(E11,$R$24:$R$25,$P$24:$P$25)</f>
         <v>12.6</v>
       </c>
-      <c r="F19" s="45">
+      <c r="F19" s="46">
         <f t="shared" si="8"/>
         <v>11.2</v>
       </c>
-      <c r="G19" s="45">
+      <c r="G19" s="46">
         <f t="shared" si="8"/>
         <v>9.8000000000000007</v>
       </c>
-      <c r="H19" s="45">
+      <c r="H19" s="46">
         <f t="shared" si="8"/>
         <v>8.4</v>
       </c>
-      <c r="I19" s="45">
+      <c r="I19" s="46">
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="J19" s="45">
+      <c r="J19" s="46">
         <f t="shared" si="8"/>
         <v>5.6000000000000014</v>
       </c>
-      <c r="K19" s="45">
+      <c r="K19" s="46">
         <f t="shared" si="8"/>
         <v>4.2000000000000011</v>
       </c>
-      <c r="L19" s="45">
+      <c r="L19" s="46">
         <f t="shared" si="8"/>
         <v>2.8000000000000007</v>
       </c>
-      <c r="M19" s="45">
+      <c r="M19" s="46">
         <f t="shared" si="8"/>
         <v>1.4000000000000004</v>
       </c>
-      <c r="N19" s="45">
+      <c r="N19" s="46">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O19" s="45">
+      <c r="O19" s="46">
         <f t="shared" si="8"/>
         <v>-1.3999999999999986</v>
       </c>
-      <c r="P19" s="45">
+      <c r="P19" s="46">
         <f t="shared" si="8"/>
         <v>-2.7999999999999972</v>
       </c>
-      <c r="Q19" s="45">
+      <c r="Q19" s="46">
         <f t="shared" si="8"/>
         <v>-4.1999999999999993</v>
       </c>
-      <c r="R19" s="45">
+      <c r="R19" s="46">
         <f t="shared" si="8"/>
         <v>-5.5999999999999979</v>
       </c>
-      <c r="S19" s="28"/>
+      <c r="S19" s="29"/>
     </row>
     <row r="20" spans="1:19" ht="12.75" customHeight="1">
       <c r="A20" s="14"/>
       <c r="B20" s="22"/>
-      <c r="C20" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="46"/>
-      <c r="E20" s="34">
+      <c r="C20" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="47"/>
+      <c r="E20" s="35">
         <f t="shared" ref="E20:H20" si="9">D18-E18</f>
         <v>0</v>
       </c>
-      <c r="F20" s="34">
+      <c r="F20" s="35">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G20" s="34">
+      <c r="G20" s="35">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H20" s="34">
+      <c r="H20" s="35">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I20" s="34">
+      <c r="I20" s="35">
         <f>G18-I18</f>
         <v>0</v>
       </c>
-      <c r="J20" s="34">
+      <c r="J20" s="35">
         <f t="shared" ref="J20:L20" si="10">I18-J18</f>
         <v>0</v>
       </c>
-      <c r="K20" s="34">
+      <c r="K20" s="35">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L20" s="34">
+      <c r="L20" s="35">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M20" s="34">
+      <c r="M20" s="35">
         <f t="shared" ref="M20:R20" si="11">K18-M18</f>
         <v>0</v>
       </c>
-      <c r="N20" s="34">
+      <c r="N20" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O20" s="34">
+      <c r="O20" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="P20" s="34">
+      <c r="P20" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="34">
+      <c r="Q20" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="R20" s="34">
+      <c r="R20" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="S20" s="28"/>
+      <c r="S20" s="29"/>
     </row>
     <row r="21" spans="1:19" ht="12.75" customHeight="1">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
-      <c r="C21" s="26"/>
+      <c r="C21" s="27"/>
       <c r="D21" s="14"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
     </row>
     <row r="22" spans="1:19" ht="12.75" customHeight="1">
       <c r="A22" s="14"/>
@@ -36649,12 +36697,12 @@
       <c r="L24" s="14"/>
       <c r="M24" s="14"/>
       <c r="N24" s="14"/>
-      <c r="O24" s="47"/>
-      <c r="P24" s="47">
+      <c r="O24" s="48"/>
+      <c r="P24" s="48">
         <v>0</v>
       </c>
-      <c r="Q24" s="47"/>
-      <c r="R24" s="47">
+      <c r="Q24" s="48"/>
+      <c r="R24" s="48">
         <f>SUM(D14:D16)</f>
         <v>14</v>
       </c>
@@ -36674,12 +36722,12 @@
       <c r="L25" s="14"/>
       <c r="M25" s="14"/>
       <c r="N25" s="14"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="47">
+      <c r="O25" s="48"/>
+      <c r="P25" s="48">
         <v>10</v>
       </c>
-      <c r="Q25" s="47"/>
-      <c r="R25" s="47">
+      <c r="Q25" s="48"/>
+      <c r="R25" s="48">
         <v>0</v>
       </c>
     </row>
@@ -37682,7 +37730,9 @@
   </sheetPr>
   <dimension ref="A1:S987"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:J6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -37723,27 +37773,27 @@
       <c r="R1" s="14"/>
     </row>
     <row r="2" spans="1:19" ht="43.5" customHeight="1">
-      <c r="A2" s="78" t="str">
+      <c r="A2" s="85" t="str">
         <f>CONCATENATE("Sprint #",D5,"Tracking Sheet")</f>
         <v>Sprint #4Tracking Sheet</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="80"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="86"/>
+      <c r="R2" s="87"/>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1">
       <c r="A3" s="14"/>
@@ -37771,15 +37821,15 @@
       <c r="C4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="81" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
+      <c r="D4" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
       <c r="M4" s="20"/>
@@ -37794,22 +37844,22 @@
       <c r="A5" s="14"/>
       <c r="B5" s="22"/>
       <c r="C5" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="89">
+        <v>4</v>
+      </c>
+      <c r="E5" s="82"/>
+      <c r="F5" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="82">
-        <v>4</v>
-      </c>
-      <c r="E5" s="75"/>
-      <c r="F5" s="83" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="74"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="87">
-        <v>45016</v>
-      </c>
-      <c r="J5" s="75"/>
-      <c r="K5" s="24"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="94">
+        <v>44998</v>
+      </c>
+      <c r="J5" s="82"/>
+      <c r="K5" s="25"/>
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
@@ -37822,18 +37872,18 @@
       <c r="A6" s="14"/>
       <c r="B6" s="22"/>
       <c r="C6" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="82" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="24"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="25"/>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
@@ -37845,14 +37895,14 @@
     <row r="7" spans="1:19" ht="12.75" customHeight="1">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
@@ -37865,7 +37915,7 @@
     <row r="8" spans="1:19" ht="13.5" customHeight="1">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
-      <c r="C8" s="27"/>
+      <c r="C8" s="28"/>
       <c r="D8" s="14"/>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
@@ -37885,496 +37935,496 @@
     <row r="9" spans="1:19" ht="12.75" customHeight="1">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
-      <c r="C9" s="27"/>
+      <c r="C9" s="28"/>
       <c r="D9" s="22"/>
-      <c r="E9" s="73" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="74"/>
-      <c r="N9" s="74"/>
-      <c r="O9" s="74"/>
-      <c r="P9" s="74"/>
-      <c r="Q9" s="74"/>
-      <c r="R9" s="75"/>
-      <c r="S9" s="28"/>
+      <c r="E9" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="81"/>
+      <c r="M9" s="81"/>
+      <c r="N9" s="81"/>
+      <c r="O9" s="81"/>
+      <c r="P9" s="81"/>
+      <c r="Q9" s="81"/>
+      <c r="R9" s="82"/>
+      <c r="S9" s="29"/>
     </row>
     <row r="10" spans="1:19" ht="12.75" customHeight="1">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" s="22"/>
-      <c r="E10" s="73" t="s">
+      <c r="E10" s="80" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="88" t="s">
-        <v>41</v>
-      </c>
-      <c r="M10" s="74"/>
-      <c r="N10" s="74"/>
-      <c r="O10" s="74"/>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="75"/>
-      <c r="S10" s="28"/>
+      <c r="M10" s="81"/>
+      <c r="N10" s="81"/>
+      <c r="O10" s="81"/>
+      <c r="P10" s="81"/>
+      <c r="Q10" s="81"/>
+      <c r="R10" s="82"/>
+      <c r="S10" s="29"/>
     </row>
     <row r="11" spans="1:19" ht="12.75" customHeight="1">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="30">
+      <c r="D11" s="30"/>
+      <c r="E11" s="31">
         <v>1</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="31">
         <v>2</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="31">
         <v>3</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="31">
         <v>4</v>
       </c>
-      <c r="I11" s="30">
+      <c r="I11" s="31">
         <v>5</v>
       </c>
-      <c r="J11" s="30">
+      <c r="J11" s="31">
         <v>6</v>
       </c>
-      <c r="K11" s="30">
+      <c r="K11" s="31">
         <v>7</v>
       </c>
-      <c r="L11" s="30">
+      <c r="L11" s="31">
         <v>8</v>
       </c>
-      <c r="M11" s="30">
+      <c r="M11" s="31">
         <v>9</v>
       </c>
-      <c r="N11" s="30">
+      <c r="N11" s="31">
         <v>10</v>
       </c>
-      <c r="O11" s="30">
+      <c r="O11" s="31">
         <v>11</v>
       </c>
-      <c r="P11" s="30">
+      <c r="P11" s="31">
         <v>12</v>
       </c>
-      <c r="Q11" s="30">
+      <c r="Q11" s="31">
         <v>13</v>
       </c>
-      <c r="R11" s="30">
+      <c r="R11" s="31">
         <v>14</v>
       </c>
-      <c r="S11" s="28"/>
+      <c r="S11" s="29"/>
     </row>
     <row r="12" spans="1:19" ht="27" customHeight="1">
       <c r="A12" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="32">
+      <c r="E12" s="33">
         <f>I5</f>
-        <v>45016</v>
-      </c>
-      <c r="F12" s="32">
+        <v>44998</v>
+      </c>
+      <c r="F12" s="33">
         <f t="shared" ref="F12:I12" si="0">E12+1</f>
-        <v>45017</v>
-      </c>
-      <c r="G12" s="32">
+        <v>44999</v>
+      </c>
+      <c r="G12" s="33">
         <f t="shared" si="0"/>
-        <v>45018</v>
-      </c>
-      <c r="H12" s="32">
+        <v>45000</v>
+      </c>
+      <c r="H12" s="33">
         <f t="shared" si="0"/>
-        <v>45019</v>
-      </c>
-      <c r="I12" s="32">
+        <v>45001</v>
+      </c>
+      <c r="I12" s="33">
         <f t="shared" si="0"/>
-        <v>45020</v>
-      </c>
-      <c r="J12" s="32">
+        <v>45002</v>
+      </c>
+      <c r="J12" s="33">
         <f>H12+2</f>
-        <v>45021</v>
-      </c>
-      <c r="K12" s="32">
+        <v>45003</v>
+      </c>
+      <c r="K12" s="33">
         <f t="shared" ref="K12:L12" si="1">J12+1</f>
-        <v>45022</v>
-      </c>
-      <c r="L12" s="32">
+        <v>45004</v>
+      </c>
+      <c r="L12" s="33">
         <f t="shared" si="1"/>
-        <v>45023</v>
-      </c>
-      <c r="M12" s="32">
+        <v>45005</v>
+      </c>
+      <c r="M12" s="33">
         <f>K12+2</f>
-        <v>45024</v>
-      </c>
-      <c r="N12" s="32">
+        <v>45006</v>
+      </c>
+      <c r="N12" s="33">
         <f t="shared" ref="N12:Q12" si="2">M12+1</f>
-        <v>45025</v>
-      </c>
-      <c r="O12" s="32">
+        <v>45007</v>
+      </c>
+      <c r="O12" s="33">
         <f t="shared" si="2"/>
-        <v>45026</v>
-      </c>
-      <c r="P12" s="32">
+        <v>45008</v>
+      </c>
+      <c r="P12" s="33">
         <f t="shared" si="2"/>
-        <v>45027</v>
-      </c>
-      <c r="Q12" s="32">
+        <v>45009</v>
+      </c>
+      <c r="Q12" s="33">
         <f t="shared" si="2"/>
-        <v>45028</v>
-      </c>
-      <c r="R12" s="32">
+        <v>45010</v>
+      </c>
+      <c r="R12" s="33">
         <f>O12+3</f>
-        <v>45029</v>
-      </c>
-      <c r="S12" s="33"/>
-    </row>
-    <row r="13" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A13" s="34">
+        <v>45011</v>
+      </c>
+      <c r="S12" s="34"/>
+    </row>
+    <row r="13" spans="1:19" ht="33.6" customHeight="1">
+      <c r="A13" s="35">
         <v>1</v>
       </c>
-      <c r="B13" s="34">
+      <c r="B13" s="35">
         <v>7</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D13" s="35">
         <v>8</v>
       </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="36"/>
     </row>
     <row r="14" spans="1:19" ht="18" customHeight="1">
-      <c r="A14" s="34">
+      <c r="A14" s="35">
         <v>2</v>
       </c>
-      <c r="B14" s="34">
+      <c r="B14" s="35">
         <v>7</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="34">
+      <c r="D14" s="35">
         <v>8</v>
       </c>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="36"/>
     </row>
     <row r="15" spans="1:19" ht="31.5" customHeight="1">
-      <c r="A15" s="34">
+      <c r="A15" s="35">
         <v>3</v>
       </c>
-      <c r="B15" s="34">
+      <c r="B15" s="35">
         <v>7</v>
       </c>
-      <c r="C15" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="34">
+      <c r="C15" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="35">
         <v>4</v>
       </c>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="36"/>
     </row>
     <row r="16" spans="1:19" ht="12.75" customHeight="1">
-      <c r="A16" s="34"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="34"/>
-      <c r="S16" s="50"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="51"/>
     </row>
     <row r="17" spans="1:19" ht="12.75" customHeight="1">
       <c r="A17" s="14"/>
       <c r="B17" s="22"/>
-      <c r="C17" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="76">
+      <c r="C17" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="83">
         <f>SUM(D14:D16)</f>
         <v>12</v>
       </c>
-      <c r="E17" s="44">
+      <c r="E17" s="45">
         <f t="shared" ref="E17:I17" si="3">IF(COUNTA(E14:E15)&gt;0,SUM(E14:E15),D17)</f>
         <v>12</v>
       </c>
-      <c r="F17" s="44">
+      <c r="F17" s="45">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="G17" s="44">
+      <c r="G17" s="45">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="H17" s="44">
+      <c r="H17" s="45">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="I17" s="44">
+      <c r="I17" s="45">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="J17" s="44">
+      <c r="J17" s="45">
         <f>IF(COUNTA(J14:J15)&gt;0,SUM(J14:J15),H17)</f>
         <v>12</v>
       </c>
-      <c r="K17" s="44">
+      <c r="K17" s="45">
         <f t="shared" ref="K17:L17" si="4">IF(COUNTA(K14:K15)&gt;0,SUM(K14:K15),J17)</f>
         <v>12</v>
       </c>
-      <c r="L17" s="44">
+      <c r="L17" s="45">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="M17" s="44">
+      <c r="M17" s="45">
         <f>IF(COUNTA(M14:M15)&gt;0,SUM(M14:M15),K17)</f>
         <v>12</v>
       </c>
-      <c r="N17" s="44">
+      <c r="N17" s="45">
         <f t="shared" ref="N17:Q17" si="5">IF(COUNTA(N14:N15)&gt;0,SUM(N14:N15),M17)</f>
         <v>12</v>
       </c>
-      <c r="O17" s="44">
+      <c r="O17" s="45">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="P17" s="44">
+      <c r="P17" s="45">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="Q17" s="44">
+      <c r="Q17" s="45">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="R17" s="44">
+      <c r="R17" s="45">
         <f>IF(COUNTA(R14:R15)&gt;0,SUM(R14:R15),O17)</f>
         <v>12</v>
       </c>
-      <c r="S17" s="28"/>
+      <c r="S17" s="29"/>
     </row>
     <row r="18" spans="1:19" ht="12.75" customHeight="1">
       <c r="A18" s="14"/>
       <c r="B18" s="22"/>
-      <c r="C18" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="77"/>
-      <c r="E18" s="45">
+      <c r="C18" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="84"/>
+      <c r="E18" s="46">
         <f t="shared" ref="E18:R18" si="6">FORECAST(E11,$R$23:$R$24,$O$23:$O$24)</f>
         <v>10.8</v>
       </c>
-      <c r="F18" s="45">
+      <c r="F18" s="46">
         <f t="shared" si="6"/>
         <v>9.6</v>
       </c>
-      <c r="G18" s="45">
+      <c r="G18" s="46">
         <f t="shared" si="6"/>
         <v>8.4</v>
       </c>
-      <c r="H18" s="45">
+      <c r="H18" s="46">
         <f t="shared" si="6"/>
         <v>7.2</v>
       </c>
-      <c r="I18" s="45">
+      <c r="I18" s="46">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="J18" s="45">
+      <c r="J18" s="46">
         <f t="shared" si="6"/>
         <v>4.8000000000000007</v>
       </c>
-      <c r="K18" s="45">
+      <c r="K18" s="46">
         <f t="shared" si="6"/>
         <v>3.5999999999999996</v>
       </c>
-      <c r="L18" s="45">
+      <c r="L18" s="46">
         <f t="shared" si="6"/>
         <v>2.4000000000000004</v>
       </c>
-      <c r="M18" s="45">
+      <c r="M18" s="46">
         <f t="shared" si="6"/>
         <v>1.2000000000000011</v>
       </c>
-      <c r="N18" s="45">
+      <c r="N18" s="46">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O18" s="45">
+      <c r="O18" s="46">
         <f t="shared" si="6"/>
         <v>-1.1999999999999993</v>
       </c>
-      <c r="P18" s="45">
+      <c r="P18" s="46">
         <f t="shared" si="6"/>
         <v>-2.3999999999999986</v>
       </c>
-      <c r="Q18" s="45">
+      <c r="Q18" s="46">
         <f t="shared" si="6"/>
         <v>-3.5999999999999996</v>
       </c>
-      <c r="R18" s="45">
+      <c r="R18" s="46">
         <f t="shared" si="6"/>
         <v>-4.8000000000000007</v>
       </c>
-      <c r="S18" s="28"/>
+      <c r="S18" s="29"/>
     </row>
     <row r="19" spans="1:19" ht="12.75" customHeight="1">
       <c r="A19" s="14"/>
       <c r="B19" s="22"/>
-      <c r="C19" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="46"/>
-      <c r="E19" s="34">
+      <c r="C19" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="47"/>
+      <c r="E19" s="35">
         <f t="shared" ref="E19:I19" si="7">D17-E17</f>
         <v>0</v>
       </c>
-      <c r="F19" s="34">
+      <c r="F19" s="35">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G19" s="34">
+      <c r="G19" s="35">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H19" s="34">
+      <c r="H19" s="35">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I19" s="34">
+      <c r="I19" s="35">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J19" s="34">
+      <c r="J19" s="35">
         <f>H17-J17</f>
         <v>0</v>
       </c>
-      <c r="K19" s="34">
+      <c r="K19" s="35">
         <f t="shared" ref="K19:L19" si="8">J17-K17</f>
         <v>0</v>
       </c>
-      <c r="L19" s="34">
+      <c r="L19" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M19" s="34">
+      <c r="M19" s="35">
         <f>K17-M17</f>
         <v>0</v>
       </c>
-      <c r="N19" s="34">
+      <c r="N19" s="35">
         <f t="shared" ref="N19:Q19" si="9">M17-N17</f>
         <v>0</v>
       </c>
-      <c r="O19" s="34">
+      <c r="O19" s="35">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="P19" s="34">
+      <c r="P19" s="35">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="34">
+      <c r="Q19" s="35">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R19" s="34">
+      <c r="R19" s="35">
         <f>O17-R17</f>
         <v>0</v>
       </c>
-      <c r="S19" s="28"/>
+      <c r="S19" s="29"/>
     </row>
     <row r="20" spans="1:19" ht="12.75" customHeight="1">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
-      <c r="C20" s="26"/>
+      <c r="C20" s="27"/>
       <c r="D20" s="14"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
     </row>
     <row r="21" spans="1:19" ht="12.75" customHeight="1">
       <c r="A21" s="14"/>
@@ -38431,12 +38481,12 @@
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>
       <c r="N23" s="14"/>
-      <c r="O23" s="47">
+      <c r="O23" s="48">
         <v>0</v>
       </c>
-      <c r="P23" s="47"/>
-      <c r="Q23" s="47"/>
-      <c r="R23" s="47">
+      <c r="P23" s="48"/>
+      <c r="Q23" s="48"/>
+      <c r="R23" s="48">
         <f>SUM(D14:D15)</f>
         <v>12</v>
       </c>
@@ -38456,12 +38506,12 @@
       <c r="L24" s="14"/>
       <c r="M24" s="14"/>
       <c r="N24" s="14"/>
-      <c r="O24" s="47">
+      <c r="O24" s="48">
         <v>10</v>
       </c>
-      <c r="P24" s="47"/>
-      <c r="Q24" s="47"/>
-      <c r="R24" s="47">
+      <c r="P24" s="48"/>
+      <c r="Q24" s="48"/>
+      <c r="R24" s="48">
         <v>0</v>
       </c>
     </row>
@@ -39464,7 +39514,9 @@
   </sheetPr>
   <dimension ref="A1:S988"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:I4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -39505,28 +39557,28 @@
       <c r="R1" s="14"/>
     </row>
     <row r="2" spans="1:19" ht="43.5" customHeight="1">
-      <c r="A2" s="78" t="str">
+      <c r="A2" s="85" t="str">
         <f>CONCATENATE("Sprint #",D5,"Tracking Sheet")</f>
         <v>Sprint #5Tracking Sheet</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="80"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="86"/>
+      <c r="R2" s="86"/>
+      <c r="S2" s="87"/>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1">
       <c r="A3" s="14"/>
@@ -39554,14 +39606,14 @@
       <c r="C4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="81" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
+      <c r="D4" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="20"/>
@@ -39577,21 +39629,21 @@
       <c r="A5" s="14"/>
       <c r="B5" s="22"/>
       <c r="C5" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="89">
+        <v>5</v>
+      </c>
+      <c r="E5" s="82"/>
+      <c r="F5" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="82">
-        <v>5</v>
-      </c>
-      <c r="E5" s="75"/>
-      <c r="F5" s="83" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="74"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="51">
-        <v>45030</v>
-      </c>
-      <c r="J5" s="24"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="52">
+        <v>45012</v>
+      </c>
+      <c r="J5" s="25"/>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
@@ -39605,17 +39657,17 @@
       <c r="A6" s="14"/>
       <c r="B6" s="22"/>
       <c r="C6" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="82" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="24"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="25"/>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
@@ -39628,13 +39680,13 @@
     <row r="7" spans="1:19" ht="12.75" customHeight="1">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
@@ -39648,7 +39700,7 @@
     <row r="8" spans="1:19" ht="13.5" customHeight="1">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
-      <c r="C8" s="27"/>
+      <c r="C8" s="28"/>
       <c r="D8" s="14"/>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
@@ -39668,517 +39720,517 @@
     <row r="9" spans="1:19" ht="12.75" customHeight="1">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
-      <c r="C9" s="27"/>
+      <c r="C9" s="28"/>
       <c r="D9" s="22"/>
-      <c r="E9" s="73" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="74"/>
-      <c r="N9" s="74"/>
-      <c r="O9" s="74"/>
-      <c r="P9" s="74"/>
-      <c r="Q9" s="74"/>
-      <c r="R9" s="75"/>
-      <c r="S9" s="28"/>
+      <c r="E9" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="81"/>
+      <c r="M9" s="81"/>
+      <c r="N9" s="81"/>
+      <c r="O9" s="81"/>
+      <c r="P9" s="81"/>
+      <c r="Q9" s="81"/>
+      <c r="R9" s="82"/>
+      <c r="S9" s="29"/>
     </row>
     <row r="10" spans="1:19" ht="12.75" customHeight="1">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" s="22"/>
-      <c r="E10" s="73" t="s">
+      <c r="E10" s="80" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="73" t="s">
-        <v>41</v>
-      </c>
-      <c r="K10" s="74"/>
-      <c r="L10" s="74"/>
-      <c r="M10" s="74"/>
-      <c r="N10" s="74"/>
-      <c r="O10" s="74"/>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="75"/>
-      <c r="S10" s="28"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="81"/>
+      <c r="M10" s="81"/>
+      <c r="N10" s="81"/>
+      <c r="O10" s="81"/>
+      <c r="P10" s="81"/>
+      <c r="Q10" s="81"/>
+      <c r="R10" s="82"/>
+      <c r="S10" s="29"/>
     </row>
     <row r="11" spans="1:19" ht="12.75" customHeight="1">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="30">
+      <c r="D11" s="30"/>
+      <c r="E11" s="31">
         <v>1</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="31">
         <v>2</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="31">
         <v>3</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="31">
         <v>4</v>
       </c>
-      <c r="I11" s="30">
+      <c r="I11" s="31">
         <v>5</v>
       </c>
-      <c r="J11" s="30">
+      <c r="J11" s="31">
         <v>6</v>
       </c>
-      <c r="K11" s="30">
+      <c r="K11" s="31">
         <v>7</v>
       </c>
-      <c r="L11" s="30">
+      <c r="L11" s="31">
         <v>8</v>
       </c>
-      <c r="M11" s="30">
+      <c r="M11" s="31">
         <v>9</v>
       </c>
-      <c r="N11" s="30">
+      <c r="N11" s="31">
         <v>10</v>
       </c>
-      <c r="O11" s="30">
+      <c r="O11" s="31">
         <v>11</v>
       </c>
-      <c r="P11" s="30">
+      <c r="P11" s="31">
         <v>12</v>
       </c>
-      <c r="Q11" s="30">
+      <c r="Q11" s="31">
         <v>13</v>
       </c>
-      <c r="R11" s="30">
+      <c r="R11" s="31">
         <v>14</v>
       </c>
-      <c r="S11" s="28"/>
+      <c r="S11" s="29"/>
     </row>
     <row r="12" spans="1:19" ht="27" customHeight="1">
       <c r="A12" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="32">
+      <c r="E12" s="33">
         <f>I5</f>
-        <v>45030</v>
-      </c>
-      <c r="F12" s="32">
+        <v>45012</v>
+      </c>
+      <c r="F12" s="33">
         <f t="shared" ref="F12:K12" si="0">E12+1</f>
-        <v>45031</v>
-      </c>
-      <c r="G12" s="32">
+        <v>45013</v>
+      </c>
+      <c r="G12" s="33">
         <f t="shared" si="0"/>
-        <v>45032</v>
-      </c>
-      <c r="H12" s="32">
+        <v>45014</v>
+      </c>
+      <c r="H12" s="33">
         <f t="shared" si="0"/>
-        <v>45033</v>
-      </c>
-      <c r="I12" s="32">
+        <v>45015</v>
+      </c>
+      <c r="I12" s="33">
         <f t="shared" si="0"/>
-        <v>45034</v>
-      </c>
-      <c r="J12" s="32">
+        <v>45016</v>
+      </c>
+      <c r="J12" s="33">
         <f t="shared" si="0"/>
-        <v>45035</v>
-      </c>
-      <c r="K12" s="32">
+        <v>45017</v>
+      </c>
+      <c r="K12" s="33">
         <f t="shared" si="0"/>
-        <v>45036</v>
-      </c>
-      <c r="L12" s="32">
+        <v>45018</v>
+      </c>
+      <c r="L12" s="33">
         <f>J12+2</f>
-        <v>45037</v>
-      </c>
-      <c r="M12" s="32">
+        <v>45019</v>
+      </c>
+      <c r="M12" s="33">
         <f t="shared" ref="M12:R12" si="1">L12+1</f>
-        <v>45038</v>
-      </c>
-      <c r="N12" s="32">
+        <v>45020</v>
+      </c>
+      <c r="N12" s="33">
         <f t="shared" si="1"/>
-        <v>45039</v>
-      </c>
-      <c r="O12" s="32">
+        <v>45021</v>
+      </c>
+      <c r="O12" s="33">
         <f t="shared" si="1"/>
-        <v>45040</v>
-      </c>
-      <c r="P12" s="32">
+        <v>45022</v>
+      </c>
+      <c r="P12" s="33">
         <f t="shared" si="1"/>
-        <v>45041</v>
-      </c>
-      <c r="Q12" s="32">
+        <v>45023</v>
+      </c>
+      <c r="Q12" s="33">
         <f t="shared" si="1"/>
-        <v>45042</v>
-      </c>
-      <c r="R12" s="32">
+        <v>45024</v>
+      </c>
+      <c r="R12" s="33">
         <f t="shared" si="1"/>
-        <v>45043</v>
-      </c>
-      <c r="S12" s="33"/>
+        <v>45025</v>
+      </c>
+      <c r="S12" s="34"/>
     </row>
     <row r="13" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A13" s="34">
+      <c r="A13" s="35">
         <v>1</v>
       </c>
-      <c r="B13" s="34">
+      <c r="B13" s="35">
         <v>8</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="35">
+        <v>5</v>
+      </c>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="36"/>
+    </row>
+    <row r="14" spans="1:19" ht="25.5" customHeight="1">
+      <c r="A14" s="35">
+        <v>2</v>
+      </c>
+      <c r="B14" s="35">
+        <v>8</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="35">
+        <v>5</v>
+      </c>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="36"/>
+    </row>
+    <row r="15" spans="1:19" ht="12.75" customHeight="1">
+      <c r="A15" s="35">
+        <v>3</v>
+      </c>
+      <c r="B15" s="35">
+        <v>8</v>
+      </c>
+      <c r="C15" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="34">
-        <v>5</v>
-      </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="35"/>
-    </row>
-    <row r="14" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A14" s="34">
-        <v>2</v>
-      </c>
-      <c r="B14" s="34">
-        <v>8</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="34">
-        <v>5</v>
-      </c>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="35"/>
-    </row>
-    <row r="15" spans="1:19" ht="12.75" customHeight="1">
-      <c r="A15" s="34">
-        <v>3</v>
-      </c>
-      <c r="B15" s="34">
-        <v>8</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="34">
+      <c r="D15" s="35">
         <v>4</v>
       </c>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="36"/>
     </row>
     <row r="16" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A16" s="34"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="34"/>
-      <c r="S16" s="35"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="36"/>
     </row>
     <row r="17" spans="1:19" ht="12.75" customHeight="1">
-      <c r="A17" s="34"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="50"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="51"/>
     </row>
     <row r="18" spans="1:19" ht="12.75" customHeight="1">
       <c r="A18" s="14"/>
       <c r="B18" s="22"/>
-      <c r="C18" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="76">
+      <c r="C18" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="83">
         <f>SUM(D14:D17)</f>
         <v>9</v>
       </c>
-      <c r="E18" s="44">
+      <c r="E18" s="45">
         <f t="shared" ref="E18:K18" si="2">IF(COUNTA(E14:E16)&gt;0,SUM(E14:E16),D18)</f>
         <v>9</v>
       </c>
-      <c r="F18" s="44">
+      <c r="F18" s="45">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="G18" s="44">
+      <c r="G18" s="45">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="H18" s="44">
+      <c r="H18" s="45">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="I18" s="44">
+      <c r="I18" s="45">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="J18" s="44">
+      <c r="J18" s="45">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="K18" s="44">
+      <c r="K18" s="45">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="L18" s="44">
+      <c r="L18" s="45">
         <f>IF(COUNTA(L14:L16)&gt;0,SUM(L14:L16),J18)</f>
         <v>9</v>
       </c>
-      <c r="M18" s="44">
+      <c r="M18" s="45">
         <f t="shared" ref="M18:Q18" si="3">IF(COUNTA(M14:M16)&gt;0,SUM(M14:M16),L18)</f>
         <v>9</v>
       </c>
-      <c r="N18" s="44">
+      <c r="N18" s="45">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="O18" s="44">
+      <c r="O18" s="45">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="P18" s="44">
+      <c r="P18" s="45">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="Q18" s="44">
+      <c r="Q18" s="45">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="R18" s="44">
+      <c r="R18" s="45">
         <f>IF(COUNTA(R14:R16)&gt;0,SUM(R14:R16),N18)</f>
         <v>9</v>
       </c>
-      <c r="S18" s="28"/>
+      <c r="S18" s="29"/>
     </row>
     <row r="19" spans="1:19" ht="12.75" customHeight="1">
       <c r="A19" s="14"/>
       <c r="B19" s="22"/>
-      <c r="C19" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="77"/>
-      <c r="E19" s="45">
+      <c r="C19" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="84"/>
+      <c r="E19" s="46">
         <f t="shared" ref="E19:R19" si="4">FORECAST(E11,$R$24:$R$25,$N$24:$N$25)</f>
         <v>8.1</v>
       </c>
-      <c r="F19" s="45">
+      <c r="F19" s="46">
         <f t="shared" si="4"/>
         <v>7.2</v>
       </c>
-      <c r="G19" s="45">
+      <c r="G19" s="46">
         <f t="shared" si="4"/>
         <v>6.3</v>
       </c>
-      <c r="H19" s="45">
+      <c r="H19" s="46">
         <f t="shared" si="4"/>
         <v>5.4</v>
       </c>
-      <c r="I19" s="45">
+      <c r="I19" s="46">
         <f t="shared" si="4"/>
         <v>4.5</v>
       </c>
-      <c r="J19" s="45">
+      <c r="J19" s="46">
         <f t="shared" si="4"/>
         <v>3.5999999999999996</v>
       </c>
-      <c r="K19" s="45">
+      <c r="K19" s="46">
         <f t="shared" si="4"/>
         <v>2.7</v>
       </c>
-      <c r="L19" s="45">
+      <c r="L19" s="46">
         <f t="shared" si="4"/>
         <v>1.7999999999999998</v>
       </c>
-      <c r="M19" s="45">
+      <c r="M19" s="46">
         <f t="shared" si="4"/>
         <v>0.90000000000000036</v>
       </c>
-      <c r="N19" s="45">
+      <c r="N19" s="46">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O19" s="45">
+      <c r="O19" s="46">
         <f t="shared" si="4"/>
         <v>-0.90000000000000036</v>
       </c>
-      <c r="P19" s="45">
+      <c r="P19" s="46">
         <f t="shared" si="4"/>
         <v>-1.8000000000000007</v>
       </c>
-      <c r="Q19" s="45">
+      <c r="Q19" s="46">
         <f t="shared" si="4"/>
         <v>-2.7000000000000011</v>
       </c>
-      <c r="R19" s="45">
+      <c r="R19" s="46">
         <f t="shared" si="4"/>
         <v>-3.5999999999999996</v>
       </c>
-      <c r="S19" s="28"/>
+      <c r="S19" s="29"/>
     </row>
     <row r="20" spans="1:19" ht="12.75" customHeight="1">
       <c r="A20" s="14"/>
       <c r="B20" s="22"/>
-      <c r="C20" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="46"/>
-      <c r="E20" s="34">
+      <c r="C20" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="47"/>
+      <c r="E20" s="35">
         <f t="shared" ref="E20:K20" si="5">D18-E18</f>
         <v>0</v>
       </c>
-      <c r="F20" s="34">
+      <c r="F20" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G20" s="34">
+      <c r="G20" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H20" s="34">
+      <c r="H20" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I20" s="34">
+      <c r="I20" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J20" s="34">
+      <c r="J20" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K20" s="34">
+      <c r="K20" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L20" s="34">
+      <c r="L20" s="35">
         <f>J18-L18</f>
         <v>0</v>
       </c>
-      <c r="M20" s="34">
+      <c r="M20" s="35">
         <f t="shared" ref="M20:Q20" si="6">L18-M18</f>
         <v>0</v>
       </c>
-      <c r="N20" s="34">
+      <c r="N20" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O20" s="34">
+      <c r="O20" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P20" s="34">
+      <c r="P20" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="34">
+      <c r="Q20" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R20" s="34">
+      <c r="R20" s="35">
         <f>N18-R18</f>
         <v>0</v>
       </c>
-      <c r="S20" s="28"/>
+      <c r="S20" s="29"/>
     </row>
     <row r="21" spans="1:19" ht="12.75" customHeight="1">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
-      <c r="C21" s="26"/>
+      <c r="C21" s="27"/>
       <c r="D21" s="14"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
     </row>
     <row r="22" spans="1:19" ht="12.75" customHeight="1">
       <c r="A22" s="14"/>
@@ -40234,13 +40286,13 @@
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
       <c r="M24" s="14"/>
-      <c r="N24" s="47">
+      <c r="N24" s="48">
         <v>0</v>
       </c>
-      <c r="O24" s="47"/>
-      <c r="P24" s="47"/>
-      <c r="Q24" s="47"/>
-      <c r="R24" s="47">
+      <c r="O24" s="48"/>
+      <c r="P24" s="48"/>
+      <c r="Q24" s="48"/>
+      <c r="R24" s="48">
         <f>SUM(D14:D16)</f>
         <v>9</v>
       </c>
@@ -40259,13 +40311,13 @@
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
       <c r="M25" s="14"/>
-      <c r="N25" s="47">
+      <c r="N25" s="48">
         <v>10</v>
       </c>
-      <c r="O25" s="47"/>
-      <c r="P25" s="47"/>
-      <c r="Q25" s="47"/>
-      <c r="R25" s="47">
+      <c r="O25" s="48"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="48"/>
+      <c r="R25" s="48">
         <v>0</v>
       </c>
     </row>
@@ -41278,155 +41330,155 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A1" s="52"/>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
+      <c r="A1" s="53"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
     </row>
     <row r="2" spans="1:6" ht="39.75" customHeight="1">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="98" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="87"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A3" s="53"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A4" s="53"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A5" s="53"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+    </row>
+    <row r="6" spans="1:6" ht="63.75" customHeight="1">
+      <c r="A6" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-    </row>
-    <row r="3" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A3" s="52"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-    </row>
-    <row r="4" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A4" s="52"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-    </row>
-    <row r="5" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A5" s="52"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-    </row>
-    <row r="6" spans="1:6" ht="63.75" customHeight="1">
-      <c r="A6" s="52" t="s">
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+    </row>
+    <row r="7" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A7" s="53"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+    </row>
+    <row r="8" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A8" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-    </row>
-    <row r="7" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A7" s="52"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-    </row>
-    <row r="8" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A8" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="57" t="str">
+      <c r="B8" s="58" t="str">
         <f>HYPERLINK("http://www.softhouse.se/Uploades/Scrum_eng_webb.pdf","Scrum in 5 minutes (PDF) from softhouse")</f>
         <v>Scrum in 5 minutes (PDF) from softhouse</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
     </row>
     <row r="9" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A9" s="58"/>
-      <c r="B9" s="59" t="str">
+      <c r="A9" s="59"/>
+      <c r="B9" s="60" t="str">
         <f>HYPERLINK("http://media.agile42.com/content/Scrum_Cheat_Sheet.pdf","Scrum Cheat Sheet (PDF) from agile42")</f>
         <v>Scrum Cheat Sheet (PDF) from agile42</v>
       </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
     </row>
     <row r="10" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A10" s="52"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
     </row>
     <row r="11" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+    </row>
+    <row r="12" spans="1:6" ht="38.25" customHeight="1">
+      <c r="A12" s="53"/>
+      <c r="B12" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="60" t="s">
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+    </row>
+    <row r="13" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A13" s="53"/>
+      <c r="B13" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-    </row>
-    <row r="12" spans="1:6" ht="38.25" customHeight="1">
-      <c r="A12" s="52"/>
-      <c r="B12" s="60" t="s">
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A14" s="53"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+    </row>
+    <row r="15" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A15" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-    </row>
-    <row r="13" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A13" s="52"/>
-      <c r="B13" s="60" t="s">
+      <c r="B15" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-    </row>
-    <row r="14" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A14" s="52"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-    </row>
-    <row r="15" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A15" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="61" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
     </row>
     <row r="16" spans="1:6" ht="25.5" customHeight="1">
       <c r="A16" s="14"/>
-      <c r="B16" s="53" t="s">
-        <v>67</v>
+      <c r="B16" s="54" t="s">
+        <v>65</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
@@ -41434,208 +41486,208 @@
       <c r="F16" s="14"/>
     </row>
     <row r="17" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A17" s="52"/>
-      <c r="B17" s="53" t="s">
+      <c r="A17" s="53"/>
+      <c r="B17" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+    </row>
+    <row r="18" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A18" s="53"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+    </row>
+    <row r="19" spans="1:6" ht="25.5" customHeight="1">
+      <c r="A19" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-    </row>
-    <row r="18" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A18" s="52"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-    </row>
-    <row r="19" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A19" s="52" t="s">
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+    </row>
+    <row r="20" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A20" s="53"/>
+      <c r="B20" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="53" t="s">
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+    </row>
+    <row r="21" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A21" s="53"/>
+      <c r="B21" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-    </row>
-    <row r="20" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A20" s="52"/>
-      <c r="B20" s="53" t="s">
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+    </row>
+    <row r="22" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A22" s="53"/>
+      <c r="B22" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-    </row>
-    <row r="21" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A21" s="52"/>
-      <c r="B21" s="53" t="s">
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+    </row>
+    <row r="23" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A23" s="53"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+    </row>
+    <row r="24" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A24" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-    </row>
-    <row r="22" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A22" s="52"/>
-      <c r="B22" s="62" t="s">
+      <c r="B24" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-    </row>
-    <row r="23" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A23" s="52"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-    </row>
-    <row r="24" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A24" s="52" t="s">
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+    </row>
+    <row r="25" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A25" s="53"/>
+      <c r="B25" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="B24" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-    </row>
-    <row r="25" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A25" s="52"/>
-      <c r="B25" s="53" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
     </row>
     <row r="26" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A26" s="52"/>
-      <c r="B26" s="59" t="str">
+      <c r="A26" s="53"/>
+      <c r="B26" s="60" t="str">
         <f>HYPERLINK("mailto:olivier@gerardin.info?subject=Scrum%20Excel%20Helper%20Workbook","E-mail me: olivier@gerardin.info")</f>
         <v>E-mail me: olivier@gerardin.info</v>
       </c>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
     </row>
     <row r="27" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A27" s="52"/>
-      <c r="B27" s="59" t="str">
+      <c r="A27" s="53"/>
+      <c r="B27" s="60" t="str">
         <f>HYPERLINK("http://blog.gerardin.info/","My blog: blog.gerardin.info")</f>
         <v>My blog: blog.gerardin.info</v>
       </c>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
     </row>
     <row r="28" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A28" s="52"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
     </row>
     <row r="29" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A29" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="B29" s="63" t="s">
-        <v>78</v>
-      </c>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
+      <c r="A29" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
     </row>
     <row r="30" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A30" s="52"/>
-      <c r="B30" s="53"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
+      <c r="A30" s="53"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
     </row>
     <row r="31" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A31" s="52"/>
-      <c r="B31" s="53"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
+      <c r="A31" s="53"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
     </row>
     <row r="32" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A32" s="52"/>
-      <c r="B32" s="53"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
+      <c r="A32" s="53"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
     </row>
     <row r="33" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A33" s="53"/>
+      <c r="A33" s="54"/>
       <c r="B33" s="14"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
     </row>
     <row r="34" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A34" s="53"/>
+      <c r="A34" s="54"/>
       <c r="B34" s="14"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="54"/>
     </row>
     <row r="35" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A35" s="53"/>
+      <c r="A35" s="54"/>
       <c r="B35" s="14"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54"/>
     </row>
     <row r="36" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A36" s="53"/>
+      <c r="A36" s="54"/>
       <c r="B36" s="14"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54"/>
     </row>
     <row r="37" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A37" s="53"/>
+      <c r="A37" s="54"/>
       <c r="B37" s="14"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
     </row>
     <row r="38" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A38" s="52"/>
-      <c r="B38" s="53"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53"/>
+      <c r="A38" s="53"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54"/>
     </row>
     <row r="39" spans="1:6" ht="12.75" customHeight="1"/>
     <row r="40" spans="1:6" ht="12.75" customHeight="1"/>

--- a/Scrum Sheet.xlsx
+++ b/Scrum Sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Main_Project\Student-Performance-Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\S8 CSA\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05C1608-3F5E-4070-84A9-B53F4192866A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F77CF6-07D6-458A-9C50-C853E3DA50BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -867,7 +867,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="81">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -974,6 +974,9 @@
     <t>integrating the model into Department Management System web app</t>
   </si>
   <si>
+    <t>Department Management System</t>
+  </si>
+  <si>
     <t>Sprint #</t>
   </si>
   <si>
@@ -1017,6 +1020,9 @@
   </si>
   <si>
     <t>Velocity</t>
+  </si>
+  <si>
+    <t>Data Training</t>
   </si>
   <si>
     <t>familiarizing model</t>
@@ -1106,9 +1112,6 @@
   <si>
     <t>Not Completed</t>
   </si>
-  <si>
-    <t>Data Training</t>
-  </si>
 </sst>
 </file>
 
@@ -1119,7 +1122,7 @@
     <numFmt numFmtId="165" formatCode="ddd\ dd/mm"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1232,15 +1235,19 @@
       <name val="-webkit-monospace"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Lato"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Lato"/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1288,7 +1295,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1504,26 +1511,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1575,9 +1567,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1683,22 +1672,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1746,15 +1719,20 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1933,7 +1911,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-80B2-430B-A7E3-3AE3A19833BF}"/>
+              <c16:uniqueId val="{00000000-81C2-4BDF-8304-998213589CB2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2004,7 +1982,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-80B2-430B-A7E3-3AE3A19833BF}"/>
+              <c16:uniqueId val="{00000001-81C2-4BDF-8304-998213589CB2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2017,11 +1995,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="125387098"/>
-        <c:axId val="964995014"/>
+        <c:axId val="985780488"/>
+        <c:axId val="950433812"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="125387098"/>
+        <c:axId val="985780488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2066,7 +2044,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="964995014"/>
+        <c:crossAx val="950433812"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2074,7 +2052,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="964995014"/>
+        <c:axId val="950433812"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2142,7 +2120,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125387098"/>
+        <c:crossAx val="985780488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2241,7 +2219,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1</c:v>
@@ -2258,7 +2236,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9C32-4AA1-8485-BFCC411EDA91}"/>
+              <c16:uniqueId val="{00000000-3010-415E-B609-D6BA75083437}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2329,7 +2307,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9C32-4AA1-8485-BFCC411EDA91}"/>
+              <c16:uniqueId val="{00000001-3010-415E-B609-D6BA75083437}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2342,11 +2320,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1233699760"/>
-        <c:axId val="824926627"/>
+        <c:axId val="1085942610"/>
+        <c:axId val="1425955642"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1233699760"/>
+        <c:axId val="1085942610"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2391,7 +2369,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="824926627"/>
+        <c:crossAx val="1425955642"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2399,7 +2377,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="824926627"/>
+        <c:axId val="1425955642"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2467,7 +2445,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1233699760"/>
+        <c:crossAx val="1085942610"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2583,7 +2561,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F4C6-4B2E-AD15-EC8896407F3F}"/>
+              <c16:uniqueId val="{00000000-64CF-44EC-AC65-164E63000C99}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2654,7 +2632,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F4C6-4B2E-AD15-EC8896407F3F}"/>
+              <c16:uniqueId val="{00000001-64CF-44EC-AC65-164E63000C99}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2667,11 +2645,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1635802014"/>
-        <c:axId val="39797651"/>
+        <c:axId val="690433833"/>
+        <c:axId val="1628071720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1635802014"/>
+        <c:axId val="690433833"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2716,7 +2694,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39797651"/>
+        <c:crossAx val="1628071720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2724,7 +2702,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39797651"/>
+        <c:axId val="1628071720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2792,7 +2770,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1635802014"/>
+        <c:crossAx val="690433833"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2908,7 +2886,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DF88-4913-A247-82F5158815A5}"/>
+              <c16:uniqueId val="{00000000-E316-43B9-9E97-49D84FEAC149}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2979,7 +2957,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DF88-4913-A247-82F5158815A5}"/>
+              <c16:uniqueId val="{00000001-E316-43B9-9E97-49D84FEAC149}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2992,11 +2970,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="586944890"/>
-        <c:axId val="616335535"/>
+        <c:axId val="330267945"/>
+        <c:axId val="1868846798"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="586944890"/>
+        <c:axId val="330267945"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3041,7 +3019,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616335535"/>
+        <c:crossAx val="1868846798"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3049,7 +3027,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="616335535"/>
+        <c:axId val="1868846798"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3117,7 +3095,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="586944890"/>
+        <c:crossAx val="330267945"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3233,7 +3211,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AF21-40F2-BCBF-C2D1FE4579DB}"/>
+              <c16:uniqueId val="{00000000-2E35-49E3-8F56-87CFE32A9F01}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3304,7 +3282,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AF21-40F2-BCBF-C2D1FE4579DB}"/>
+              <c16:uniqueId val="{00000001-2E35-49E3-8F56-87CFE32A9F01}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3317,11 +3295,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="387773175"/>
-        <c:axId val="356059240"/>
+        <c:axId val="1770814078"/>
+        <c:axId val="497197213"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="387773175"/>
+        <c:axId val="1770814078"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3366,7 +3344,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="356059240"/>
+        <c:crossAx val="497197213"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3374,7 +3352,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="356059240"/>
+        <c:axId val="497197213"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3442,7 +3420,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="387773175"/>
+        <c:crossAx val="1770814078"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3934,15 +3912,15 @@
   </sheetPr>
   <dimension ref="A1:Z1005"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
     <col min="5" max="5" width="26.109375" customWidth="1"/>
-    <col min="6" max="6" width="64.5546875" customWidth="1"/>
+    <col min="6" max="6" width="61.88671875" customWidth="1"/>
     <col min="7" max="7" width="19.88671875" customWidth="1"/>
     <col min="8" max="8" width="16.88671875" customWidth="1"/>
   </cols>
@@ -3976,17 +3954,17 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="73"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="66"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -4006,15 +3984,15 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A3" s="74"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="76"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="69"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -4034,15 +4012,15 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A4" s="77"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="79"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="72"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -4260,7 +4238,7 @@
       <c r="F11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="69" t="s">
+      <c r="G11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H11" s="4" t="s">
@@ -4285,7 +4263,7 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:26" ht="18" customHeight="1">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="7">
@@ -4301,9 +4279,9 @@
         <v>17</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H12" s="5">
+        <v>79</v>
+      </c>
+      <c r="H12" s="91">
         <v>1</v>
       </c>
       <c r="I12" s="1"/>
@@ -4325,7 +4303,7 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:26" ht="19.8" customHeight="1">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="7">
@@ -4341,9 +4319,9 @@
         <v>18</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H13" s="5">
+        <v>79</v>
+      </c>
+      <c r="H13" s="91">
         <v>1</v>
       </c>
       <c r="I13" s="1"/>
@@ -4365,7 +4343,7 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" spans="1:26" ht="19.8" customHeight="1">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="7">
@@ -4381,9 +4359,9 @@
         <v>21</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H14" s="5">
+        <v>79</v>
+      </c>
+      <c r="H14" s="91">
         <v>2</v>
       </c>
       <c r="I14" s="1"/>
@@ -4405,7 +4383,7 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" spans="1:26" ht="22.2" customHeight="1">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="7">
@@ -4421,9 +4399,9 @@
         <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H15" s="5">
+        <v>79</v>
+      </c>
+      <c r="H15" s="91">
         <v>2</v>
       </c>
       <c r="I15" s="1"/>
@@ -4445,7 +4423,7 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26" ht="19.8" customHeight="1">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="7">
@@ -4461,9 +4439,9 @@
         <v>25</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H16" s="5">
+        <v>79</v>
+      </c>
+      <c r="H16" s="91">
         <v>2</v>
       </c>
       <c r="I16" s="1"/>
@@ -4485,7 +4463,7 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" ht="19.8" customHeight="1">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="7">
@@ -4501,9 +4479,9 @@
         <v>28</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H17" s="5">
+        <v>80</v>
+      </c>
+      <c r="H17" s="91">
         <v>3</v>
       </c>
       <c r="I17" s="1"/>
@@ -4525,7 +4503,7 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26" ht="19.2" customHeight="1">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="7">
@@ -4541,9 +4519,9 @@
         <v>31</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H18" s="5">
+        <v>80</v>
+      </c>
+      <c r="H18" s="91">
         <v>4</v>
       </c>
       <c r="I18" s="1"/>
@@ -4565,7 +4543,7 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" ht="19.8" customHeight="1">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="7">
@@ -4581,9 +4559,9 @@
         <v>34</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H19" s="5">
+        <v>80</v>
+      </c>
+      <c r="H19" s="91">
         <v>5</v>
       </c>
       <c r="I19" s="1"/>
@@ -4773,7 +4751,7 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:26" ht="17.399999999999999">
+    <row r="26" spans="1:26" ht="15.75" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="7"/>
@@ -4801,7 +4779,7 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:26" ht="17.399999999999999">
+    <row r="27" spans="1:26" ht="15.75" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="7"/>
@@ -4829,7 +4807,7 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" spans="1:26" ht="17.399999999999999">
+    <row r="28" spans="1:26" ht="22.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="7"/>
@@ -4857,7 +4835,7 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:26" ht="17.399999999999999">
+    <row r="29" spans="1:26" ht="22.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="7"/>
@@ -4885,7 +4863,7 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" spans="1:26" ht="17.399999999999999">
+    <row r="30" spans="1:26" ht="22.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="7"/>
@@ -4913,7 +4891,7 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" spans="1:26" ht="17.399999999999999">
+    <row r="31" spans="1:26" ht="22.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="7"/>
@@ -4941,7 +4919,7 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" spans="1:26" ht="17.399999999999999">
+    <row r="32" spans="1:26" ht="22.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="7"/>
@@ -4969,7 +4947,7 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" spans="1:26" ht="17.399999999999999">
+    <row r="33" spans="1:26" ht="22.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="2"/>
@@ -4997,7 +4975,7 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" spans="1:26" ht="17.399999999999999">
+    <row r="34" spans="1:26" ht="22.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="2"/>
@@ -5025,7 +5003,7 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" spans="1:26" ht="17.399999999999999">
+    <row r="35" spans="1:26" ht="22.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="2"/>
@@ -5053,7 +5031,7 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="1:26" ht="17.399999999999999">
+    <row r="36" spans="1:26" ht="22.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="2"/>
@@ -32218,12 +32196,12 @@
     <mergeCell ref="A2:I4"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G12 G13:G19" xr:uid="{83FAB298-2D8D-4F4C-B948-ADB1E126ABC9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G12:G19" xr:uid="{91A0A20E-2506-46C1-9EEA-1DDB1EF1323D}">
       <formula1>"Completed, Not Completed"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -32234,14 +32212,14 @@
   </sheetPr>
   <dimension ref="A1:S989"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:K4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="7.77734375" customWidth="1"/>
-    <col min="3" max="3" width="62.6640625" customWidth="1"/>
+    <col min="3" max="3" width="37.21875" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" customWidth="1"/>
     <col min="5" max="5" width="10.88671875" customWidth="1"/>
     <col min="6" max="6" width="10.21875" customWidth="1"/>
@@ -32277,28 +32255,28 @@
       <c r="R1" s="14"/>
     </row>
     <row r="2" spans="1:19" ht="43.5" customHeight="1">
-      <c r="A2" s="85" t="str">
+      <c r="A2" s="78" t="str">
         <f>CONCATENATE("Sprint #",D5,"Tracking Sheet")</f>
         <v>Sprint #1Tracking Sheet</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="86"/>
-      <c r="R2" s="86"/>
-      <c r="S2" s="87"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="80"/>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1">
       <c r="A3" s="14"/>
@@ -32326,16 +32304,16 @@
       <c r="C4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="88" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
+      <c r="D4" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
       <c r="L4" s="19"/>
       <c r="M4" s="20"/>
       <c r="N4" s="20"/>
@@ -32349,23 +32327,23 @@
       <c r="A5" s="14"/>
       <c r="B5" s="22"/>
       <c r="C5" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="89">
+        <v>36</v>
+      </c>
+      <c r="D5" s="82">
         <v>1</v>
       </c>
-      <c r="E5" s="82"/>
-      <c r="F5" s="90" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="81"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="92">
-        <v>44956</v>
-      </c>
-      <c r="J5" s="81"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="25"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="83" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="74"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="85">
+        <v>44974</v>
+      </c>
+      <c r="J5" s="74"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="24"/>
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -32377,19 +32355,19 @@
       <c r="A6" s="14"/>
       <c r="B6" s="22"/>
       <c r="C6" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="25"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="24"/>
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -32400,15 +32378,15 @@
     <row r="7" spans="1:19" ht="12.75" customHeight="1">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
       <c r="N7" s="14"/>
@@ -32420,7 +32398,7 @@
     <row r="8" spans="1:19" ht="13.5" customHeight="1">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
-      <c r="C8" s="28"/>
+      <c r="C8" s="27"/>
       <c r="D8" s="14"/>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
@@ -32440,569 +32418,569 @@
     <row r="9" spans="1:19" ht="12.75" customHeight="1">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
-      <c r="C9" s="28"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="22"/>
-      <c r="E9" s="80" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="81"/>
-      <c r="M9" s="81"/>
-      <c r="N9" s="81"/>
-      <c r="O9" s="81"/>
-      <c r="P9" s="81"/>
-      <c r="Q9" s="81"/>
-      <c r="R9" s="82"/>
-      <c r="S9" s="29"/>
+      <c r="E9" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="74"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="74"/>
+      <c r="R9" s="75"/>
+      <c r="S9" s="28"/>
     </row>
     <row r="10" spans="1:19" ht="12.75" customHeight="1">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" s="22"/>
-      <c r="E10" s="80" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="80" t="s">
+      <c r="E10" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="M10" s="81"/>
-      <c r="N10" s="81"/>
-      <c r="O10" s="81"/>
-      <c r="P10" s="81"/>
-      <c r="Q10" s="81"/>
-      <c r="R10" s="82"/>
-      <c r="S10" s="29"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="74"/>
+      <c r="R10" s="75"/>
+      <c r="S10" s="28"/>
     </row>
     <row r="11" spans="1:19" ht="12.75" customHeight="1">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="31">
+      <c r="D11" s="29"/>
+      <c r="E11" s="30">
         <v>1</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="30">
         <v>2</v>
       </c>
-      <c r="G11" s="31">
+      <c r="G11" s="30">
         <v>3</v>
       </c>
-      <c r="H11" s="31">
+      <c r="H11" s="30">
         <v>4</v>
       </c>
-      <c r="I11" s="31">
+      <c r="I11" s="30">
         <v>5</v>
       </c>
-      <c r="J11" s="31">
+      <c r="J11" s="30">
         <v>6</v>
       </c>
-      <c r="K11" s="31">
+      <c r="K11" s="30">
         <v>7</v>
       </c>
-      <c r="L11" s="31">
+      <c r="L11" s="30">
         <v>8</v>
       </c>
-      <c r="M11" s="31">
+      <c r="M11" s="30">
         <v>9</v>
       </c>
-      <c r="N11" s="31">
+      <c r="N11" s="30">
         <v>10</v>
       </c>
-      <c r="O11" s="31">
+      <c r="O11" s="30">
         <v>11</v>
       </c>
-      <c r="P11" s="31">
+      <c r="P11" s="30">
         <v>12</v>
       </c>
-      <c r="Q11" s="31">
+      <c r="Q11" s="30">
         <v>13</v>
       </c>
-      <c r="R11" s="31">
+      <c r="R11" s="30">
         <v>14</v>
       </c>
-      <c r="S11" s="29"/>
+      <c r="S11" s="28"/>
     </row>
     <row r="12" spans="1:19" ht="27" customHeight="1">
       <c r="A12" s="23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="32" t="s">
-        <v>42</v>
+      <c r="C12" s="31" t="s">
+        <v>43</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="33">
+        <v>44</v>
+      </c>
+      <c r="E12" s="32">
         <f>I5</f>
-        <v>44956</v>
-      </c>
-      <c r="F12" s="33">
+        <v>44974</v>
+      </c>
+      <c r="F12" s="32">
         <f t="shared" ref="F12:G12" si="0">E12+1</f>
-        <v>44957</v>
-      </c>
-      <c r="G12" s="33">
+        <v>44975</v>
+      </c>
+      <c r="G12" s="32">
         <f t="shared" si="0"/>
-        <v>44958</v>
-      </c>
-      <c r="H12" s="33">
+        <v>44976</v>
+      </c>
+      <c r="H12" s="32">
         <f t="shared" ref="H12:I12" si="1">G12+1</f>
-        <v>44959</v>
-      </c>
-      <c r="I12" s="33">
+        <v>44977</v>
+      </c>
+      <c r="I12" s="32">
         <f t="shared" si="1"/>
-        <v>44960</v>
-      </c>
-      <c r="J12" s="33">
+        <v>44978</v>
+      </c>
+      <c r="J12" s="32">
         <f>H12+2</f>
-        <v>44961</v>
-      </c>
-      <c r="K12" s="33">
+        <v>44979</v>
+      </c>
+      <c r="K12" s="32">
         <f>J12+1</f>
-        <v>44962</v>
-      </c>
-      <c r="L12" s="33">
+        <v>44980</v>
+      </c>
+      <c r="L12" s="32">
         <f>K12+1</f>
-        <v>44963</v>
-      </c>
-      <c r="M12" s="33">
+        <v>44981</v>
+      </c>
+      <c r="M12" s="32">
         <f>L12+1</f>
-        <v>44964</v>
-      </c>
-      <c r="N12" s="33">
+        <v>44982</v>
+      </c>
+      <c r="N12" s="32">
         <f t="shared" ref="N12:P12" si="2">M12+1</f>
-        <v>44965</v>
-      </c>
-      <c r="O12" s="33">
+        <v>44983</v>
+      </c>
+      <c r="O12" s="32">
         <f t="shared" si="2"/>
-        <v>44966</v>
-      </c>
-      <c r="P12" s="33">
+        <v>44984</v>
+      </c>
+      <c r="P12" s="32">
         <f t="shared" si="2"/>
-        <v>44967</v>
-      </c>
-      <c r="Q12" s="33">
+        <v>44985</v>
+      </c>
+      <c r="Q12" s="32">
         <f>O12+2</f>
-        <v>44968</v>
-      </c>
-      <c r="R12" s="33">
+        <v>44986</v>
+      </c>
+      <c r="R12" s="32">
         <f>Q12+1</f>
-        <v>44969</v>
-      </c>
-      <c r="S12" s="34"/>
+        <v>44987</v>
+      </c>
+      <c r="S12" s="33"/>
     </row>
     <row r="13" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A13" s="35">
+      <c r="A13" s="34">
         <v>1</v>
       </c>
-      <c r="B13" s="35">
+      <c r="B13" s="34">
         <v>1</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="35">
+      <c r="D13" s="34">
         <v>5</v>
       </c>
-      <c r="E13" s="35">
+      <c r="E13" s="34">
         <v>1</v>
       </c>
-      <c r="F13" s="35">
+      <c r="F13" s="34">
         <v>1</v>
       </c>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35">
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34">
         <v>2</v>
       </c>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35">
+      <c r="J13" s="34"/>
+      <c r="K13" s="34">
         <v>1</v>
       </c>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="36"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="35"/>
     </row>
     <row r="14" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A14" s="35">
+      <c r="A14" s="34">
         <v>2</v>
       </c>
-      <c r="B14" s="35">
+      <c r="B14" s="34">
         <v>1</v>
       </c>
-      <c r="C14" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="35">
+      <c r="C14" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="34">
         <v>2</v>
       </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35">
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34">
         <v>1</v>
       </c>
-      <c r="I14" s="35">
+      <c r="I14" s="34">
         <v>1</v>
       </c>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="36"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="35"/>
     </row>
     <row r="15" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A15" s="35">
+      <c r="A15" s="34">
         <v>3</v>
       </c>
-      <c r="B15" s="35">
+      <c r="B15" s="34">
         <v>2</v>
       </c>
-      <c r="C15" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="35">
+      <c r="C15" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="34">
         <v>6</v>
       </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35">
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34">
         <v>1</v>
       </c>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35">
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34">
         <v>1</v>
       </c>
-      <c r="M15" s="35">
+      <c r="M15" s="34">
         <v>1</v>
       </c>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35">
+      <c r="N15" s="34"/>
+      <c r="O15" s="34">
         <v>1</v>
       </c>
-      <c r="P15" s="35">
+      <c r="P15" s="34">
         <v>2</v>
       </c>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="36"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="35"/>
     </row>
     <row r="16" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A16" s="35">
+      <c r="A16" s="34">
         <v>4</v>
       </c>
-      <c r="B16" s="35">
+      <c r="B16" s="34">
         <v>2</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="35">
+        <v>47</v>
+      </c>
+      <c r="D16" s="34">
         <v>1</v>
       </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35">
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34">
         <v>1</v>
       </c>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="35"/>
-      <c r="S16" s="36"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="35"/>
     </row>
     <row r="17" spans="1:19" ht="12.75" customHeight="1">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="35"/>
-      <c r="S17" s="36"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="35"/>
     </row>
     <row r="18" spans="1:19" ht="12.75" customHeight="1">
-      <c r="A18" s="39"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="42"/>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="42"/>
-      <c r="R18" s="42"/>
-      <c r="S18" s="43"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="41"/>
+      <c r="S18" s="42"/>
     </row>
     <row r="19" spans="1:19" ht="12.75" customHeight="1">
       <c r="A19" s="14"/>
       <c r="B19" s="22"/>
-      <c r="C19" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="83">
+      <c r="C19" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="76">
         <f>SUM(D14:D17)</f>
         <v>9</v>
       </c>
-      <c r="E19" s="45">
+      <c r="E19" s="44">
         <f t="shared" ref="E19:I19" si="3">IF(COUNTA(E14:E17)&gt;0,SUM(E14:E17),D19)</f>
         <v>9</v>
       </c>
-      <c r="F19" s="45">
+      <c r="F19" s="44">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="G19" s="45">
+      <c r="G19" s="44">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="H19" s="45">
+      <c r="H19" s="44">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="I19" s="45">
+      <c r="I19" s="44">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J19" s="45">
+      <c r="J19" s="44">
         <f>IF(COUNTA(J14:J17)&gt;0,SUM(J14:J17),H19)</f>
         <v>2</v>
       </c>
-      <c r="K19" s="45">
+      <c r="K19" s="44">
         <f>IF(COUNTA(K14:K17)&gt;0,SUM(K14:K17),H19)</f>
         <v>2</v>
       </c>
-      <c r="L19" s="45">
+      <c r="L19" s="44">
         <f t="shared" ref="L19:P19" si="4">IF(COUNTA(L14:L17)&gt;0,SUM(L14:L17),K19)</f>
         <v>1</v>
       </c>
-      <c r="M19" s="45">
+      <c r="M19" s="44">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="N19" s="45">
+      <c r="N19" s="44">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="O19" s="45">
+      <c r="O19" s="44">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="P19" s="45">
+      <c r="P19" s="44">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="Q19" s="45">
+      <c r="Q19" s="44">
         <f>IF(COUNTA(Q14:Q17)&gt;0,SUM(Q14:Q17),O19)</f>
         <v>1</v>
       </c>
-      <c r="R19" s="45">
+      <c r="R19" s="44">
         <f>IF(COUNTA(R14:R17)&gt;0,SUM(R14:R17),O19)</f>
         <v>1</v>
       </c>
-      <c r="S19" s="29"/>
+      <c r="S19" s="28"/>
     </row>
     <row r="20" spans="1:19" ht="12.75" customHeight="1">
       <c r="A20" s="14"/>
       <c r="B20" s="22"/>
-      <c r="C20" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="84"/>
-      <c r="E20" s="46">
+      <c r="C20" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="77"/>
+      <c r="E20" s="45">
         <f t="shared" ref="E20:R20" si="5">FORECAST(E11,$R$25:$R$26,$O$25:$O$26)</f>
         <v>8.1</v>
       </c>
-      <c r="F20" s="46">
+      <c r="F20" s="45">
         <f t="shared" si="5"/>
         <v>7.2</v>
       </c>
-      <c r="G20" s="46">
+      <c r="G20" s="45">
         <f t="shared" si="5"/>
         <v>6.3</v>
       </c>
-      <c r="H20" s="46">
+      <c r="H20" s="45">
         <f t="shared" si="5"/>
         <v>5.4</v>
       </c>
-      <c r="I20" s="46">
+      <c r="I20" s="45">
         <f t="shared" si="5"/>
         <v>4.5</v>
       </c>
-      <c r="J20" s="46">
+      <c r="J20" s="45">
         <f t="shared" si="5"/>
         <v>3.5999999999999996</v>
       </c>
-      <c r="K20" s="46">
+      <c r="K20" s="45">
         <f t="shared" si="5"/>
         <v>2.7</v>
       </c>
-      <c r="L20" s="46">
+      <c r="L20" s="45">
         <f t="shared" si="5"/>
         <v>1.7999999999999998</v>
       </c>
-      <c r="M20" s="46">
+      <c r="M20" s="45">
         <f t="shared" si="5"/>
         <v>0.90000000000000036</v>
       </c>
-      <c r="N20" s="46">
+      <c r="N20" s="45">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O20" s="46">
+      <c r="O20" s="45">
         <f t="shared" si="5"/>
         <v>-0.90000000000000036</v>
       </c>
-      <c r="P20" s="46">
+      <c r="P20" s="45">
         <f t="shared" si="5"/>
         <v>-1.8000000000000007</v>
       </c>
-      <c r="Q20" s="46">
+      <c r="Q20" s="45">
         <f t="shared" si="5"/>
         <v>-2.7000000000000011</v>
       </c>
-      <c r="R20" s="46">
+      <c r="R20" s="45">
         <f t="shared" si="5"/>
         <v>-3.5999999999999996</v>
       </c>
-      <c r="S20" s="29"/>
+      <c r="S20" s="28"/>
     </row>
     <row r="21" spans="1:19" ht="12.75" customHeight="1">
       <c r="A21" s="14"/>
       <c r="B21" s="22"/>
-      <c r="C21" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="47"/>
-      <c r="E21" s="35">
+      <c r="C21" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="46"/>
+      <c r="E21" s="34">
         <f t="shared" ref="E21:I21" si="6">D19-E19</f>
         <v>0</v>
       </c>
-      <c r="F21" s="35">
+      <c r="F21" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G21" s="35">
+      <c r="G21" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H21" s="35">
+      <c r="H21" s="34">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="I21" s="35">
+      <c r="I21" s="34">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="J21" s="35">
+      <c r="J21" s="34">
         <f t="shared" ref="J21:K21" si="7">G19-J19</f>
         <v>7</v>
       </c>
-      <c r="K21" s="35">
+      <c r="K21" s="34">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L21" s="35">
+      <c r="L21" s="34">
         <f t="shared" ref="L21:P21" si="8">K19-L19</f>
         <v>1</v>
       </c>
-      <c r="M21" s="35">
+      <c r="M21" s="34">
         <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="N21" s="35">
+      <c r="N21" s="34">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O21" s="35">
+      <c r="O21" s="34">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="P21" s="35">
+      <c r="P21" s="34">
         <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="Q21" s="35">
+      <c r="Q21" s="34">
         <v>0</v>
       </c>
-      <c r="R21" s="35">
+      <c r="R21" s="34">
         <f>O19-R19</f>
         <v>0</v>
       </c>
-      <c r="S21" s="29"/>
+      <c r="S21" s="28"/>
     </row>
     <row r="22" spans="1:19" ht="12.75" customHeight="1">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
-      <c r="C22" s="27"/>
+      <c r="C22" s="26"/>
       <c r="D22" s="14"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="27"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
     </row>
     <row r="23" spans="1:19" ht="12.75" customHeight="1">
       <c r="A23" s="14"/>
@@ -33059,12 +33037,12 @@
       <c r="L25" s="14"/>
       <c r="M25" s="14"/>
       <c r="N25" s="14"/>
-      <c r="O25" s="48">
+      <c r="O25" s="47">
         <v>0</v>
       </c>
-      <c r="P25" s="48"/>
-      <c r="Q25" s="48"/>
-      <c r="R25" s="48">
+      <c r="P25" s="47"/>
+      <c r="Q25" s="47"/>
+      <c r="R25" s="47">
         <f>SUM(D14:D17)</f>
         <v>9</v>
       </c>
@@ -33084,12 +33062,12 @@
       <c r="L26" s="14"/>
       <c r="M26" s="14"/>
       <c r="N26" s="14"/>
-      <c r="O26" s="48">
+      <c r="O26" s="47">
         <v>10</v>
       </c>
-      <c r="P26" s="48"/>
-      <c r="Q26" s="48"/>
-      <c r="R26" s="48">
+      <c r="P26" s="47"/>
+      <c r="Q26" s="47"/>
+      <c r="R26" s="47">
         <v>0</v>
       </c>
     </row>
@@ -34091,14 +34069,14 @@
   </sheetPr>
   <dimension ref="A1:S988"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="7.77734375" customWidth="1"/>
-    <col min="3" max="3" width="58.109375" customWidth="1"/>
+    <col min="3" max="3" width="34.77734375" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" customWidth="1"/>
     <col min="5" max="5" width="10.88671875" customWidth="1"/>
     <col min="6" max="6" width="10.21875" customWidth="1"/>
@@ -34134,28 +34112,28 @@
       <c r="R1" s="14"/>
     </row>
     <row r="2" spans="1:19" ht="43.5" customHeight="1">
-      <c r="A2" s="85" t="str">
+      <c r="A2" s="78" t="str">
         <f>CONCATENATE("Sprint #",D5,"Tracking Sheet")</f>
         <v>Sprint #2Tracking Sheet</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="86"/>
-      <c r="R2" s="86"/>
-      <c r="S2" s="87"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="80"/>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1">
       <c r="A3" s="14"/>
@@ -34183,16 +34161,16 @@
       <c r="C4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="88" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
+      <c r="D4" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
       <c r="L4" s="19"/>
       <c r="M4" s="20"/>
       <c r="N4" s="20"/>
@@ -34206,23 +34184,23 @@
       <c r="A5" s="14"/>
       <c r="B5" s="22"/>
       <c r="C5" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="89">
+        <v>36</v>
+      </c>
+      <c r="D5" s="82">
         <v>2</v>
       </c>
-      <c r="E5" s="82"/>
-      <c r="F5" s="90" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="81"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="94">
-        <v>44970</v>
-      </c>
-      <c r="J5" s="81"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="25"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="83" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="74"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="87">
+        <v>44988</v>
+      </c>
+      <c r="J5" s="74"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="24"/>
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -34234,19 +34212,19 @@
       <c r="A6" s="14"/>
       <c r="B6" s="22"/>
       <c r="C6" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="25"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="24"/>
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -34257,15 +34235,15 @@
     <row r="7" spans="1:19" ht="12.75" customHeight="1">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
       <c r="N7" s="14"/>
@@ -34277,7 +34255,7 @@
     <row r="8" spans="1:19" ht="13.5" customHeight="1">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
-      <c r="C8" s="28"/>
+      <c r="C8" s="27"/>
       <c r="D8" s="14"/>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
@@ -34297,537 +34275,525 @@
     <row r="9" spans="1:19" ht="12.75" customHeight="1">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
-      <c r="C9" s="28"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="22"/>
-      <c r="E9" s="80" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="81"/>
-      <c r="M9" s="81"/>
-      <c r="N9" s="81"/>
-      <c r="O9" s="81"/>
-      <c r="P9" s="81"/>
-      <c r="Q9" s="81"/>
-      <c r="R9" s="82"/>
-      <c r="S9" s="29"/>
+      <c r="E9" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="74"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="74"/>
+      <c r="R9" s="75"/>
+      <c r="S9" s="28"/>
     </row>
     <row r="10" spans="1:19" ht="12.75" customHeight="1">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" s="22"/>
-      <c r="E10" s="80" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="80" t="s">
+      <c r="E10" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="M10" s="81"/>
-      <c r="N10" s="81"/>
-      <c r="O10" s="81"/>
-      <c r="P10" s="81"/>
-      <c r="Q10" s="81"/>
-      <c r="R10" s="82"/>
-      <c r="S10" s="29"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="74"/>
+      <c r="R10" s="75"/>
+      <c r="S10" s="28"/>
     </row>
     <row r="11" spans="1:19" ht="12.75" customHeight="1">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="31">
+      <c r="D11" s="29"/>
+      <c r="E11" s="30">
         <v>1</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="30">
         <v>2</v>
       </c>
-      <c r="G11" s="31">
+      <c r="G11" s="30">
         <v>3</v>
       </c>
-      <c r="H11" s="31">
+      <c r="H11" s="30">
         <v>4</v>
       </c>
-      <c r="I11" s="31">
+      <c r="I11" s="30">
         <v>5</v>
       </c>
-      <c r="J11" s="31">
+      <c r="J11" s="30">
         <v>6</v>
       </c>
-      <c r="K11" s="31">
+      <c r="K11" s="30">
         <v>7</v>
       </c>
-      <c r="L11" s="31">
+      <c r="L11" s="30">
         <v>8</v>
       </c>
-      <c r="M11" s="31">
+      <c r="M11" s="30">
         <v>9</v>
       </c>
-      <c r="N11" s="31">
+      <c r="N11" s="30">
         <v>10</v>
       </c>
-      <c r="O11" s="31">
+      <c r="O11" s="30">
         <v>11</v>
       </c>
-      <c r="P11" s="31">
+      <c r="P11" s="30">
         <v>12</v>
       </c>
-      <c r="Q11" s="31">
+      <c r="Q11" s="30">
         <v>13</v>
       </c>
-      <c r="R11" s="31">
+      <c r="R11" s="30">
         <v>14</v>
       </c>
-      <c r="S11" s="29"/>
+      <c r="S11" s="28"/>
     </row>
     <row r="12" spans="1:19" ht="27" customHeight="1">
       <c r="A12" s="23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="32" t="s">
-        <v>42</v>
+      <c r="C12" s="31" t="s">
+        <v>43</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="33">
+        <v>44</v>
+      </c>
+      <c r="E12" s="32">
         <f>I5</f>
-        <v>44970</v>
-      </c>
-      <c r="F12" s="33">
+        <v>44988</v>
+      </c>
+      <c r="F12" s="32">
         <f t="shared" ref="F12:I12" si="0">E12+1</f>
-        <v>44971</v>
-      </c>
-      <c r="G12" s="33">
+        <v>44989</v>
+      </c>
+      <c r="G12" s="32">
         <f t="shared" si="0"/>
-        <v>44972</v>
-      </c>
-      <c r="H12" s="33">
+        <v>44990</v>
+      </c>
+      <c r="H12" s="32">
         <f t="shared" si="0"/>
-        <v>44973</v>
-      </c>
-      <c r="I12" s="33">
+        <v>44991</v>
+      </c>
+      <c r="I12" s="32">
         <f t="shared" si="0"/>
-        <v>44974</v>
-      </c>
-      <c r="J12" s="33">
+        <v>44992</v>
+      </c>
+      <c r="J12" s="32">
         <f>H12+2</f>
-        <v>44975</v>
-      </c>
-      <c r="K12" s="33">
+        <v>44993</v>
+      </c>
+      <c r="K12" s="32">
         <f t="shared" ref="K12:L12" si="1">J12+1</f>
-        <v>44976</v>
-      </c>
-      <c r="L12" s="33">
+        <v>44994</v>
+      </c>
+      <c r="L12" s="32">
         <f t="shared" si="1"/>
-        <v>44977</v>
-      </c>
-      <c r="M12" s="33">
+        <v>44995</v>
+      </c>
+      <c r="M12" s="32">
         <f t="shared" ref="M12:P12" si="2">L12+1</f>
-        <v>44978</v>
-      </c>
-      <c r="N12" s="33">
+        <v>44996</v>
+      </c>
+      <c r="N12" s="32">
         <f t="shared" si="2"/>
-        <v>44979</v>
-      </c>
-      <c r="O12" s="33">
+        <v>44997</v>
+      </c>
+      <c r="O12" s="32">
         <f t="shared" si="2"/>
-        <v>44980</v>
-      </c>
-      <c r="P12" s="33">
+        <v>44998</v>
+      </c>
+      <c r="P12" s="32">
         <f t="shared" si="2"/>
-        <v>44981</v>
-      </c>
-      <c r="Q12" s="33">
+        <v>44999</v>
+      </c>
+      <c r="Q12" s="32">
         <f t="shared" ref="Q12:R12" si="3">P12+1</f>
-        <v>44982</v>
-      </c>
-      <c r="R12" s="33">
+        <v>45000</v>
+      </c>
+      <c r="R12" s="32">
         <f t="shared" si="3"/>
-        <v>44983</v>
-      </c>
-      <c r="S12" s="34"/>
+        <v>45001</v>
+      </c>
+      <c r="S12" s="33"/>
     </row>
     <row r="13" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A13" s="35">
+      <c r="A13" s="34">
         <v>1</v>
       </c>
-      <c r="B13" s="35">
+      <c r="B13" s="34">
         <v>3</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="35">
+      <c r="D13" s="34">
         <v>5</v>
       </c>
-      <c r="E13" s="35">
+      <c r="E13" s="34">
         <v>1</v>
       </c>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35">
+      <c r="F13" s="34"/>
+      <c r="G13" s="34">
         <v>1</v>
       </c>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35">
-        <v>1</v>
-      </c>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35">
-        <v>1</v>
-      </c>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="36"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="35"/>
     </row>
     <row r="14" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A14" s="35">
+      <c r="A14" s="34">
         <v>2</v>
       </c>
-      <c r="B14" s="35">
+      <c r="B14" s="34">
         <v>4</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="35">
+      <c r="D14" s="34">
         <v>3</v>
       </c>
-      <c r="E14" s="35">
+      <c r="E14" s="34">
         <v>1</v>
       </c>
-      <c r="F14" s="35">
+      <c r="F14" s="34">
         <v>1</v>
       </c>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35">
-        <v>1</v>
-      </c>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="36"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="35"/>
     </row>
     <row r="15" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A15" s="35">
+      <c r="A15" s="34">
         <v>3</v>
       </c>
-      <c r="B15" s="35">
+      <c r="B15" s="34">
         <v>5</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="35">
+      <c r="D15" s="34">
         <v>4</v>
       </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35">
-        <v>1</v>
-      </c>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35">
-        <v>1</v>
-      </c>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35">
-        <v>2</v>
-      </c>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="36"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="35"/>
     </row>
     <row r="16" spans="1:19" ht="12.75" customHeight="1">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="35"/>
-      <c r="S16" s="36"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="35"/>
     </row>
     <row r="17" spans="1:19" ht="12.75" customHeight="1">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="35"/>
-      <c r="S17" s="36"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="35"/>
     </row>
     <row r="18" spans="1:19" ht="12.75" customHeight="1">
       <c r="A18" s="14"/>
       <c r="B18" s="22"/>
-      <c r="C18" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="93">
+      <c r="C18" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="86">
         <f>SUM(D14:D17)</f>
         <v>7</v>
       </c>
-      <c r="E18" s="50">
+      <c r="E18" s="49">
         <f t="shared" ref="E18:I18" si="4">IF(COUNTA(E14:E16)&gt;0,SUM(E14:E16),D18)</f>
         <v>1</v>
       </c>
-      <c r="F18" s="50">
+      <c r="F18" s="49">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G18" s="50">
+      <c r="G18" s="49">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H18" s="50">
+      <c r="H18" s="49">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="I18" s="50">
+      <c r="I18" s="49">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J18" s="50">
+      <c r="J18" s="49">
         <f>IF(COUNTA(J14:J16)&gt;0,SUM(J14:J16),H18)</f>
         <v>1</v>
       </c>
-      <c r="K18" s="50">
+      <c r="K18" s="49">
         <f>IF(COUNTA(K14:K16)&gt;0,SUM(K14:K16),H18)</f>
         <v>1</v>
       </c>
-      <c r="L18" s="50">
+      <c r="L18" s="49">
         <f t="shared" ref="L18:O18" si="5">IF(COUNTA(L14:L16)&gt;0,SUM(L14:L16),K18)</f>
         <v>1</v>
       </c>
-      <c r="M18" s="50">
+      <c r="M18" s="49">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="N18" s="50">
+      <c r="N18" s="49">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O18" s="50">
+      <c r="O18" s="49">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="P18" s="50">
+        <v>1</v>
+      </c>
+      <c r="P18" s="49">
         <f>IF(COUNTA(P14:P16)&gt;0,SUM(P14:P16),N18)</f>
         <v>1</v>
       </c>
-      <c r="Q18" s="50">
+      <c r="Q18" s="49">
         <f>IF(COUNTA(Q14:Q16)&gt;0,SUM(Q14:Q16),P18)</f>
         <v>1</v>
       </c>
-      <c r="R18" s="50">
+      <c r="R18" s="49">
         <f>IF(COUNTA(R14:R16)&gt;0,SUM(R14:R16),P18)</f>
         <v>1</v>
       </c>
-      <c r="S18" s="29"/>
+      <c r="S18" s="28"/>
     </row>
     <row r="19" spans="1:19" ht="12.75" customHeight="1">
       <c r="A19" s="14"/>
       <c r="B19" s="22"/>
-      <c r="C19" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="84"/>
-      <c r="E19" s="46">
+      <c r="C19" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="77"/>
+      <c r="E19" s="45">
         <f t="shared" ref="E19:R19" si="6">FORECAST(E11,$R$24:$R$25,$P$24:$P$25)</f>
         <v>6.3</v>
       </c>
-      <c r="F19" s="46">
+      <c r="F19" s="45">
         <f t="shared" si="6"/>
         <v>5.6</v>
       </c>
-      <c r="G19" s="46">
+      <c r="G19" s="45">
         <f t="shared" si="6"/>
         <v>4.9000000000000004</v>
       </c>
-      <c r="H19" s="46">
+      <c r="H19" s="45">
         <f t="shared" si="6"/>
         <v>4.2</v>
       </c>
-      <c r="I19" s="46">
+      <c r="I19" s="45">
         <f t="shared" si="6"/>
         <v>3.5</v>
       </c>
-      <c r="J19" s="46">
+      <c r="J19" s="45">
         <f t="shared" si="6"/>
         <v>2.8000000000000007</v>
       </c>
-      <c r="K19" s="46">
+      <c r="K19" s="45">
         <f t="shared" si="6"/>
         <v>2.1000000000000005</v>
       </c>
-      <c r="L19" s="46">
+      <c r="L19" s="45">
         <f t="shared" si="6"/>
         <v>1.4000000000000004</v>
       </c>
-      <c r="M19" s="46">
+      <c r="M19" s="45">
         <f t="shared" si="6"/>
         <v>0.70000000000000018</v>
       </c>
-      <c r="N19" s="46">
+      <c r="N19" s="45">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O19" s="46">
+      <c r="O19" s="45">
         <f t="shared" si="6"/>
         <v>-0.69999999999999929</v>
       </c>
-      <c r="P19" s="46">
+      <c r="P19" s="45">
         <f t="shared" si="6"/>
         <v>-1.3999999999999986</v>
       </c>
-      <c r="Q19" s="46">
+      <c r="Q19" s="45">
         <f t="shared" si="6"/>
         <v>-2.0999999999999996</v>
       </c>
-      <c r="R19" s="46">
+      <c r="R19" s="45">
         <f t="shared" si="6"/>
         <v>-2.7999999999999989</v>
       </c>
-      <c r="S19" s="29"/>
+      <c r="S19" s="28"/>
     </row>
     <row r="20" spans="1:19" ht="12.75" customHeight="1">
       <c r="A20" s="14"/>
       <c r="B20" s="22"/>
-      <c r="C20" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="47"/>
-      <c r="E20" s="35">
+      <c r="C20" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="46"/>
+      <c r="E20" s="34">
         <f t="shared" ref="E20:I20" si="7">D18-E18</f>
         <v>6</v>
       </c>
-      <c r="F20" s="35">
+      <c r="F20" s="34">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G20" s="35">
+      <c r="G20" s="34">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H20" s="35">
+      <c r="H20" s="34">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I20" s="35">
+      <c r="I20" s="34">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J20" s="35">
+      <c r="J20" s="34">
         <f>H18-J18</f>
         <v>0</v>
       </c>
-      <c r="K20" s="35">
+      <c r="K20" s="34">
         <f>H18-K18</f>
         <v>0</v>
       </c>
-      <c r="L20" s="35">
+      <c r="L20" s="34">
         <f t="shared" ref="L20:O20" si="8">K18-L18</f>
         <v>0</v>
       </c>
-      <c r="M20" s="35">
+      <c r="M20" s="34">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N20" s="35">
+      <c r="N20" s="34">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O20" s="35">
+      <c r="O20" s="34">
         <f t="shared" si="8"/>
-        <v>-1</v>
-      </c>
-      <c r="P20" s="35">
+        <v>0</v>
+      </c>
+      <c r="P20" s="34">
         <f>N18-P18</f>
         <v>0</v>
       </c>
-      <c r="Q20" s="35">
+      <c r="Q20" s="34">
         <f>P18-Q18</f>
         <v>0</v>
       </c>
-      <c r="R20" s="35">
+      <c r="R20" s="34">
         <f>P18-R18</f>
         <v>0</v>
       </c>
-      <c r="S20" s="29"/>
+      <c r="S20" s="28"/>
     </row>
     <row r="21" spans="1:19" ht="12.75" customHeight="1">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
-      <c r="C21" s="27"/>
+      <c r="C21" s="26"/>
       <c r="D21" s="14"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="27"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
     </row>
     <row r="22" spans="1:19" ht="12.75" customHeight="1">
       <c r="A22" s="14"/>
@@ -34884,12 +34850,12 @@
       <c r="L24" s="14"/>
       <c r="M24" s="14"/>
       <c r="N24" s="14"/>
-      <c r="O24" s="48"/>
-      <c r="P24" s="48">
+      <c r="O24" s="47"/>
+      <c r="P24" s="47">
         <v>0</v>
       </c>
-      <c r="Q24" s="48"/>
-      <c r="R24" s="48">
+      <c r="Q24" s="47"/>
+      <c r="R24" s="47">
         <f>SUM(D14:D16)</f>
         <v>7</v>
       </c>
@@ -34909,12 +34875,12 @@
       <c r="L25" s="14"/>
       <c r="M25" s="14"/>
       <c r="N25" s="14"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="48">
+      <c r="O25" s="47"/>
+      <c r="P25" s="47">
         <v>10</v>
       </c>
-      <c r="Q25" s="48"/>
-      <c r="R25" s="48">
+      <c r="Q25" s="47"/>
+      <c r="R25" s="47">
         <v>0</v>
       </c>
     </row>
@@ -35917,14 +35883,14 @@
   </sheetPr>
   <dimension ref="A1:S988"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="7.77734375" customWidth="1"/>
-    <col min="3" max="3" width="52.77734375" customWidth="1"/>
+    <col min="3" max="3" width="34.77734375" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" customWidth="1"/>
     <col min="5" max="5" width="10.88671875" customWidth="1"/>
     <col min="6" max="6" width="10.21875" customWidth="1"/>
@@ -35960,28 +35926,28 @@
       <c r="R1" s="14"/>
     </row>
     <row r="2" spans="1:19" ht="43.5" customHeight="1">
-      <c r="A2" s="96" t="str">
+      <c r="A2" s="92" t="str">
         <f>CONCATENATE("Sprint #",D5,"Tracking Sheet")</f>
         <v>Sprint #3Tracking Sheet</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="86"/>
-      <c r="R2" s="86"/>
-      <c r="S2" s="87"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="93"/>
+      <c r="S2" s="94"/>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1">
       <c r="A3" s="14"/>
@@ -36009,15 +35975,15 @@
       <c r="C4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="88" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
+      <c r="D4" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
       <c r="M4" s="20"/>
@@ -36032,22 +35998,22 @@
       <c r="A5" s="14"/>
       <c r="B5" s="22"/>
       <c r="C5" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="89">
+        <v>36</v>
+      </c>
+      <c r="D5" s="82">
         <v>3</v>
       </c>
-      <c r="E5" s="82"/>
-      <c r="F5" s="90" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="81"/>
-      <c r="H5" s="97">
-        <v>44984</v>
-      </c>
-      <c r="I5" s="81"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="25"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="83" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="74"/>
+      <c r="H5" s="89">
+        <v>45002</v>
+      </c>
+      <c r="I5" s="74"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="24"/>
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
@@ -36060,18 +36026,18 @@
       <c r="A6" s="14"/>
       <c r="B6" s="22"/>
       <c r="C6" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="89" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="91"/>
-      <c r="K6" s="25"/>
+        <v>38</v>
+      </c>
+      <c r="D6" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="24"/>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
@@ -36083,14 +36049,14 @@
     <row r="7" spans="1:19" ht="12.75" customHeight="1">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
@@ -36103,7 +36069,7 @@
     <row r="8" spans="1:19" ht="13.5" customHeight="1">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
-      <c r="C8" s="28"/>
+      <c r="C8" s="27"/>
       <c r="D8" s="14"/>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
@@ -36123,524 +36089,524 @@
     <row r="9" spans="1:19" ht="12.75" customHeight="1">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
-      <c r="C9" s="28"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="22"/>
-      <c r="E9" s="80" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="81"/>
-      <c r="M9" s="81"/>
-      <c r="N9" s="81"/>
-      <c r="O9" s="81"/>
-      <c r="P9" s="81"/>
-      <c r="Q9" s="81"/>
-      <c r="R9" s="82"/>
-      <c r="S9" s="29"/>
+      <c r="E9" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="74"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="74"/>
+      <c r="R9" s="75"/>
+      <c r="S9" s="28"/>
     </row>
     <row r="10" spans="1:19" ht="12.75" customHeight="1">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" s="22"/>
-      <c r="E10" s="80" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="95" t="s">
+      <c r="E10" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="M10" s="81"/>
-      <c r="N10" s="81"/>
-      <c r="O10" s="81"/>
-      <c r="P10" s="81"/>
-      <c r="Q10" s="81"/>
-      <c r="R10" s="82"/>
-      <c r="S10" s="29"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="88" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="74"/>
+      <c r="R10" s="75"/>
+      <c r="S10" s="28"/>
     </row>
     <row r="11" spans="1:19" ht="12.75" customHeight="1">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="31">
+      <c r="D11" s="29"/>
+      <c r="E11" s="30">
         <v>1</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="30">
         <v>2</v>
       </c>
-      <c r="G11" s="31">
+      <c r="G11" s="30">
         <v>3</v>
       </c>
-      <c r="H11" s="31">
+      <c r="H11" s="30">
         <v>4</v>
       </c>
-      <c r="I11" s="31">
+      <c r="I11" s="30">
         <v>5</v>
       </c>
-      <c r="J11" s="31">
+      <c r="J11" s="30">
         <v>6</v>
       </c>
-      <c r="K11" s="31">
+      <c r="K11" s="30">
         <v>7</v>
       </c>
-      <c r="L11" s="31">
+      <c r="L11" s="30">
         <v>8</v>
       </c>
-      <c r="M11" s="31">
+      <c r="M11" s="30">
         <v>9</v>
       </c>
-      <c r="N11" s="31">
+      <c r="N11" s="30">
         <v>10</v>
       </c>
-      <c r="O11" s="31">
+      <c r="O11" s="30">
         <v>11</v>
       </c>
-      <c r="P11" s="31">
+      <c r="P11" s="30">
         <v>12</v>
       </c>
-      <c r="Q11" s="31">
+      <c r="Q11" s="30">
         <v>13</v>
       </c>
-      <c r="R11" s="31">
+      <c r="R11" s="30">
         <v>14</v>
       </c>
-      <c r="S11" s="29"/>
+      <c r="S11" s="28"/>
     </row>
     <row r="12" spans="1:19" ht="27" customHeight="1">
       <c r="A12" s="23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="66" t="s">
-        <v>42</v>
+      <c r="C12" s="31" t="s">
+        <v>43</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="33">
-        <v>44984</v>
-      </c>
-      <c r="F12" s="33">
+        <v>44</v>
+      </c>
+      <c r="E12" s="32">
+        <v>45002</v>
+      </c>
+      <c r="F12" s="32">
         <f t="shared" ref="F12:H12" si="0">E12+1</f>
-        <v>44985</v>
-      </c>
-      <c r="G12" s="33">
+        <v>45003</v>
+      </c>
+      <c r="G12" s="32">
         <f t="shared" si="0"/>
-        <v>44986</v>
-      </c>
-      <c r="H12" s="33">
+        <v>45004</v>
+      </c>
+      <c r="H12" s="32">
         <f t="shared" si="0"/>
-        <v>44987</v>
-      </c>
-      <c r="I12" s="33">
+        <v>45005</v>
+      </c>
+      <c r="I12" s="32">
         <f>G12+2</f>
-        <v>44988</v>
-      </c>
-      <c r="J12" s="33">
+        <v>45006</v>
+      </c>
+      <c r="J12" s="32">
         <f t="shared" ref="J12:L12" si="1">I12+1</f>
-        <v>44989</v>
-      </c>
-      <c r="K12" s="33">
+        <v>45007</v>
+      </c>
+      <c r="K12" s="32">
         <f t="shared" si="1"/>
-        <v>44990</v>
-      </c>
-      <c r="L12" s="33">
+        <v>45008</v>
+      </c>
+      <c r="L12" s="32">
         <f t="shared" si="1"/>
-        <v>44991</v>
-      </c>
-      <c r="M12" s="33">
+        <v>45009</v>
+      </c>
+      <c r="M12" s="32">
         <f>K12+2</f>
-        <v>44992</v>
-      </c>
-      <c r="N12" s="33">
+        <v>45010</v>
+      </c>
+      <c r="N12" s="32">
         <f t="shared" ref="N12:O12" si="2">M12+1</f>
-        <v>44993</v>
-      </c>
-      <c r="O12" s="33">
+        <v>45011</v>
+      </c>
+      <c r="O12" s="32">
         <f t="shared" si="2"/>
-        <v>44994</v>
-      </c>
-      <c r="P12" s="33">
+        <v>45012</v>
+      </c>
+      <c r="P12" s="32">
         <f t="shared" ref="P12:R12" si="3">N12+2</f>
-        <v>44995</v>
-      </c>
-      <c r="Q12" s="33">
+        <v>45013</v>
+      </c>
+      <c r="Q12" s="32">
         <f t="shared" si="3"/>
-        <v>44996</v>
-      </c>
-      <c r="R12" s="33">
+        <v>45014</v>
+      </c>
+      <c r="R12" s="32">
         <f t="shared" si="3"/>
-        <v>44997</v>
-      </c>
-      <c r="S12" s="34"/>
+        <v>45015</v>
+      </c>
+      <c r="S12" s="33"/>
     </row>
     <row r="13" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A13" s="35">
+      <c r="A13" s="34">
         <v>1</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="34">
         <v>6</v>
       </c>
-      <c r="C13" s="67" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="65">
+      <c r="C13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="34">
         <v>4</v>
       </c>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="36"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="35"/>
     </row>
     <row r="14" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A14" s="35">
+      <c r="A14" s="34">
         <v>2</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="34">
         <v>6</v>
       </c>
-      <c r="C14" s="67" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="65">
+      <c r="C14" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="34">
         <v>4</v>
       </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="36"/>
-    </row>
-    <row r="15" spans="1:19" ht="22.2" customHeight="1">
-      <c r="A15" s="35">
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="35"/>
+    </row>
+    <row r="15" spans="1:19" ht="12.75" customHeight="1">
+      <c r="A15" s="34">
         <v>3</v>
       </c>
-      <c r="B15" s="24">
+      <c r="B15" s="34">
         <v>6</v>
       </c>
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="65">
+      <c r="D15" s="34">
         <v>5</v>
       </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="36"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="35"/>
     </row>
     <row r="16" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A16" s="35">
+      <c r="A16" s="34">
         <v>4</v>
       </c>
-      <c r="B16" s="24">
+      <c r="B16" s="34">
         <v>6</v>
       </c>
-      <c r="C16" s="67" t="s">
+      <c r="C16" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="65">
+      <c r="D16" s="34">
         <v>5</v>
       </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="35"/>
-      <c r="S16" s="36"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="35"/>
     </row>
     <row r="17" spans="1:19" ht="12.75" customHeight="1">
-      <c r="A17" s="35"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="35"/>
-      <c r="S17" s="51"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="50"/>
     </row>
     <row r="18" spans="1:19" ht="12.75" customHeight="1">
       <c r="A18" s="14"/>
       <c r="B18" s="22"/>
-      <c r="C18" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="83">
+      <c r="C18" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="76">
         <f>SUM(D14:D17)</f>
         <v>14</v>
       </c>
-      <c r="E18" s="45">
+      <c r="E18" s="44">
         <f t="shared" ref="E18:H18" si="4">IF(COUNTA(E14:E16)&gt;0,SUM(E14:E16),D18)</f>
         <v>14</v>
       </c>
-      <c r="F18" s="45">
+      <c r="F18" s="44">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="G18" s="45">
+      <c r="G18" s="44">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="H18" s="45">
+      <c r="H18" s="44">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="I18" s="45">
+      <c r="I18" s="44">
         <f>IF(COUNTA(I14:I16)&gt;0,SUM(I14:I16),G18)</f>
         <v>14</v>
       </c>
-      <c r="J18" s="45">
+      <c r="J18" s="44">
         <f t="shared" ref="J18:L18" si="5">IF(COUNTA(J14:J16)&gt;0,SUM(J14:J16),I18)</f>
         <v>14</v>
       </c>
-      <c r="K18" s="45">
+      <c r="K18" s="44">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="L18" s="45">
+      <c r="L18" s="44">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="M18" s="45">
+      <c r="M18" s="44">
         <f>IF(COUNTA(M14:M16)&gt;0,SUM(M14:M16),K18)</f>
         <v>14</v>
       </c>
-      <c r="N18" s="45">
+      <c r="N18" s="44">
         <f t="shared" ref="N18:O18" si="6">IF(COUNTA(N14:N16)&gt;0,SUM(N14:N16),M18)</f>
         <v>14</v>
       </c>
-      <c r="O18" s="45">
+      <c r="O18" s="44">
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="P18" s="45">
+      <c r="P18" s="44">
         <f t="shared" ref="P18:R18" si="7">IF(COUNTA(P14:P16)&gt;0,SUM(P14:P16),N18)</f>
         <v>14</v>
       </c>
-      <c r="Q18" s="45">
+      <c r="Q18" s="44">
         <f t="shared" si="7"/>
         <v>14</v>
       </c>
-      <c r="R18" s="45">
+      <c r="R18" s="44">
         <f t="shared" si="7"/>
         <v>14</v>
       </c>
-      <c r="S18" s="29"/>
+      <c r="S18" s="28"/>
     </row>
     <row r="19" spans="1:19" ht="12.75" customHeight="1">
       <c r="A19" s="14"/>
       <c r="B19" s="22"/>
-      <c r="C19" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="84"/>
-      <c r="E19" s="46">
+      <c r="C19" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="77"/>
+      <c r="E19" s="45">
         <f t="shared" ref="E19:R19" si="8">FORECAST(E11,$R$24:$R$25,$P$24:$P$25)</f>
         <v>12.6</v>
       </c>
-      <c r="F19" s="46">
+      <c r="F19" s="45">
         <f t="shared" si="8"/>
         <v>11.2</v>
       </c>
-      <c r="G19" s="46">
+      <c r="G19" s="45">
         <f t="shared" si="8"/>
         <v>9.8000000000000007</v>
       </c>
-      <c r="H19" s="46">
+      <c r="H19" s="45">
         <f t="shared" si="8"/>
         <v>8.4</v>
       </c>
-      <c r="I19" s="46">
+      <c r="I19" s="45">
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="J19" s="46">
+      <c r="J19" s="45">
         <f t="shared" si="8"/>
         <v>5.6000000000000014</v>
       </c>
-      <c r="K19" s="46">
+      <c r="K19" s="45">
         <f t="shared" si="8"/>
         <v>4.2000000000000011</v>
       </c>
-      <c r="L19" s="46">
+      <c r="L19" s="45">
         <f t="shared" si="8"/>
         <v>2.8000000000000007</v>
       </c>
-      <c r="M19" s="46">
+      <c r="M19" s="45">
         <f t="shared" si="8"/>
         <v>1.4000000000000004</v>
       </c>
-      <c r="N19" s="46">
+      <c r="N19" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O19" s="46">
+      <c r="O19" s="45">
         <f t="shared" si="8"/>
         <v>-1.3999999999999986</v>
       </c>
-      <c r="P19" s="46">
+      <c r="P19" s="45">
         <f t="shared" si="8"/>
         <v>-2.7999999999999972</v>
       </c>
-      <c r="Q19" s="46">
+      <c r="Q19" s="45">
         <f t="shared" si="8"/>
         <v>-4.1999999999999993</v>
       </c>
-      <c r="R19" s="46">
+      <c r="R19" s="45">
         <f t="shared" si="8"/>
         <v>-5.5999999999999979</v>
       </c>
-      <c r="S19" s="29"/>
+      <c r="S19" s="28"/>
     </row>
     <row r="20" spans="1:19" ht="12.75" customHeight="1">
       <c r="A20" s="14"/>
       <c r="B20" s="22"/>
-      <c r="C20" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="47"/>
-      <c r="E20" s="35">
+      <c r="C20" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="46"/>
+      <c r="E20" s="34">
         <f t="shared" ref="E20:H20" si="9">D18-E18</f>
         <v>0</v>
       </c>
-      <c r="F20" s="35">
+      <c r="F20" s="34">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G20" s="35">
+      <c r="G20" s="34">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H20" s="35">
+      <c r="H20" s="34">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I20" s="35">
+      <c r="I20" s="34">
         <f>G18-I18</f>
         <v>0</v>
       </c>
-      <c r="J20" s="35">
+      <c r="J20" s="34">
         <f t="shared" ref="J20:L20" si="10">I18-J18</f>
         <v>0</v>
       </c>
-      <c r="K20" s="35">
+      <c r="K20" s="34">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L20" s="35">
+      <c r="L20" s="34">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M20" s="35">
+      <c r="M20" s="34">
         <f t="shared" ref="M20:R20" si="11">K18-M18</f>
         <v>0</v>
       </c>
-      <c r="N20" s="35">
+      <c r="N20" s="34">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O20" s="35">
+      <c r="O20" s="34">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="P20" s="35">
+      <c r="P20" s="34">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="35">
+      <c r="Q20" s="34">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="R20" s="35">
+      <c r="R20" s="34">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="S20" s="29"/>
+      <c r="S20" s="28"/>
     </row>
     <row r="21" spans="1:19" ht="12.75" customHeight="1">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
-      <c r="C21" s="27"/>
+      <c r="C21" s="26"/>
       <c r="D21" s="14"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="27"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
     </row>
     <row r="22" spans="1:19" ht="12.75" customHeight="1">
       <c r="A22" s="14"/>
@@ -36697,12 +36663,12 @@
       <c r="L24" s="14"/>
       <c r="M24" s="14"/>
       <c r="N24" s="14"/>
-      <c r="O24" s="48"/>
-      <c r="P24" s="48">
+      <c r="O24" s="47"/>
+      <c r="P24" s="47">
         <v>0</v>
       </c>
-      <c r="Q24" s="48"/>
-      <c r="R24" s="48">
+      <c r="Q24" s="47"/>
+      <c r="R24" s="47">
         <f>SUM(D14:D16)</f>
         <v>14</v>
       </c>
@@ -36722,12 +36688,12 @@
       <c r="L25" s="14"/>
       <c r="M25" s="14"/>
       <c r="N25" s="14"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="48">
+      <c r="O25" s="47"/>
+      <c r="P25" s="47">
         <v>10</v>
       </c>
-      <c r="Q25" s="48"/>
-      <c r="R25" s="48">
+      <c r="Q25" s="47"/>
+      <c r="R25" s="47">
         <v>0</v>
       </c>
     </row>
@@ -37730,9 +37696,7 @@
   </sheetPr>
   <dimension ref="A1:S987"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:J6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -37773,27 +37737,27 @@
       <c r="R1" s="14"/>
     </row>
     <row r="2" spans="1:19" ht="43.5" customHeight="1">
-      <c r="A2" s="85" t="str">
+      <c r="A2" s="78" t="str">
         <f>CONCATENATE("Sprint #",D5,"Tracking Sheet")</f>
         <v>Sprint #4Tracking Sheet</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="86"/>
-      <c r="R2" s="87"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="80"/>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1">
       <c r="A3" s="14"/>
@@ -37821,15 +37785,15 @@
       <c r="C4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="88" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
+      <c r="D4" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
       <c r="M4" s="20"/>
@@ -37844,22 +37808,22 @@
       <c r="A5" s="14"/>
       <c r="B5" s="22"/>
       <c r="C5" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="89">
+        <v>36</v>
+      </c>
+      <c r="D5" s="82">
         <v>4</v>
       </c>
-      <c r="E5" s="82"/>
-      <c r="F5" s="90" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="81"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="94">
-        <v>44998</v>
-      </c>
-      <c r="J5" s="82"/>
-      <c r="K5" s="25"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="83" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="74"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="87">
+        <v>45016</v>
+      </c>
+      <c r="J5" s="75"/>
+      <c r="K5" s="24"/>
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
@@ -37872,18 +37836,18 @@
       <c r="A6" s="14"/>
       <c r="B6" s="22"/>
       <c r="C6" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="91"/>
-      <c r="K6" s="25"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="24"/>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
@@ -37895,14 +37859,14 @@
     <row r="7" spans="1:19" ht="12.75" customHeight="1">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
@@ -37915,7 +37879,7 @@
     <row r="8" spans="1:19" ht="13.5" customHeight="1">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
-      <c r="C8" s="28"/>
+      <c r="C8" s="27"/>
       <c r="D8" s="14"/>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
@@ -37935,496 +37899,496 @@
     <row r="9" spans="1:19" ht="12.75" customHeight="1">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
-      <c r="C9" s="28"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="22"/>
-      <c r="E9" s="80" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="81"/>
-      <c r="M9" s="81"/>
-      <c r="N9" s="81"/>
-      <c r="O9" s="81"/>
-      <c r="P9" s="81"/>
-      <c r="Q9" s="81"/>
-      <c r="R9" s="82"/>
-      <c r="S9" s="29"/>
+      <c r="E9" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="74"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="74"/>
+      <c r="R9" s="75"/>
+      <c r="S9" s="28"/>
     </row>
     <row r="10" spans="1:19" ht="12.75" customHeight="1">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" s="22"/>
-      <c r="E10" s="80" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="95" t="s">
+      <c r="E10" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="M10" s="81"/>
-      <c r="N10" s="81"/>
-      <c r="O10" s="81"/>
-      <c r="P10" s="81"/>
-      <c r="Q10" s="81"/>
-      <c r="R10" s="82"/>
-      <c r="S10" s="29"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="88" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="74"/>
+      <c r="R10" s="75"/>
+      <c r="S10" s="28"/>
     </row>
     <row r="11" spans="1:19" ht="12.75" customHeight="1">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="31">
+      <c r="D11" s="29"/>
+      <c r="E11" s="30">
         <v>1</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="30">
         <v>2</v>
       </c>
-      <c r="G11" s="31">
+      <c r="G11" s="30">
         <v>3</v>
       </c>
-      <c r="H11" s="31">
+      <c r="H11" s="30">
         <v>4</v>
       </c>
-      <c r="I11" s="31">
+      <c r="I11" s="30">
         <v>5</v>
       </c>
-      <c r="J11" s="31">
+      <c r="J11" s="30">
         <v>6</v>
       </c>
-      <c r="K11" s="31">
+      <c r="K11" s="30">
         <v>7</v>
       </c>
-      <c r="L11" s="31">
+      <c r="L11" s="30">
         <v>8</v>
       </c>
-      <c r="M11" s="31">
+      <c r="M11" s="30">
         <v>9</v>
       </c>
-      <c r="N11" s="31">
+      <c r="N11" s="30">
         <v>10</v>
       </c>
-      <c r="O11" s="31">
+      <c r="O11" s="30">
         <v>11</v>
       </c>
-      <c r="P11" s="31">
+      <c r="P11" s="30">
         <v>12</v>
       </c>
-      <c r="Q11" s="31">
+      <c r="Q11" s="30">
         <v>13</v>
       </c>
-      <c r="R11" s="31">
+      <c r="R11" s="30">
         <v>14</v>
       </c>
-      <c r="S11" s="29"/>
+      <c r="S11" s="28"/>
     </row>
     <row r="12" spans="1:19" ht="27" customHeight="1">
       <c r="A12" s="23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="32" t="s">
-        <v>42</v>
+      <c r="C12" s="31" t="s">
+        <v>43</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="33">
+        <v>44</v>
+      </c>
+      <c r="E12" s="32">
         <f>I5</f>
-        <v>44998</v>
-      </c>
-      <c r="F12" s="33">
+        <v>45016</v>
+      </c>
+      <c r="F12" s="32">
         <f t="shared" ref="F12:I12" si="0">E12+1</f>
-        <v>44999</v>
-      </c>
-      <c r="G12" s="33">
+        <v>45017</v>
+      </c>
+      <c r="G12" s="32">
         <f t="shared" si="0"/>
-        <v>45000</v>
-      </c>
-      <c r="H12" s="33">
+        <v>45018</v>
+      </c>
+      <c r="H12" s="32">
         <f t="shared" si="0"/>
-        <v>45001</v>
-      </c>
-      <c r="I12" s="33">
+        <v>45019</v>
+      </c>
+      <c r="I12" s="32">
         <f t="shared" si="0"/>
-        <v>45002</v>
-      </c>
-      <c r="J12" s="33">
+        <v>45020</v>
+      </c>
+      <c r="J12" s="32">
         <f>H12+2</f>
-        <v>45003</v>
-      </c>
-      <c r="K12" s="33">
+        <v>45021</v>
+      </c>
+      <c r="K12" s="32">
         <f t="shared" ref="K12:L12" si="1">J12+1</f>
-        <v>45004</v>
-      </c>
-      <c r="L12" s="33">
+        <v>45022</v>
+      </c>
+      <c r="L12" s="32">
         <f t="shared" si="1"/>
-        <v>45005</v>
-      </c>
-      <c r="M12" s="33">
+        <v>45023</v>
+      </c>
+      <c r="M12" s="32">
         <f>K12+2</f>
-        <v>45006</v>
-      </c>
-      <c r="N12" s="33">
+        <v>45024</v>
+      </c>
+      <c r="N12" s="32">
         <f t="shared" ref="N12:Q12" si="2">M12+1</f>
-        <v>45007</v>
-      </c>
-      <c r="O12" s="33">
+        <v>45025</v>
+      </c>
+      <c r="O12" s="32">
         <f t="shared" si="2"/>
-        <v>45008</v>
-      </c>
-      <c r="P12" s="33">
+        <v>45026</v>
+      </c>
+      <c r="P12" s="32">
         <f t="shared" si="2"/>
-        <v>45009</v>
-      </c>
-      <c r="Q12" s="33">
+        <v>45027</v>
+      </c>
+      <c r="Q12" s="32">
         <f t="shared" si="2"/>
-        <v>45010</v>
-      </c>
-      <c r="R12" s="33">
+        <v>45028</v>
+      </c>
+      <c r="R12" s="32">
         <f>O12+3</f>
-        <v>45011</v>
-      </c>
-      <c r="S12" s="34"/>
-    </row>
-    <row r="13" spans="1:19" ht="33.6" customHeight="1">
-      <c r="A13" s="35">
+        <v>45029</v>
+      </c>
+      <c r="S12" s="33"/>
+    </row>
+    <row r="13" spans="1:19" ht="25.5" customHeight="1">
+      <c r="A13" s="34">
         <v>1</v>
       </c>
-      <c r="B13" s="35">
+      <c r="B13" s="34">
         <v>7</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="35">
+      <c r="D13" s="34">
         <v>8</v>
       </c>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="36"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="35"/>
     </row>
     <row r="14" spans="1:19" ht="18" customHeight="1">
-      <c r="A14" s="35">
+      <c r="A14" s="34">
         <v>2</v>
       </c>
-      <c r="B14" s="35">
+      <c r="B14" s="34">
         <v>7</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="35">
+      <c r="D14" s="34">
         <v>8</v>
       </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="36"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="35"/>
     </row>
     <row r="15" spans="1:19" ht="31.5" customHeight="1">
-      <c r="A15" s="35">
+      <c r="A15" s="34">
         <v>3</v>
       </c>
-      <c r="B15" s="35">
+      <c r="B15" s="34">
         <v>7</v>
       </c>
-      <c r="C15" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="35">
+      <c r="C15" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="34">
         <v>4</v>
       </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="36"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="35"/>
     </row>
     <row r="16" spans="1:19" ht="12.75" customHeight="1">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="35"/>
-      <c r="S16" s="51"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="50"/>
     </row>
     <row r="17" spans="1:19" ht="12.75" customHeight="1">
       <c r="A17" s="14"/>
       <c r="B17" s="22"/>
-      <c r="C17" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="83">
+      <c r="C17" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="76">
         <f>SUM(D14:D16)</f>
         <v>12</v>
       </c>
-      <c r="E17" s="45">
+      <c r="E17" s="44">
         <f t="shared" ref="E17:I17" si="3">IF(COUNTA(E14:E15)&gt;0,SUM(E14:E15),D17)</f>
         <v>12</v>
       </c>
-      <c r="F17" s="45">
+      <c r="F17" s="44">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="G17" s="45">
+      <c r="G17" s="44">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="H17" s="45">
+      <c r="H17" s="44">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="I17" s="45">
+      <c r="I17" s="44">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="J17" s="45">
+      <c r="J17" s="44">
         <f>IF(COUNTA(J14:J15)&gt;0,SUM(J14:J15),H17)</f>
         <v>12</v>
       </c>
-      <c r="K17" s="45">
+      <c r="K17" s="44">
         <f t="shared" ref="K17:L17" si="4">IF(COUNTA(K14:K15)&gt;0,SUM(K14:K15),J17)</f>
         <v>12</v>
       </c>
-      <c r="L17" s="45">
+      <c r="L17" s="44">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="M17" s="45">
+      <c r="M17" s="44">
         <f>IF(COUNTA(M14:M15)&gt;0,SUM(M14:M15),K17)</f>
         <v>12</v>
       </c>
-      <c r="N17" s="45">
+      <c r="N17" s="44">
         <f t="shared" ref="N17:Q17" si="5">IF(COUNTA(N14:N15)&gt;0,SUM(N14:N15),M17)</f>
         <v>12</v>
       </c>
-      <c r="O17" s="45">
+      <c r="O17" s="44">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="P17" s="45">
+      <c r="P17" s="44">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="Q17" s="45">
+      <c r="Q17" s="44">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="R17" s="45">
+      <c r="R17" s="44">
         <f>IF(COUNTA(R14:R15)&gt;0,SUM(R14:R15),O17)</f>
         <v>12</v>
       </c>
-      <c r="S17" s="29"/>
+      <c r="S17" s="28"/>
     </row>
     <row r="18" spans="1:19" ht="12.75" customHeight="1">
       <c r="A18" s="14"/>
       <c r="B18" s="22"/>
-      <c r="C18" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="84"/>
-      <c r="E18" s="46">
+      <c r="C18" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="77"/>
+      <c r="E18" s="45">
         <f t="shared" ref="E18:R18" si="6">FORECAST(E11,$R$23:$R$24,$O$23:$O$24)</f>
         <v>10.8</v>
       </c>
-      <c r="F18" s="46">
+      <c r="F18" s="45">
         <f t="shared" si="6"/>
         <v>9.6</v>
       </c>
-      <c r="G18" s="46">
+      <c r="G18" s="45">
         <f t="shared" si="6"/>
         <v>8.4</v>
       </c>
-      <c r="H18" s="46">
+      <c r="H18" s="45">
         <f t="shared" si="6"/>
         <v>7.2</v>
       </c>
-      <c r="I18" s="46">
+      <c r="I18" s="45">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="J18" s="46">
+      <c r="J18" s="45">
         <f t="shared" si="6"/>
         <v>4.8000000000000007</v>
       </c>
-      <c r="K18" s="46">
+      <c r="K18" s="45">
         <f t="shared" si="6"/>
         <v>3.5999999999999996</v>
       </c>
-      <c r="L18" s="46">
+      <c r="L18" s="45">
         <f t="shared" si="6"/>
         <v>2.4000000000000004</v>
       </c>
-      <c r="M18" s="46">
+      <c r="M18" s="45">
         <f t="shared" si="6"/>
         <v>1.2000000000000011</v>
       </c>
-      <c r="N18" s="46">
+      <c r="N18" s="45">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O18" s="46">
+      <c r="O18" s="45">
         <f t="shared" si="6"/>
         <v>-1.1999999999999993</v>
       </c>
-      <c r="P18" s="46">
+      <c r="P18" s="45">
         <f t="shared" si="6"/>
         <v>-2.3999999999999986</v>
       </c>
-      <c r="Q18" s="46">
+      <c r="Q18" s="45">
         <f t="shared" si="6"/>
         <v>-3.5999999999999996</v>
       </c>
-      <c r="R18" s="46">
+      <c r="R18" s="45">
         <f t="shared" si="6"/>
         <v>-4.8000000000000007</v>
       </c>
-      <c r="S18" s="29"/>
+      <c r="S18" s="28"/>
     </row>
     <row r="19" spans="1:19" ht="12.75" customHeight="1">
       <c r="A19" s="14"/>
       <c r="B19" s="22"/>
-      <c r="C19" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="47"/>
-      <c r="E19" s="35">
+      <c r="C19" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="46"/>
+      <c r="E19" s="34">
         <f t="shared" ref="E19:I19" si="7">D17-E17</f>
         <v>0</v>
       </c>
-      <c r="F19" s="35">
+      <c r="F19" s="34">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G19" s="35">
+      <c r="G19" s="34">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H19" s="35">
+      <c r="H19" s="34">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I19" s="35">
+      <c r="I19" s="34">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J19" s="35">
+      <c r="J19" s="34">
         <f>H17-J17</f>
         <v>0</v>
       </c>
-      <c r="K19" s="35">
+      <c r="K19" s="34">
         <f t="shared" ref="K19:L19" si="8">J17-K17</f>
         <v>0</v>
       </c>
-      <c r="L19" s="35">
+      <c r="L19" s="34">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M19" s="35">
+      <c r="M19" s="34">
         <f>K17-M17</f>
         <v>0</v>
       </c>
-      <c r="N19" s="35">
+      <c r="N19" s="34">
         <f t="shared" ref="N19:Q19" si="9">M17-N17</f>
         <v>0</v>
       </c>
-      <c r="O19" s="35">
+      <c r="O19" s="34">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="P19" s="35">
+      <c r="P19" s="34">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="35">
+      <c r="Q19" s="34">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R19" s="35">
+      <c r="R19" s="34">
         <f>O17-R17</f>
         <v>0</v>
       </c>
-      <c r="S19" s="29"/>
+      <c r="S19" s="28"/>
     </row>
     <row r="20" spans="1:19" ht="12.75" customHeight="1">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
-      <c r="C20" s="27"/>
+      <c r="C20" s="26"/>
       <c r="D20" s="14"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="27"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
     </row>
     <row r="21" spans="1:19" ht="12.75" customHeight="1">
       <c r="A21" s="14"/>
@@ -38481,12 +38445,12 @@
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>
       <c r="N23" s="14"/>
-      <c r="O23" s="48">
+      <c r="O23" s="47">
         <v>0</v>
       </c>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="48"/>
-      <c r="R23" s="48">
+      <c r="P23" s="47"/>
+      <c r="Q23" s="47"/>
+      <c r="R23" s="47">
         <f>SUM(D14:D15)</f>
         <v>12</v>
       </c>
@@ -38506,12 +38470,12 @@
       <c r="L24" s="14"/>
       <c r="M24" s="14"/>
       <c r="N24" s="14"/>
-      <c r="O24" s="48">
+      <c r="O24" s="47">
         <v>10</v>
       </c>
-      <c r="P24" s="48"/>
-      <c r="Q24" s="48"/>
-      <c r="R24" s="48">
+      <c r="P24" s="47"/>
+      <c r="Q24" s="47"/>
+      <c r="R24" s="47">
         <v>0</v>
       </c>
     </row>
@@ -39514,9 +39478,7 @@
   </sheetPr>
   <dimension ref="A1:S988"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:I4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -39557,28 +39519,28 @@
       <c r="R1" s="14"/>
     </row>
     <row r="2" spans="1:19" ht="43.5" customHeight="1">
-      <c r="A2" s="85" t="str">
+      <c r="A2" s="78" t="str">
         <f>CONCATENATE("Sprint #",D5,"Tracking Sheet")</f>
         <v>Sprint #5Tracking Sheet</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="86"/>
-      <c r="R2" s="86"/>
-      <c r="S2" s="87"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="80"/>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1">
       <c r="A3" s="14"/>
@@ -39606,14 +39568,14 @@
       <c r="C4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="88" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
+      <c r="D4" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="20"/>
@@ -39629,21 +39591,21 @@
       <c r="A5" s="14"/>
       <c r="B5" s="22"/>
       <c r="C5" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="89">
+        <v>36</v>
+      </c>
+      <c r="D5" s="82">
         <v>5</v>
       </c>
-      <c r="E5" s="82"/>
-      <c r="F5" s="90" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="81"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="52">
-        <v>45012</v>
-      </c>
-      <c r="J5" s="25"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="83" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="74"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="51">
+        <v>45030</v>
+      </c>
+      <c r="J5" s="24"/>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
@@ -39657,17 +39619,17 @@
       <c r="A6" s="14"/>
       <c r="B6" s="22"/>
       <c r="C6" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="91"/>
-      <c r="J6" s="25"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="24"/>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
@@ -39680,13 +39642,13 @@
     <row r="7" spans="1:19" ht="12.75" customHeight="1">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
@@ -39700,7 +39662,7 @@
     <row r="8" spans="1:19" ht="13.5" customHeight="1">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
-      <c r="C8" s="28"/>
+      <c r="C8" s="27"/>
       <c r="D8" s="14"/>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
@@ -39720,517 +39682,517 @@
     <row r="9" spans="1:19" ht="12.75" customHeight="1">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
-      <c r="C9" s="28"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="22"/>
-      <c r="E9" s="80" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="81"/>
-      <c r="M9" s="81"/>
-      <c r="N9" s="81"/>
-      <c r="O9" s="81"/>
-      <c r="P9" s="81"/>
-      <c r="Q9" s="81"/>
-      <c r="R9" s="82"/>
-      <c r="S9" s="29"/>
+      <c r="E9" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="74"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="74"/>
+      <c r="R9" s="75"/>
+      <c r="S9" s="28"/>
     </row>
     <row r="10" spans="1:19" ht="12.75" customHeight="1">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" s="22"/>
-      <c r="E10" s="80" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="80" t="s">
+      <c r="E10" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="K10" s="81"/>
-      <c r="L10" s="81"/>
-      <c r="M10" s="81"/>
-      <c r="N10" s="81"/>
-      <c r="O10" s="81"/>
-      <c r="P10" s="81"/>
-      <c r="Q10" s="81"/>
-      <c r="R10" s="82"/>
-      <c r="S10" s="29"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="74"/>
+      <c r="R10" s="75"/>
+      <c r="S10" s="28"/>
     </row>
     <row r="11" spans="1:19" ht="12.75" customHeight="1">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="31">
+      <c r="D11" s="29"/>
+      <c r="E11" s="30">
         <v>1</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="30">
         <v>2</v>
       </c>
-      <c r="G11" s="31">
+      <c r="G11" s="30">
         <v>3</v>
       </c>
-      <c r="H11" s="31">
+      <c r="H11" s="30">
         <v>4</v>
       </c>
-      <c r="I11" s="31">
+      <c r="I11" s="30">
         <v>5</v>
       </c>
-      <c r="J11" s="31">
+      <c r="J11" s="30">
         <v>6</v>
       </c>
-      <c r="K11" s="31">
+      <c r="K11" s="30">
         <v>7</v>
       </c>
-      <c r="L11" s="31">
+      <c r="L11" s="30">
         <v>8</v>
       </c>
-      <c r="M11" s="31">
+      <c r="M11" s="30">
         <v>9</v>
       </c>
-      <c r="N11" s="31">
+      <c r="N11" s="30">
         <v>10</v>
       </c>
-      <c r="O11" s="31">
+      <c r="O11" s="30">
         <v>11</v>
       </c>
-      <c r="P11" s="31">
+      <c r="P11" s="30">
         <v>12</v>
       </c>
-      <c r="Q11" s="31">
+      <c r="Q11" s="30">
         <v>13</v>
       </c>
-      <c r="R11" s="31">
+      <c r="R11" s="30">
         <v>14</v>
       </c>
-      <c r="S11" s="29"/>
+      <c r="S11" s="28"/>
     </row>
     <row r="12" spans="1:19" ht="27" customHeight="1">
       <c r="A12" s="23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="32" t="s">
-        <v>42</v>
+      <c r="C12" s="31" t="s">
+        <v>43</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="33">
+        <v>44</v>
+      </c>
+      <c r="E12" s="32">
         <f>I5</f>
-        <v>45012</v>
-      </c>
-      <c r="F12" s="33">
+        <v>45030</v>
+      </c>
+      <c r="F12" s="32">
         <f t="shared" ref="F12:K12" si="0">E12+1</f>
-        <v>45013</v>
-      </c>
-      <c r="G12" s="33">
+        <v>45031</v>
+      </c>
+      <c r="G12" s="32">
         <f t="shared" si="0"/>
-        <v>45014</v>
-      </c>
-      <c r="H12" s="33">
+        <v>45032</v>
+      </c>
+      <c r="H12" s="32">
         <f t="shared" si="0"/>
-        <v>45015</v>
-      </c>
-      <c r="I12" s="33">
+        <v>45033</v>
+      </c>
+      <c r="I12" s="32">
         <f t="shared" si="0"/>
-        <v>45016</v>
-      </c>
-      <c r="J12" s="33">
+        <v>45034</v>
+      </c>
+      <c r="J12" s="32">
         <f t="shared" si="0"/>
-        <v>45017</v>
-      </c>
-      <c r="K12" s="33">
+        <v>45035</v>
+      </c>
+      <c r="K12" s="32">
         <f t="shared" si="0"/>
-        <v>45018</v>
-      </c>
-      <c r="L12" s="33">
+        <v>45036</v>
+      </c>
+      <c r="L12" s="32">
         <f>J12+2</f>
-        <v>45019</v>
-      </c>
-      <c r="M12" s="33">
+        <v>45037</v>
+      </c>
+      <c r="M12" s="32">
         <f t="shared" ref="M12:R12" si="1">L12+1</f>
-        <v>45020</v>
-      </c>
-      <c r="N12" s="33">
+        <v>45038</v>
+      </c>
+      <c r="N12" s="32">
         <f t="shared" si="1"/>
-        <v>45021</v>
-      </c>
-      <c r="O12" s="33">
+        <v>45039</v>
+      </c>
+      <c r="O12" s="32">
         <f t="shared" si="1"/>
-        <v>45022</v>
-      </c>
-      <c r="P12" s="33">
+        <v>45040</v>
+      </c>
+      <c r="P12" s="32">
         <f t="shared" si="1"/>
-        <v>45023</v>
-      </c>
-      <c r="Q12" s="33">
+        <v>45041</v>
+      </c>
+      <c r="Q12" s="32">
         <f t="shared" si="1"/>
-        <v>45024</v>
-      </c>
-      <c r="R12" s="33">
+        <v>45042</v>
+      </c>
+      <c r="R12" s="32">
         <f t="shared" si="1"/>
-        <v>45025</v>
-      </c>
-      <c r="S12" s="34"/>
+        <v>45043</v>
+      </c>
+      <c r="S12" s="33"/>
     </row>
     <row r="13" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A13" s="35">
+      <c r="A13" s="34">
         <v>1</v>
       </c>
-      <c r="B13" s="35">
+      <c r="B13" s="34">
         <v>8</v>
       </c>
-      <c r="C13" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="35">
+      <c r="C13" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="34">
         <v>5</v>
       </c>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="36"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="35"/>
     </row>
     <row r="14" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A14" s="35">
+      <c r="A14" s="34">
         <v>2</v>
       </c>
-      <c r="B14" s="35">
+      <c r="B14" s="34">
         <v>8</v>
       </c>
-      <c r="C14" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="35">
+      <c r="C14" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="34">
         <v>5</v>
       </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="36"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="35"/>
     </row>
     <row r="15" spans="1:19" ht="12.75" customHeight="1">
-      <c r="A15" s="35">
+      <c r="A15" s="34">
         <v>3</v>
       </c>
-      <c r="B15" s="35">
+      <c r="B15" s="34">
         <v>8</v>
       </c>
-      <c r="C15" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="35">
+      <c r="C15" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="34">
         <v>4</v>
       </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="36"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="35"/>
     </row>
     <row r="16" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="35"/>
-      <c r="S16" s="36"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="35"/>
     </row>
     <row r="17" spans="1:19" ht="12.75" customHeight="1">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="35"/>
-      <c r="S17" s="51"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="50"/>
     </row>
     <row r="18" spans="1:19" ht="12.75" customHeight="1">
       <c r="A18" s="14"/>
       <c r="B18" s="22"/>
-      <c r="C18" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="83">
+      <c r="C18" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="76">
         <f>SUM(D14:D17)</f>
         <v>9</v>
       </c>
-      <c r="E18" s="45">
+      <c r="E18" s="44">
         <f t="shared" ref="E18:K18" si="2">IF(COUNTA(E14:E16)&gt;0,SUM(E14:E16),D18)</f>
         <v>9</v>
       </c>
-      <c r="F18" s="45">
+      <c r="F18" s="44">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="G18" s="45">
+      <c r="G18" s="44">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="H18" s="45">
+      <c r="H18" s="44">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="I18" s="45">
+      <c r="I18" s="44">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="J18" s="45">
+      <c r="J18" s="44">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="K18" s="45">
+      <c r="K18" s="44">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="L18" s="45">
+      <c r="L18" s="44">
         <f>IF(COUNTA(L14:L16)&gt;0,SUM(L14:L16),J18)</f>
         <v>9</v>
       </c>
-      <c r="M18" s="45">
+      <c r="M18" s="44">
         <f t="shared" ref="M18:Q18" si="3">IF(COUNTA(M14:M16)&gt;0,SUM(M14:M16),L18)</f>
         <v>9</v>
       </c>
-      <c r="N18" s="45">
+      <c r="N18" s="44">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="O18" s="45">
+      <c r="O18" s="44">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="P18" s="45">
+      <c r="P18" s="44">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="Q18" s="45">
+      <c r="Q18" s="44">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="R18" s="45">
+      <c r="R18" s="44">
         <f>IF(COUNTA(R14:R16)&gt;0,SUM(R14:R16),N18)</f>
         <v>9</v>
       </c>
-      <c r="S18" s="29"/>
+      <c r="S18" s="28"/>
     </row>
     <row r="19" spans="1:19" ht="12.75" customHeight="1">
       <c r="A19" s="14"/>
       <c r="B19" s="22"/>
-      <c r="C19" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="84"/>
-      <c r="E19" s="46">
+      <c r="C19" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="77"/>
+      <c r="E19" s="45">
         <f t="shared" ref="E19:R19" si="4">FORECAST(E11,$R$24:$R$25,$N$24:$N$25)</f>
         <v>8.1</v>
       </c>
-      <c r="F19" s="46">
+      <c r="F19" s="45">
         <f t="shared" si="4"/>
         <v>7.2</v>
       </c>
-      <c r="G19" s="46">
+      <c r="G19" s="45">
         <f t="shared" si="4"/>
         <v>6.3</v>
       </c>
-      <c r="H19" s="46">
+      <c r="H19" s="45">
         <f t="shared" si="4"/>
         <v>5.4</v>
       </c>
-      <c r="I19" s="46">
+      <c r="I19" s="45">
         <f t="shared" si="4"/>
         <v>4.5</v>
       </c>
-      <c r="J19" s="46">
+      <c r="J19" s="45">
         <f t="shared" si="4"/>
         <v>3.5999999999999996</v>
       </c>
-      <c r="K19" s="46">
+      <c r="K19" s="45">
         <f t="shared" si="4"/>
         <v>2.7</v>
       </c>
-      <c r="L19" s="46">
+      <c r="L19" s="45">
         <f t="shared" si="4"/>
         <v>1.7999999999999998</v>
       </c>
-      <c r="M19" s="46">
+      <c r="M19" s="45">
         <f t="shared" si="4"/>
         <v>0.90000000000000036</v>
       </c>
-      <c r="N19" s="46">
+      <c r="N19" s="45">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O19" s="46">
+      <c r="O19" s="45">
         <f t="shared" si="4"/>
         <v>-0.90000000000000036</v>
       </c>
-      <c r="P19" s="46">
+      <c r="P19" s="45">
         <f t="shared" si="4"/>
         <v>-1.8000000000000007</v>
       </c>
-      <c r="Q19" s="46">
+      <c r="Q19" s="45">
         <f t="shared" si="4"/>
         <v>-2.7000000000000011</v>
       </c>
-      <c r="R19" s="46">
+      <c r="R19" s="45">
         <f t="shared" si="4"/>
         <v>-3.5999999999999996</v>
       </c>
-      <c r="S19" s="29"/>
+      <c r="S19" s="28"/>
     </row>
     <row r="20" spans="1:19" ht="12.75" customHeight="1">
       <c r="A20" s="14"/>
       <c r="B20" s="22"/>
-      <c r="C20" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="47"/>
-      <c r="E20" s="35">
+      <c r="C20" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="46"/>
+      <c r="E20" s="34">
         <f t="shared" ref="E20:K20" si="5">D18-E18</f>
         <v>0</v>
       </c>
-      <c r="F20" s="35">
+      <c r="F20" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G20" s="35">
+      <c r="G20" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H20" s="35">
+      <c r="H20" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I20" s="35">
+      <c r="I20" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J20" s="35">
+      <c r="J20" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K20" s="35">
+      <c r="K20" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L20" s="35">
+      <c r="L20" s="34">
         <f>J18-L18</f>
         <v>0</v>
       </c>
-      <c r="M20" s="35">
+      <c r="M20" s="34">
         <f t="shared" ref="M20:Q20" si="6">L18-M18</f>
         <v>0</v>
       </c>
-      <c r="N20" s="35">
+      <c r="N20" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O20" s="35">
+      <c r="O20" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P20" s="35">
+      <c r="P20" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="35">
+      <c r="Q20" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R20" s="35">
+      <c r="R20" s="34">
         <f>N18-R18</f>
         <v>0</v>
       </c>
-      <c r="S20" s="29"/>
+      <c r="S20" s="28"/>
     </row>
     <row r="21" spans="1:19" ht="12.75" customHeight="1">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
-      <c r="C21" s="27"/>
+      <c r="C21" s="26"/>
       <c r="D21" s="14"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="27"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
     </row>
     <row r="22" spans="1:19" ht="12.75" customHeight="1">
       <c r="A22" s="14"/>
@@ -40286,13 +40248,13 @@
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
       <c r="M24" s="14"/>
-      <c r="N24" s="48">
+      <c r="N24" s="47">
         <v>0</v>
       </c>
-      <c r="O24" s="48"/>
-      <c r="P24" s="48"/>
-      <c r="Q24" s="48"/>
-      <c r="R24" s="48">
+      <c r="O24" s="47"/>
+      <c r="P24" s="47"/>
+      <c r="Q24" s="47"/>
+      <c r="R24" s="47">
         <f>SUM(D14:D16)</f>
         <v>9</v>
       </c>
@@ -40311,13 +40273,13 @@
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
       <c r="M25" s="14"/>
-      <c r="N25" s="48">
+      <c r="N25" s="47">
         <v>10</v>
       </c>
-      <c r="O25" s="48"/>
-      <c r="P25" s="48"/>
-      <c r="Q25" s="48"/>
-      <c r="R25" s="48">
+      <c r="O25" s="47"/>
+      <c r="P25" s="47"/>
+      <c r="Q25" s="47"/>
+      <c r="R25" s="47">
         <v>0</v>
       </c>
     </row>
@@ -41330,155 +41292,155 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A1" s="53"/>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
+      <c r="A1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
     </row>
     <row r="2" spans="1:6" ht="39.75" customHeight="1">
-      <c r="A2" s="98" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
+      <c r="A2" s="90" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="80"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
     </row>
     <row r="3" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A3" s="53"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
     </row>
     <row r="4" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A4" s="53"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
     </row>
     <row r="5" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
     </row>
     <row r="6" spans="1:6" ht="63.75" customHeight="1">
-      <c r="A6" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
+      <c r="A6" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
     </row>
     <row r="7" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A7" s="53"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
     </row>
     <row r="8" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A8" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="58" t="str">
+      <c r="A8" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="57" t="str">
         <f>HYPERLINK("http://www.softhouse.se/Uploades/Scrum_eng_webb.pdf","Scrum in 5 minutes (PDF) from softhouse")</f>
         <v>Scrum in 5 minutes (PDF) from softhouse</v>
       </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
     </row>
     <row r="9" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A9" s="59"/>
-      <c r="B9" s="60" t="str">
+      <c r="A9" s="58"/>
+      <c r="B9" s="59" t="str">
         <f>HYPERLINK("http://media.agile42.com/content/Scrum_Cheat_Sheet.pdf","Scrum Cheat Sheet (PDF) from agile42")</f>
         <v>Scrum Cheat Sheet (PDF) from agile42</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
     </row>
     <row r="10" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A10" s="53"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
     </row>
     <row r="11" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A11" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="61" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
+      <c r="A11" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
     </row>
     <row r="12" spans="1:6" ht="38.25" customHeight="1">
-      <c r="A12" s="53"/>
-      <c r="B12" s="61" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
     </row>
     <row r="13" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A13" s="53"/>
-      <c r="B13" s="61" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
     </row>
     <row r="14" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A14" s="53"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
     </row>
     <row r="15" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A15" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
+      <c r="A15" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
     </row>
     <row r="16" spans="1:6" ht="25.5" customHeight="1">
       <c r="A16" s="14"/>
-      <c r="B16" s="54" t="s">
-        <v>65</v>
+      <c r="B16" s="53" t="s">
+        <v>67</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
@@ -41486,208 +41448,208 @@
       <c r="F16" s="14"/>
     </row>
     <row r="17" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A17" s="53"/>
-      <c r="B17" s="54" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
+      <c r="A17" s="52"/>
+      <c r="B17" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
     </row>
     <row r="18" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A18" s="53"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
     </row>
     <row r="19" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A19" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
+      <c r="A19" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
     </row>
     <row r="20" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A20" s="53"/>
-      <c r="B20" s="54" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
     </row>
     <row r="21" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A21" s="53"/>
-      <c r="B21" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
     </row>
     <row r="22" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A22" s="53"/>
-      <c r="B22" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
+      <c r="A22" s="52"/>
+      <c r="B22" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
     </row>
     <row r="23" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A23" s="53"/>
-      <c r="B23" s="63"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
     </row>
     <row r="24" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A24" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="B24" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
+      <c r="A24" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
     </row>
     <row r="25" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A25" s="53"/>
-      <c r="B25" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
+      <c r="A25" s="52"/>
+      <c r="B25" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
     </row>
     <row r="26" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A26" s="53"/>
-      <c r="B26" s="60" t="str">
+      <c r="A26" s="52"/>
+      <c r="B26" s="59" t="str">
         <f>HYPERLINK("mailto:olivier@gerardin.info?subject=Scrum%20Excel%20Helper%20Workbook","E-mail me: olivier@gerardin.info")</f>
         <v>E-mail me: olivier@gerardin.info</v>
       </c>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
     </row>
     <row r="27" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A27" s="53"/>
-      <c r="B27" s="60" t="str">
+      <c r="A27" s="52"/>
+      <c r="B27" s="59" t="str">
         <f>HYPERLINK("http://blog.gerardin.info/","My blog: blog.gerardin.info")</f>
         <v>My blog: blog.gerardin.info</v>
       </c>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
     </row>
     <row r="28" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A28" s="53"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
+      <c r="A28" s="52"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
     </row>
     <row r="29" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A29" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="B29" s="64" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
+      <c r="A29" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
     </row>
     <row r="30" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A30" s="53"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
+      <c r="A30" s="52"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
     </row>
     <row r="31" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A31" s="53"/>
-      <c r="B31" s="54"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
+      <c r="A31" s="52"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
     </row>
     <row r="32" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A32" s="53"/>
-      <c r="B32" s="54"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
+      <c r="A32" s="52"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
     </row>
     <row r="33" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A33" s="54"/>
+      <c r="A33" s="53"/>
       <c r="B33" s="14"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
     </row>
     <row r="34" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A34" s="54"/>
+      <c r="A34" s="53"/>
       <c r="B34" s="14"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
     </row>
     <row r="35" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A35" s="54"/>
+      <c r="A35" s="53"/>
       <c r="B35" s="14"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
     </row>
     <row r="36" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A36" s="54"/>
+      <c r="A36" s="53"/>
       <c r="B36" s="14"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
     </row>
     <row r="37" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A37" s="54"/>
+      <c r="A37" s="53"/>
       <c r="B37" s="14"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
     </row>
     <row r="38" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A38" s="53"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="54"/>
+      <c r="A38" s="52"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
     </row>
     <row r="39" spans="1:6" ht="12.75" customHeight="1"/>
     <row r="40" spans="1:6" ht="12.75" customHeight="1"/>

--- a/Scrum Sheet.xlsx
+++ b/Scrum Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\S8 CSA\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Main_Project\Student-Performance-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F77CF6-07D6-458A-9C50-C853E3DA50BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C027D7C8-D996-4F5C-9BB1-3C5D6B4DA46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -1295,7 +1295,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1511,11 +1511,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1672,6 +1687,12 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1719,20 +1740,29 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3954,17 +3984,17 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="68"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -3984,15 +4014,15 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A3" s="67"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="69"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="71"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -4012,15 +4042,15 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A4" s="70"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="72"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="74"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -4281,7 +4311,7 @@
       <c r="G12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H12" s="91">
+      <c r="H12" s="65">
         <v>1</v>
       </c>
       <c r="I12" s="1"/>
@@ -4321,7 +4351,7 @@
       <c r="G13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H13" s="91">
+      <c r="H13" s="65">
         <v>1</v>
       </c>
       <c r="I13" s="1"/>
@@ -4361,7 +4391,7 @@
       <c r="G14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H14" s="91">
+      <c r="H14" s="65">
         <v>2</v>
       </c>
       <c r="I14" s="1"/>
@@ -4401,7 +4431,7 @@
       <c r="G15" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H15" s="91">
+      <c r="H15" s="65">
         <v>2</v>
       </c>
       <c r="I15" s="1"/>
@@ -4441,7 +4471,7 @@
       <c r="G16" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H16" s="91">
+      <c r="H16" s="65">
         <v>2</v>
       </c>
       <c r="I16" s="1"/>
@@ -4481,7 +4511,7 @@
       <c r="G17" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H17" s="91">
+      <c r="H17" s="65">
         <v>3</v>
       </c>
       <c r="I17" s="1"/>
@@ -4521,7 +4551,7 @@
       <c r="G18" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H18" s="91">
+      <c r="H18" s="65">
         <v>4</v>
       </c>
       <c r="I18" s="1"/>
@@ -4561,7 +4591,7 @@
       <c r="G19" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H19" s="91">
+      <c r="H19" s="65">
         <v>5</v>
       </c>
       <c r="I19" s="1"/>
@@ -32255,28 +32285,28 @@
       <c r="R1" s="14"/>
     </row>
     <row r="2" spans="1:19" ht="43.5" customHeight="1">
-      <c r="A2" s="78" t="str">
+      <c r="A2" s="80" t="str">
         <f>CONCATENATE("Sprint #",D5,"Tracking Sheet")</f>
         <v>Sprint #1Tracking Sheet</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="80"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81"/>
+      <c r="S2" s="82"/>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1">
       <c r="A3" s="14"/>
@@ -32304,16 +32334,16 @@
       <c r="C4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="81" t="s">
+      <c r="D4" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
       <c r="L4" s="19"/>
       <c r="M4" s="20"/>
       <c r="N4" s="20"/>
@@ -32329,20 +32359,20 @@
       <c r="C5" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="82">
+      <c r="D5" s="84">
         <v>1</v>
       </c>
-      <c r="E5" s="75"/>
-      <c r="F5" s="83" t="s">
+      <c r="E5" s="77"/>
+      <c r="F5" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="74"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="85">
+      <c r="G5" s="76"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="87">
         <v>44974</v>
       </c>
-      <c r="J5" s="74"/>
-      <c r="K5" s="75"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="77"/>
       <c r="L5" s="24"/>
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
@@ -32357,16 +32387,16 @@
       <c r="C6" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="82" t="s">
+      <c r="D6" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="84"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="86"/>
       <c r="L6" s="24"/>
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
@@ -32420,22 +32450,22 @@
       <c r="B9" s="14"/>
       <c r="C9" s="27"/>
       <c r="D9" s="22"/>
-      <c r="E9" s="73" t="s">
+      <c r="E9" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="74"/>
-      <c r="N9" s="74"/>
-      <c r="O9" s="74"/>
-      <c r="P9" s="74"/>
-      <c r="Q9" s="74"/>
-      <c r="R9" s="75"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="76"/>
+      <c r="P9" s="76"/>
+      <c r="Q9" s="76"/>
+      <c r="R9" s="77"/>
       <c r="S9" s="28"/>
     </row>
     <row r="10" spans="1:19" ht="12.75" customHeight="1">
@@ -32443,24 +32473,24 @@
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" s="22"/>
-      <c r="E10" s="73" t="s">
+      <c r="E10" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="73" t="s">
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="M10" s="74"/>
-      <c r="N10" s="74"/>
-      <c r="O10" s="74"/>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="75"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="76"/>
+      <c r="P10" s="76"/>
+      <c r="Q10" s="76"/>
+      <c r="R10" s="77"/>
       <c r="S10" s="28"/>
     </row>
     <row r="11" spans="1:19" ht="12.75" customHeight="1">
@@ -32771,7 +32801,7 @@
       <c r="C19" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="76">
+      <c r="D19" s="78">
         <f>SUM(D14:D17)</f>
         <v>9</v>
       </c>
@@ -32839,7 +32869,7 @@
       <c r="C20" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="77"/>
+      <c r="D20" s="79"/>
       <c r="E20" s="45">
         <f t="shared" ref="E20:R20" si="5">FORECAST(E11,$R$25:$R$26,$O$25:$O$26)</f>
         <v>8.1</v>
@@ -34112,28 +34142,28 @@
       <c r="R1" s="14"/>
     </row>
     <row r="2" spans="1:19" ht="43.5" customHeight="1">
-      <c r="A2" s="78" t="str">
+      <c r="A2" s="80" t="str">
         <f>CONCATENATE("Sprint #",D5,"Tracking Sheet")</f>
         <v>Sprint #2Tracking Sheet</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="80"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81"/>
+      <c r="S2" s="82"/>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1">
       <c r="A3" s="14"/>
@@ -34161,16 +34191,16 @@
       <c r="C4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="81" t="s">
+      <c r="D4" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
       <c r="L4" s="19"/>
       <c r="M4" s="20"/>
       <c r="N4" s="20"/>
@@ -34186,20 +34216,20 @@
       <c r="C5" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="82">
+      <c r="D5" s="84">
         <v>2</v>
       </c>
-      <c r="E5" s="75"/>
-      <c r="F5" s="83" t="s">
+      <c r="E5" s="77"/>
+      <c r="F5" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="74"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="87">
+      <c r="G5" s="76"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="89">
         <v>44988</v>
       </c>
-      <c r="J5" s="74"/>
-      <c r="K5" s="75"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="77"/>
       <c r="L5" s="24"/>
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
@@ -34214,16 +34244,16 @@
       <c r="C6" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="82" t="s">
+      <c r="D6" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="84"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="86"/>
       <c r="L6" s="24"/>
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
@@ -34277,22 +34307,22 @@
       <c r="B9" s="14"/>
       <c r="C9" s="27"/>
       <c r="D9" s="22"/>
-      <c r="E9" s="73" t="s">
+      <c r="E9" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="74"/>
-      <c r="N9" s="74"/>
-      <c r="O9" s="74"/>
-      <c r="P9" s="74"/>
-      <c r="Q9" s="74"/>
-      <c r="R9" s="75"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="76"/>
+      <c r="P9" s="76"/>
+      <c r="Q9" s="76"/>
+      <c r="R9" s="77"/>
       <c r="S9" s="28"/>
     </row>
     <row r="10" spans="1:19" ht="12.75" customHeight="1">
@@ -34300,24 +34330,24 @@
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" s="22"/>
-      <c r="E10" s="73" t="s">
+      <c r="E10" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="73" t="s">
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="M10" s="74"/>
-      <c r="N10" s="74"/>
-      <c r="O10" s="74"/>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="75"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="76"/>
+      <c r="P10" s="76"/>
+      <c r="Q10" s="76"/>
+      <c r="R10" s="77"/>
       <c r="S10" s="28"/>
     </row>
     <row r="11" spans="1:19" ht="12.75" customHeight="1">
@@ -34583,7 +34613,7 @@
       <c r="C18" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="86">
+      <c r="D18" s="88">
         <f>SUM(D14:D17)</f>
         <v>7</v>
       </c>
@@ -34651,7 +34681,7 @@
       <c r="C19" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="77"/>
+      <c r="D19" s="79"/>
       <c r="E19" s="45">
         <f t="shared" ref="E19:R19" si="6">FORECAST(E11,$R$24:$R$25,$P$24:$P$25)</f>
         <v>6.3</v>
@@ -35883,8 +35913,8 @@
   </sheetPr>
   <dimension ref="A1:S988"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:S2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -35926,28 +35956,28 @@
       <c r="R1" s="14"/>
     </row>
     <row r="2" spans="1:19" ht="43.5" customHeight="1">
-      <c r="A2" s="92" t="str">
+      <c r="A2" s="91" t="str">
         <f>CONCATENATE("Sprint #",D5,"Tracking Sheet")</f>
         <v>Sprint #3Tracking Sheet</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="93"/>
-      <c r="S2" s="94"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="93"/>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1">
       <c r="A3" s="14"/>
@@ -35975,15 +36005,15 @@
       <c r="C4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="81" t="s">
+      <c r="D4" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
       <c r="M4" s="20"/>
@@ -36000,19 +36030,19 @@
       <c r="C5" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="82">
+      <c r="D5" s="84">
         <v>3</v>
       </c>
-      <c r="E5" s="75"/>
-      <c r="F5" s="83" t="s">
+      <c r="E5" s="77"/>
+      <c r="F5" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="74"/>
-      <c r="H5" s="89">
+      <c r="G5" s="76"/>
+      <c r="H5" s="94">
         <v>45002</v>
       </c>
-      <c r="I5" s="74"/>
-      <c r="J5" s="75"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="24"/>
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
@@ -36028,15 +36058,15 @@
       <c r="C6" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="82" t="s">
+      <c r="D6" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="84"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="86"/>
       <c r="K6" s="24"/>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
@@ -36091,22 +36121,22 @@
       <c r="B9" s="14"/>
       <c r="C9" s="27"/>
       <c r="D9" s="22"/>
-      <c r="E9" s="73" t="s">
+      <c r="E9" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="74"/>
-      <c r="N9" s="74"/>
-      <c r="O9" s="74"/>
-      <c r="P9" s="74"/>
-      <c r="Q9" s="74"/>
-      <c r="R9" s="75"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="76"/>
+      <c r="P9" s="76"/>
+      <c r="Q9" s="76"/>
+      <c r="R9" s="77"/>
       <c r="S9" s="28"/>
     </row>
     <row r="10" spans="1:19" ht="12.75" customHeight="1">
@@ -36114,24 +36144,24 @@
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" s="22"/>
-      <c r="E10" s="73" t="s">
+      <c r="E10" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="88" t="s">
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="M10" s="74"/>
-      <c r="N10" s="74"/>
-      <c r="O10" s="74"/>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="75"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="76"/>
+      <c r="P10" s="76"/>
+      <c r="Q10" s="76"/>
+      <c r="R10" s="77"/>
       <c r="S10" s="28"/>
     </row>
     <row r="11" spans="1:19" ht="12.75" customHeight="1">
@@ -36190,7 +36220,7 @@
       <c r="B12" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="97" t="s">
         <v>43</v>
       </c>
       <c r="D12" s="23" t="s">
@@ -36257,13 +36287,13 @@
       <c r="A13" s="34">
         <v>1</v>
       </c>
-      <c r="B13" s="34">
+      <c r="B13" s="64">
         <v>6</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D13" s="96">
         <v>4</v>
       </c>
       <c r="E13" s="34"/>
@@ -36286,13 +36316,13 @@
       <c r="A14" s="34">
         <v>2</v>
       </c>
-      <c r="B14" s="34">
+      <c r="B14" s="64">
         <v>6</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="34">
+      <c r="D14" s="96">
         <v>4</v>
       </c>
       <c r="E14" s="34"/>
@@ -36315,13 +36345,13 @@
       <c r="A15" s="34">
         <v>3</v>
       </c>
-      <c r="B15" s="34">
+      <c r="B15" s="64">
         <v>6</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="34">
+      <c r="D15" s="96">
         <v>5</v>
       </c>
       <c r="E15" s="34"/>
@@ -36344,13 +36374,13 @@
       <c r="A16" s="34">
         <v>4</v>
       </c>
-      <c r="B16" s="34">
+      <c r="B16" s="64">
         <v>6</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="34">
+      <c r="D16" s="96">
         <v>5</v>
       </c>
       <c r="E16" s="34"/>
@@ -36372,7 +36402,7 @@
     <row r="17" spans="1:19" ht="12.75" customHeight="1">
       <c r="A17" s="34"/>
       <c r="B17" s="34"/>
-      <c r="C17" s="37"/>
+      <c r="C17" s="98"/>
       <c r="D17" s="34"/>
       <c r="E17" s="34"/>
       <c r="F17" s="34"/>
@@ -36396,7 +36426,7 @@
       <c r="C18" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="76">
+      <c r="D18" s="78">
         <f>SUM(D14:D17)</f>
         <v>14</v>
       </c>
@@ -36464,7 +36494,7 @@
       <c r="C19" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="77"/>
+      <c r="D19" s="79"/>
       <c r="E19" s="45">
         <f t="shared" ref="E19:R19" si="8">FORECAST(E11,$R$24:$R$25,$P$24:$P$25)</f>
         <v>12.6</v>
@@ -37737,27 +37767,27 @@
       <c r="R1" s="14"/>
     </row>
     <row r="2" spans="1:19" ht="43.5" customHeight="1">
-      <c r="A2" s="78" t="str">
+      <c r="A2" s="80" t="str">
         <f>CONCATENATE("Sprint #",D5,"Tracking Sheet")</f>
         <v>Sprint #4Tracking Sheet</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="80"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="82"/>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1">
       <c r="A3" s="14"/>
@@ -37785,15 +37815,15 @@
       <c r="C4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="81" t="s">
+      <c r="D4" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
       <c r="M4" s="20"/>
@@ -37810,19 +37840,19 @@
       <c r="C5" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="82">
+      <c r="D5" s="84">
         <v>4</v>
       </c>
-      <c r="E5" s="75"/>
-      <c r="F5" s="83" t="s">
+      <c r="E5" s="77"/>
+      <c r="F5" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="74"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="87">
+      <c r="G5" s="76"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="89">
         <v>45016</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="24"/>
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
@@ -37838,15 +37868,15 @@
       <c r="C6" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="82" t="s">
+      <c r="D6" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="84"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="86"/>
       <c r="K6" s="24"/>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
@@ -37901,22 +37931,22 @@
       <c r="B9" s="14"/>
       <c r="C9" s="27"/>
       <c r="D9" s="22"/>
-      <c r="E9" s="73" t="s">
+      <c r="E9" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="74"/>
-      <c r="N9" s="74"/>
-      <c r="O9" s="74"/>
-      <c r="P9" s="74"/>
-      <c r="Q9" s="74"/>
-      <c r="R9" s="75"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="76"/>
+      <c r="P9" s="76"/>
+      <c r="Q9" s="76"/>
+      <c r="R9" s="77"/>
       <c r="S9" s="28"/>
     </row>
     <row r="10" spans="1:19" ht="12.75" customHeight="1">
@@ -37924,24 +37954,24 @@
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" s="22"/>
-      <c r="E10" s="73" t="s">
+      <c r="E10" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="88" t="s">
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="M10" s="74"/>
-      <c r="N10" s="74"/>
-      <c r="O10" s="74"/>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="75"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="76"/>
+      <c r="P10" s="76"/>
+      <c r="Q10" s="76"/>
+      <c r="R10" s="77"/>
       <c r="S10" s="28"/>
     </row>
     <row r="11" spans="1:19" ht="12.75" customHeight="1">
@@ -38178,7 +38208,7 @@
       <c r="C17" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="76">
+      <c r="D17" s="78">
         <f>SUM(D14:D16)</f>
         <v>12</v>
       </c>
@@ -38246,7 +38276,7 @@
       <c r="C18" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="77"/>
+      <c r="D18" s="79"/>
       <c r="E18" s="45">
         <f t="shared" ref="E18:R18" si="6">FORECAST(E11,$R$23:$R$24,$O$23:$O$24)</f>
         <v>10.8</v>
@@ -39478,7 +39508,7 @@
   </sheetPr>
   <dimension ref="A1:S988"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -39519,28 +39549,28 @@
       <c r="R1" s="14"/>
     </row>
     <row r="2" spans="1:19" ht="43.5" customHeight="1">
-      <c r="A2" s="78" t="str">
+      <c r="A2" s="80" t="str">
         <f>CONCATENATE("Sprint #",D5,"Tracking Sheet")</f>
         <v>Sprint #5Tracking Sheet</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="80"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81"/>
+      <c r="S2" s="82"/>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1">
       <c r="A3" s="14"/>
@@ -39568,14 +39598,14 @@
       <c r="C4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="81" t="s">
+      <c r="D4" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="20"/>
@@ -39593,15 +39623,15 @@
       <c r="C5" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="82">
+      <c r="D5" s="84">
         <v>5</v>
       </c>
-      <c r="E5" s="75"/>
-      <c r="F5" s="83" t="s">
+      <c r="E5" s="77"/>
+      <c r="F5" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="74"/>
-      <c r="H5" s="84"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="86"/>
       <c r="I5" s="51">
         <v>45030</v>
       </c>
@@ -39621,14 +39651,14 @@
       <c r="C6" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="82" t="s">
+      <c r="D6" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="84"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="86"/>
       <c r="J6" s="24"/>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
@@ -39684,22 +39714,22 @@
       <c r="B9" s="14"/>
       <c r="C9" s="27"/>
       <c r="D9" s="22"/>
-      <c r="E9" s="73" t="s">
+      <c r="E9" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="74"/>
-      <c r="N9" s="74"/>
-      <c r="O9" s="74"/>
-      <c r="P9" s="74"/>
-      <c r="Q9" s="74"/>
-      <c r="R9" s="75"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="76"/>
+      <c r="P9" s="76"/>
+      <c r="Q9" s="76"/>
+      <c r="R9" s="77"/>
       <c r="S9" s="28"/>
     </row>
     <row r="10" spans="1:19" ht="12.75" customHeight="1">
@@ -39707,24 +39737,24 @@
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" s="22"/>
-      <c r="E10" s="73" t="s">
+      <c r="E10" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="73" t="s">
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="K10" s="74"/>
-      <c r="L10" s="74"/>
-      <c r="M10" s="74"/>
-      <c r="N10" s="74"/>
-      <c r="O10" s="74"/>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="75"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="76"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="76"/>
+      <c r="P10" s="76"/>
+      <c r="Q10" s="76"/>
+      <c r="R10" s="77"/>
       <c r="S10" s="28"/>
     </row>
     <row r="11" spans="1:19" ht="12.75" customHeight="1">
@@ -39982,7 +40012,7 @@
       <c r="C18" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="76">
+      <c r="D18" s="78">
         <f>SUM(D14:D17)</f>
         <v>9</v>
       </c>
@@ -40050,7 +40080,7 @@
       <c r="C19" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="77"/>
+      <c r="D19" s="79"/>
       <c r="E19" s="45">
         <f t="shared" ref="E19:R19" si="4">FORECAST(E11,$R$24:$R$25,$N$24:$N$25)</f>
         <v>8.1</v>
@@ -41300,10 +41330,10 @@
       <c r="F1" s="53"/>
     </row>
     <row r="2" spans="1:6" ht="39.75" customHeight="1">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="80"/>
+      <c r="B2" s="82"/>
       <c r="C2" s="54"/>
       <c r="D2" s="54"/>
       <c r="E2" s="54"/>

--- a/Scrum Sheet.xlsx
+++ b/Scrum Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Main_Project\Student-Performance-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C027D7C8-D996-4F5C-9BB1-3C5D6B4DA46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DF8A3D-3E50-4532-9C39-FE7BFBC2A98D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Sprint 3'!$A$12:$D$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Sprint 4'!$A$12:$D$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Sprint 5'!$A$12:$D$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Product Backlog'!$A$1:$I$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Sprint 1 '!$A$1:$R$46</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Sprint 2'!$A$1:$S$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Sprint 3'!$A$1:$S$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Sprint 4'!$A$1:$S$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'Sprint 5'!$A$1:$S$43</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -2556,34 +2562,34 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3942,8 +3948,8 @@
   </sheetPr>
   <dimension ref="A1:Z1005"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -32231,7 +32237,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="46" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -32242,14 +32248,14 @@
   </sheetPr>
   <dimension ref="A1:S989"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A3" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="7.77734375" customWidth="1"/>
-    <col min="3" max="3" width="37.21875" customWidth="1"/>
+    <col min="3" max="3" width="59.6640625" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" customWidth="1"/>
     <col min="5" max="5" width="10.88671875" customWidth="1"/>
     <col min="6" max="6" width="10.21875" customWidth="1"/>
@@ -32613,7 +32619,7 @@
       </c>
       <c r="S12" s="33"/>
     </row>
-    <row r="13" spans="1:19" ht="25.5" customHeight="1">
+    <row r="13" spans="1:19" ht="25.2" customHeight="1">
       <c r="A13" s="34">
         <v>1</v>
       </c>
@@ -32650,7 +32656,7 @@
       <c r="R13" s="34"/>
       <c r="S13" s="35"/>
     </row>
-    <row r="14" spans="1:19" ht="25.5" customHeight="1">
+    <row r="14" spans="1:19" ht="25.2" customHeight="1">
       <c r="A14" s="34">
         <v>2</v>
       </c>
@@ -32722,7 +32728,7 @@
       <c r="R15" s="34"/>
       <c r="S15" s="35"/>
     </row>
-    <row r="16" spans="1:19" ht="25.5" customHeight="1">
+    <row r="16" spans="1:19" ht="25.2" customHeight="1">
       <c r="A16" s="34">
         <v>4</v>
       </c>
@@ -34086,9 +34092,9 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup scale="51" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -34099,14 +34105,14 @@
   </sheetPr>
   <dimension ref="A1:S988"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="7.77734375" customWidth="1"/>
-    <col min="3" max="3" width="34.77734375" customWidth="1"/>
+    <col min="3" max="3" width="53.88671875" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" customWidth="1"/>
     <col min="5" max="5" width="10.88671875" customWidth="1"/>
     <col min="6" max="6" width="10.21875" customWidth="1"/>
@@ -34491,13 +34497,19 @@
         <v>1</v>
       </c>
       <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
+      <c r="I13" s="34">
+        <v>1</v>
+      </c>
       <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
+      <c r="K13" s="34">
+        <v>1</v>
+      </c>
       <c r="L13" s="34"/>
       <c r="M13" s="34"/>
       <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
+      <c r="O13" s="34">
+        <v>1</v>
+      </c>
       <c r="P13" s="34"/>
       <c r="Q13" s="34"/>
       <c r="R13" s="34"/>
@@ -34523,7 +34535,9 @@
         <v>1</v>
       </c>
       <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
+      <c r="H14" s="34">
+        <v>1</v>
+      </c>
       <c r="I14" s="34"/>
       <c r="J14" s="34"/>
       <c r="K14" s="34"/>
@@ -34555,14 +34569,22 @@
       <c r="H15" s="34"/>
       <c r="I15" s="34"/>
       <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
+      <c r="K15" s="34">
+        <v>1</v>
+      </c>
+      <c r="L15" s="34">
+        <v>1</v>
+      </c>
       <c r="M15" s="34"/>
       <c r="N15" s="34"/>
       <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
+      <c r="P15" s="34">
+        <v>1</v>
+      </c>
       <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
+      <c r="R15" s="34">
+        <v>1</v>
+      </c>
       <c r="S15" s="35"/>
     </row>
     <row r="16" spans="1:19" ht="12.75" customHeight="1">
@@ -35900,9 +35922,12 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup scale="54" orientation="landscape" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="18" max="1048575" man="1"/>
+  </colBreaks>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -35913,19 +35938,20 @@
   </sheetPr>
   <dimension ref="A1:S988"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView view="pageBreakPreview" topLeftCell="B1" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P45" sqref="P45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="7.77734375" customWidth="1"/>
-    <col min="3" max="3" width="34.77734375" customWidth="1"/>
+    <col min="3" max="3" width="52.5546875" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" customWidth="1"/>
     <col min="5" max="5" width="10.88671875" customWidth="1"/>
     <col min="6" max="6" width="10.21875" customWidth="1"/>
     <col min="7" max="7" width="11.21875" customWidth="1"/>
-    <col min="8" max="9" width="10.21875" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" customWidth="1"/>
+    <col min="9" max="9" width="10.21875" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
     <col min="11" max="11" width="10.77734375" customWidth="1"/>
     <col min="12" max="13" width="10.21875" customWidth="1"/>
@@ -36296,14 +36322,22 @@
       <c r="D13" s="96">
         <v>4</v>
       </c>
-      <c r="E13" s="34"/>
+      <c r="E13" s="34">
+        <v>1</v>
+      </c>
       <c r="F13" s="34"/>
       <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
+      <c r="H13" s="34">
+        <v>1</v>
+      </c>
       <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
+      <c r="J13" s="34">
+        <v>1</v>
+      </c>
       <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
+      <c r="L13" s="34">
+        <v>1</v>
+      </c>
       <c r="M13" s="34"/>
       <c r="N13" s="34"/>
       <c r="O13" s="34"/>
@@ -36329,7 +36363,9 @@
       <c r="F14" s="34"/>
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
+      <c r="I14" s="34">
+        <v>1</v>
+      </c>
       <c r="J14" s="34"/>
       <c r="K14" s="34"/>
       <c r="L14" s="34"/>
@@ -36358,7 +36394,9 @@
       <c r="F15" s="34"/>
       <c r="G15" s="34"/>
       <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
+      <c r="I15" s="34">
+        <v>2</v>
+      </c>
       <c r="J15" s="34"/>
       <c r="K15" s="34"/>
       <c r="L15" s="34"/>
@@ -36389,7 +36427,9 @@
       <c r="H16" s="34"/>
       <c r="I16" s="34"/>
       <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
+      <c r="K16" s="34">
+        <v>2</v>
+      </c>
       <c r="L16" s="34"/>
       <c r="M16" s="34"/>
       <c r="N16" s="34"/>
@@ -36448,43 +36488,43 @@
       </c>
       <c r="I18" s="44">
         <f>IF(COUNTA(I14:I16)&gt;0,SUM(I14:I16),G18)</f>
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="J18" s="44">
         <f t="shared" ref="J18:L18" si="5">IF(COUNTA(J14:J16)&gt;0,SUM(J14:J16),I18)</f>
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="K18" s="44">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="L18" s="44">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="M18" s="44">
         <f>IF(COUNTA(M14:M16)&gt;0,SUM(M14:M16),K18)</f>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="N18" s="44">
         <f t="shared" ref="N18:O18" si="6">IF(COUNTA(N14:N16)&gt;0,SUM(N14:N16),M18)</f>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="O18" s="44">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="P18" s="44">
         <f t="shared" ref="P18:R18" si="7">IF(COUNTA(P14:P16)&gt;0,SUM(P14:P16),N18)</f>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="Q18" s="44">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="R18" s="44">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="S18" s="28"/>
     </row>
@@ -36578,7 +36618,7 @@
       </c>
       <c r="I20" s="34">
         <f>G18-I18</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J20" s="34">
         <f t="shared" ref="J20:L20" si="10">I18-J18</f>
@@ -36586,7 +36626,7 @@
       </c>
       <c r="K20" s="34">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="34">
         <f t="shared" si="10"/>
@@ -37713,9 +37753,12 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup scale="55" orientation="landscape" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="18" max="1048575" man="1"/>
+  </colBreaks>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -37726,7 +37769,9 @@
   </sheetPr>
   <dimension ref="A1:S987"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -39495,9 +39540,12 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="18" max="1048575" man="1"/>
+  </colBreaks>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -39508,7 +39556,7 @@
   </sheetPr>
   <dimension ref="A1:S988"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -41298,9 +41346,12 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="18" max="1048575" man="1"/>
+  </colBreaks>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
